--- a/sqlite/docs/excel-cod.xlsx
+++ b/sqlite/docs/excel-cod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmunoz\trabajo\proyectos\LKS\FP\carga-excel-python\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD160B07-0254-45C5-837A-198D083F8BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{FD160B07-0254-45C5-837A-198D083F8BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1330BAD1-2423-400F-9A28-0C522BDB9ED5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="10" xr2:uid="{985A6DF8-F51D-4D3E-B1AA-DA801117F226}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="10" xr2:uid="{985A6DF8-F51D-4D3E-B1AA-DA801117F226}"/>
   </bookViews>
   <sheets>
     <sheet name="EX00" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6253" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6248" uniqueCount="1268">
   <si>
     <t>MODELO</t>
   </si>
@@ -2994,64 +2994,64 @@
     <t>RDL</t>
   </si>
   <si>
+    <t>Residente en los tres años inmediatamente anteriores a la solicitud , nacido en España =18 años  (art. 183.3.c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residente en los tres años inmediatamente anteriores a la solicitud, &gt;18 años y nacido en España </t>
+  </si>
+  <si>
+    <t>H2E003</t>
+  </si>
+  <si>
+    <t>RDM</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
-    <t>Residente en los tres años inmediatamente anteriores a la solicitud , nacido en España =18 años  (art. 183.3.c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residente en los tres años inmediatamente anteriores a la solicitud, &gt;18 años y nacido en España </t>
-  </si>
-  <si>
-    <t>H2E003</t>
-  </si>
-  <si>
-    <t>RDM</t>
+    <t>(5) Extranjeros que hayan contribuido de forma notoria al progreso de España o a su proyección en el exterior  (art. 183.3.g)</t>
+  </si>
+  <si>
+    <t>Contribución notoria.OFICIO</t>
+  </si>
+  <si>
+    <t>N-CADUCIDAD</t>
+  </si>
+  <si>
+    <t>H2E008</t>
+  </si>
+  <si>
+    <t>RDN</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>(5) Extranjeros que hayan contribuido de forma notoria al progreso de España o a su proyección en el exterior  (art. 183.3.g)</t>
-  </si>
-  <si>
-    <t>Contribución notoria.OFICIO</t>
-  </si>
-  <si>
-    <t>N-CADUCIDAD</t>
-  </si>
-  <si>
-    <t>H2E008</t>
-  </si>
-  <si>
-    <t>RDN</t>
+    <t>Supuesto general 5 años de residencia legal continuada en España (art. 183.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supuesto general 5 años de residencia continuada en España </t>
+  </si>
+  <si>
+    <t>H2E000</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>Supuesto general 5 años de residencia legal continuada en España (art. 183.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supuesto general 5 años de residencia continuada en España </t>
-  </si>
-  <si>
-    <t>H2E000</t>
+    <t>Residente beneficiario de pensión contributiva de jubilación o  beneficiario de incapacidad permanente absoluta o gran invalidez  (art. 183.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residente beneficiario de pensión contributiva de jubilación o beneficiario de incapacidad permanente absoluta o gran invalidez </t>
+  </si>
+  <si>
+    <t>H2E002</t>
+  </si>
+  <si>
+    <t>RDP</t>
   </si>
   <si>
     <t>G</t>
-  </si>
-  <si>
-    <t>Residente beneficiario de pensión contributiva de jubilación o  beneficiario de incapacidad permanente absoluta o gran invalidez  (art. 183.3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residente beneficiario de pensión contributiva de jubilación o beneficiario de incapacidad permanente absoluta o gran invalidez </t>
-  </si>
-  <si>
-    <t>H2E002</t>
-  </si>
-  <si>
-    <t>RDP</t>
   </si>
   <si>
     <t>IAEAAAAAKA</t>
@@ -3125,19 +3125,19 @@
     <t>2.7</t>
   </si>
   <si>
+    <t>Residente durante 5 años consecutivos inmediatamente anteriores  &gt;18 años bajo tutela de entidad (art. 183.3.e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residente tutelado por entidad pública 5 años consecutivos inmediatamente anteriores a la mayoría de edad </t>
+  </si>
+  <si>
+    <t>H2E004</t>
+  </si>
+  <si>
+    <t>RDT</t>
+  </si>
+  <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>Residente durante 5 años consecutivos inmediatamente anteriores  &gt;18 años bajo tutela de entidad (art. 183.3.e)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residente tutelado por entidad pública 5 años consecutivos inmediatamente anteriores a la mayoría de edad </t>
-  </si>
-  <si>
-    <t>H2E004</t>
-  </si>
-  <si>
-    <t>RDT</t>
   </si>
   <si>
     <t xml:space="preserve">TITULAR de residencia de larga duración-UE en otro Estado miembro (art.179 ) </t>
@@ -3323,15 +3323,15 @@
     <t xml:space="preserve">COD MEYSS </t>
   </si>
   <si>
-    <t>DURACIÓN máxima</t>
-  </si>
-  <si>
     <t>VIGENTE DESDE</t>
   </si>
   <si>
     <t>VIGENTE HASTA</t>
   </si>
   <si>
+    <t>RENOVACION.CODIGOMEYSS</t>
+  </si>
+  <si>
     <t>REV. COD.ACEX</t>
   </si>
   <si>
@@ -3438,9 +3438,6 @@
   </si>
   <si>
     <t>MAN</t>
-  </si>
-  <si>
-    <t>5 años/ condicionada</t>
   </si>
   <si>
     <t>TARJETA DE RESIDENCIA PERMANENTE DE FAMILIAR DE LA UE</t>
@@ -4274,7 +4271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4768,7 +4765,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5726,6 +5723,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6432,19 +6430,19 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="4" max="4" width="57.5546875" customWidth="1"/>
-    <col min="5" max="5" width="47.88671875" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="110.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6515,7 +6513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="165.6">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -6580,7 +6578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="165.6">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -6645,7 +6643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="165.6">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -6710,7 +6708,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="138" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="138">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -6775,7 +6773,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="138" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="138">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -6840,7 +6838,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="151.9">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -6903,7 +6901,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="151.9">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -6966,7 +6964,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="41.45">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -7029,7 +7027,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="41.45">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -7092,7 +7090,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="124.15">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -7157,7 +7155,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="124.15">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -7222,7 +7220,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="82.9">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -7287,7 +7285,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="82.9">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -7352,7 +7350,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="55.15">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -7413,7 +7411,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="55.15">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
@@ -7474,7 +7472,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="55.15">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -7537,7 +7535,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="55.15">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -7600,7 +7598,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="82.9">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -7665,7 +7663,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="82.9">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -7730,7 +7728,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="41.45">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
@@ -7791,7 +7789,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="151.9">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -7856,7 +7854,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="41.45">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
@@ -7919,7 +7917,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="82.9">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -7984,7 +7982,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="41.45">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -8043,7 +8041,7 @@
       </c>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="55.15">
       <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
@@ -8108,7 +8106,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="41.45">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
@@ -8173,7 +8171,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="41.45">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
@@ -8236,7 +8234,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="124.15">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -8301,7 +8299,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="82.9">
       <c r="A30" s="4" t="s">
         <v>23</v>
       </c>
@@ -8366,7 +8364,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="55.15">
       <c r="A31" s="4" t="s">
         <v>23</v>
       </c>
@@ -8429,7 +8427,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="55.15">
       <c r="A32" s="4" t="s">
         <v>23</v>
       </c>
@@ -8509,20 +8507,20 @@
   </sheetPr>
   <dimension ref="A1:AS20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" customWidth="1"/>
-    <col min="5" max="5" width="45.5546875" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" customWidth="1"/>
-    <col min="31" max="31" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="110.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8659,7 +8657,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" ht="41.45">
       <c r="A2" s="161" t="s">
         <v>855</v>
       </c>
@@ -8766,7 +8764,7 @@
       <c r="AR2" s="147"/>
       <c r="AS2" s="147"/>
     </row>
-    <row r="3" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="27.6">
       <c r="A3" s="161" t="s">
         <v>855</v>
       </c>
@@ -8873,7 +8871,7 @@
       <c r="AR3" s="147"/>
       <c r="AS3" s="147"/>
     </row>
-    <row r="4" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="27.6">
       <c r="A4" s="161" t="s">
         <v>855</v>
       </c>
@@ -8980,7 +8978,7 @@
       <c r="AR4" s="147"/>
       <c r="AS4" s="147"/>
     </row>
-    <row r="5" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="27.6">
       <c r="A5" s="161" t="s">
         <v>855</v>
       </c>
@@ -8992,10 +8990,10 @@
         <v>857</v>
       </c>
       <c r="E5" s="141" t="s">
+        <v>875</v>
+      </c>
+      <c r="F5" s="141" t="s">
         <v>876</v>
-      </c>
-      <c r="F5" s="141" t="s">
-        <v>877</v>
       </c>
       <c r="G5" s="162" t="s">
         <v>298</v>
@@ -9007,13 +9005,13 @@
         <v>131</v>
       </c>
       <c r="J5" s="163" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K5" s="147" t="s">
         <v>861</v>
       </c>
       <c r="L5" s="147" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M5" s="162" t="s">
         <v>201</v>
@@ -9065,7 +9063,7 @@
         <v>856</v>
       </c>
       <c r="AF5" s="139" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="AG5" s="147" t="s">
         <v>209</v>
@@ -9089,7 +9087,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" ht="41.45">
       <c r="A6" s="161" t="s">
         <v>855</v>
       </c>
@@ -9101,10 +9099,10 @@
         <v>857</v>
       </c>
       <c r="E6" s="141" t="s">
+        <v>880</v>
+      </c>
+      <c r="F6" s="141" t="s">
         <v>881</v>
-      </c>
-      <c r="F6" s="141" t="s">
-        <v>882</v>
       </c>
       <c r="G6" s="162" t="s">
         <v>298</v>
@@ -9113,16 +9111,16 @@
         <v>215</v>
       </c>
       <c r="I6" s="147" t="s">
+        <v>882</v>
+      </c>
+      <c r="J6" s="163" t="s">
         <v>883</v>
-      </c>
-      <c r="J6" s="163" t="s">
-        <v>884</v>
       </c>
       <c r="K6" s="147" t="s">
         <v>861</v>
       </c>
       <c r="L6" s="147" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="M6" s="162" t="s">
         <v>201</v>
@@ -9174,7 +9172,7 @@
         <v>856</v>
       </c>
       <c r="AF6" s="139" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="AG6" s="147" t="s">
         <v>209</v>
@@ -9196,7 +9194,7 @@
       <c r="AR6" s="147"/>
       <c r="AS6" s="147"/>
     </row>
-    <row r="7" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="27.6">
       <c r="A7" s="161" t="s">
         <v>855</v>
       </c>
@@ -9208,10 +9206,10 @@
         <v>857</v>
       </c>
       <c r="E7" s="141" t="s">
+        <v>886</v>
+      </c>
+      <c r="F7" s="141" t="s">
         <v>887</v>
-      </c>
-      <c r="F7" s="141" t="s">
-        <v>888</v>
       </c>
       <c r="G7" s="162" t="s">
         <v>298</v>
@@ -9223,7 +9221,7 @@
         <v>131</v>
       </c>
       <c r="J7" s="163" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K7" s="147" t="s">
         <v>861</v>
@@ -9281,7 +9279,7 @@
         <v>856</v>
       </c>
       <c r="AF7" s="139" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="AG7" s="147" t="s">
         <v>209</v>
@@ -9303,7 +9301,7 @@
       <c r="AR7" s="147"/>
       <c r="AS7" s="147"/>
     </row>
-    <row r="8" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" ht="41.45">
       <c r="A8" s="161" t="s">
         <v>855</v>
       </c>
@@ -9315,10 +9313,10 @@
         <v>857</v>
       </c>
       <c r="E8" s="167" t="s">
+        <v>890</v>
+      </c>
+      <c r="F8" s="141" t="s">
         <v>891</v>
-      </c>
-      <c r="F8" s="141" t="s">
-        <v>892</v>
       </c>
       <c r="G8" s="162" t="s">
         <v>298</v>
@@ -9330,13 +9328,13 @@
         <v>131</v>
       </c>
       <c r="J8" s="163" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K8" s="147" t="s">
         <v>861</v>
       </c>
       <c r="L8" s="147" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M8" s="162" t="s">
         <v>201</v>
@@ -9388,7 +9386,7 @@
         <v>856</v>
       </c>
       <c r="AF8" s="139" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="AG8" s="147" t="s">
         <v>209</v>
@@ -9410,7 +9408,7 @@
       <c r="AR8" s="147"/>
       <c r="AS8" s="147"/>
     </row>
-    <row r="9" spans="1:45" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="55.15">
       <c r="A9" s="161" t="s">
         <v>855</v>
       </c>
@@ -9517,7 +9515,7 @@
       <c r="AR9" s="147"/>
       <c r="AS9" s="147"/>
     </row>
-    <row r="10" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" ht="41.45">
       <c r="A10" s="161" t="s">
         <v>855</v>
       </c>
@@ -9624,7 +9622,7 @@
       <c r="AR10" s="147"/>
       <c r="AS10" s="147"/>
     </row>
-    <row r="11" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="41.45">
       <c r="A11" s="161" t="s">
         <v>855</v>
       </c>
@@ -9636,10 +9634,10 @@
         <v>857</v>
       </c>
       <c r="E11" s="141" t="s">
+        <v>907</v>
+      </c>
+      <c r="F11" s="141" t="s">
         <v>908</v>
-      </c>
-      <c r="F11" s="141" t="s">
-        <v>909</v>
       </c>
       <c r="G11" s="162" t="s">
         <v>298</v>
@@ -9651,13 +9649,13 @@
         <v>131</v>
       </c>
       <c r="J11" s="163" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K11" s="147" t="s">
         <v>861</v>
       </c>
       <c r="L11" s="147" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="M11" s="162" t="s">
         <v>201</v>
@@ -9709,7 +9707,7 @@
         <v>856</v>
       </c>
       <c r="AF11" s="139" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="AG11" s="147" t="s">
         <v>209</v>
@@ -9731,7 +9729,7 @@
       <c r="AR11" s="147"/>
       <c r="AS11" s="147"/>
     </row>
-    <row r="12" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" ht="27.6">
       <c r="A12" s="161" t="s">
         <v>855</v>
       </c>
@@ -9838,7 +9836,7 @@
       <c r="AR12" s="147"/>
       <c r="AS12" s="147"/>
     </row>
-    <row r="13" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="41.45">
       <c r="A13" s="161" t="s">
         <v>855</v>
       </c>
@@ -9945,7 +9943,7 @@
       <c r="AR13" s="147"/>
       <c r="AS13" s="147"/>
     </row>
-    <row r="14" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" ht="41.45">
       <c r="A14" s="161" t="s">
         <v>855</v>
       </c>
@@ -10030,7 +10028,7 @@
         <v>895</v>
       </c>
       <c r="AF14" s="139" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="AG14" s="147" t="s">
         <v>209</v>
@@ -10052,7 +10050,7 @@
       <c r="AR14" s="147"/>
       <c r="AS14" s="147"/>
     </row>
-    <row r="15" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="41.45">
       <c r="A15" s="161" t="s">
         <v>855</v>
       </c>
@@ -10159,7 +10157,7 @@
       <c r="AR15" s="147"/>
       <c r="AS15" s="147"/>
     </row>
-    <row r="16" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" ht="41.45">
       <c r="A16" s="161" t="s">
         <v>855</v>
       </c>
@@ -10266,7 +10264,7 @@
       <c r="AR16" s="147"/>
       <c r="AS16" s="147"/>
     </row>
-    <row r="17" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="41.45">
       <c r="A17" s="161" t="s">
         <v>855</v>
       </c>
@@ -10373,7 +10371,7 @@
       <c r="AR17" s="147"/>
       <c r="AS17" s="147"/>
     </row>
-    <row r="18" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" ht="41.45">
       <c r="A18" s="161" t="s">
         <v>855</v>
       </c>
@@ -10480,7 +10478,7 @@
       <c r="AR18" s="147"/>
       <c r="AS18" s="147"/>
     </row>
-    <row r="19" spans="1:45" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="55.15">
       <c r="A19" s="161" t="s">
         <v>855</v>
       </c>
@@ -10587,7 +10585,7 @@
       <c r="AR19" s="147"/>
       <c r="AS19" s="147"/>
     </row>
-    <row r="20" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" ht="41.45">
       <c r="A20" s="161" t="s">
         <v>855</v>
       </c>
@@ -10672,7 +10670,7 @@
         <v>927</v>
       </c>
       <c r="AF20" s="139" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="AG20" s="147" t="s">
         <v>209</v>
@@ -10712,26 +10710,26 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" customWidth="1"/>
-    <col min="5" max="5" width="44.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="20.5546875" customWidth="1"/>
-    <col min="14" max="14" width="22" customWidth="1"/>
-    <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="34" max="34" width="39.44140625" customWidth="1"/>
-    <col min="35" max="35" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="337"/>
+    <col min="30" max="30" width="13" customWidth="1"/>
+    <col min="33" max="33" width="39.42578125" customWidth="1"/>
+    <col min="34" max="34" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="44.25">
       <c r="A1" s="275" t="s">
         <v>953</v>
       </c>
@@ -10768,11 +10766,11 @@
       <c r="L1" s="277" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>958</v>
@@ -10781,67 +10779,64 @@
         <v>959</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="S1" s="278" t="s">
+      <c r="R1" s="278" t="s">
         <v>961</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="T1" s="27" t="s">
         <v>962</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="V1" s="27" t="s">
         <v>964</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>965</v>
       </c>
+      <c r="X1" s="26" t="s">
+        <v>966</v>
+      </c>
       <c r="Y1" s="26" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="Z1" s="26" t="s">
-        <v>967</v>
-      </c>
-      <c r="AA1" s="26" t="s">
         <v>968</v>
       </c>
-      <c r="AB1" s="263" t="s">
+      <c r="AA1" s="263" t="s">
         <v>969</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AB1" s="26" t="s">
         <v>970</v>
       </c>
-      <c r="AD1" s="263" t="s">
+      <c r="AC1" s="263" t="s">
         <v>971</v>
       </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AD1" s="26" t="s">
         <v>178</v>
       </c>
+      <c r="AE1" s="263" t="s">
+        <v>972</v>
+      </c>
       <c r="AF1" s="263" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AG1" s="263" t="s">
-        <v>973</v>
-      </c>
-      <c r="AH1" s="263" t="s">
         <v>181</v>
       </c>
-      <c r="AI1" s="26" t="s">
+      <c r="AH1" s="26" t="s">
         <v>974</v>
       </c>
-      <c r="AJ1" s="279" t="s">
+      <c r="AI1" s="279" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35">
       <c r="A2" s="280" t="s">
         <v>976</v>
       </c>
@@ -10873,47 +10868,44 @@
         <v>981</v>
       </c>
       <c r="M2" s="282" t="s">
+        <v>982</v>
+      </c>
+      <c r="Q2" s="282"/>
+      <c r="S2" s="282" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="282" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="282" t="s">
+        <v>363</v>
+      </c>
+      <c r="W2" t="s">
         <v>277</v>
       </c>
-      <c r="N2" s="282" t="s">
-        <v>982</v>
-      </c>
-      <c r="R2" s="282"/>
-      <c r="T2" s="282" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="282" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="282" t="s">
-        <v>363</v>
-      </c>
-      <c r="X2" t="s">
-        <v>277</v>
+      <c r="X2" s="282" t="s">
+        <v>983</v>
       </c>
       <c r="Y2" s="282" t="s">
         <v>983</v>
       </c>
       <c r="Z2" s="282" t="s">
-        <v>983</v>
-      </c>
-      <c r="AA2" s="282" t="s">
         <v>984</v>
       </c>
-      <c r="AC2" s="282" t="s">
+      <c r="AB2" s="282" t="s">
         <v>985</v>
       </c>
-      <c r="AE2" s="282" t="s">
+      <c r="AD2" s="282" t="s">
         <v>986</v>
       </c>
+      <c r="AG2" s="282" t="s">
+        <v>987</v>
+      </c>
       <c r="AH2" s="282" t="s">
-        <v>987</v>
-      </c>
-      <c r="AI2" s="282" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35">
       <c r="A3" s="280" t="s">
         <v>976</v>
       </c>
@@ -10942,47 +10934,44 @@
         <v>991</v>
       </c>
       <c r="M3" s="282" t="s">
+        <v>982</v>
+      </c>
+      <c r="Q3" s="282"/>
+      <c r="S3" s="282" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="282" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="282" t="s">
+        <v>363</v>
+      </c>
+      <c r="W3" t="s">
         <v>277</v>
       </c>
-      <c r="N3" s="282" t="s">
-        <v>982</v>
-      </c>
-      <c r="R3" s="282"/>
-      <c r="T3" s="282" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" s="282" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="282" t="s">
-        <v>363</v>
-      </c>
-      <c r="X3" t="s">
-        <v>277</v>
+      <c r="X3" s="282" t="s">
+        <v>983</v>
       </c>
       <c r="Y3" s="282" t="s">
         <v>983</v>
       </c>
       <c r="Z3" s="282" t="s">
-        <v>983</v>
-      </c>
-      <c r="AA3" s="282" t="s">
         <v>984</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AB3" t="s">
         <v>984</v>
       </c>
-      <c r="AE3" s="282" t="s">
+      <c r="AD3" s="282" t="s">
         <v>986</v>
       </c>
+      <c r="AG3" s="282" t="s">
+        <v>987</v>
+      </c>
       <c r="AH3" s="282" t="s">
-        <v>987</v>
-      </c>
-      <c r="AI3" s="282" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35">
       <c r="A4" s="280" t="s">
         <v>976</v>
       </c>
@@ -11014,57 +11003,54 @@
         <v>995</v>
       </c>
       <c r="M4" s="282" t="s">
-        <v>996</v>
-      </c>
-      <c r="N4" s="282" t="s">
         <v>982</v>
       </c>
+      <c r="S4" s="282" t="s">
+        <v>38</v>
+      </c>
       <c r="T4" s="282" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="282" t="s">
-        <v>38</v>
-      </c>
-      <c r="W4" s="282" t="s">
+      <c r="V4" s="282" t="s">
         <v>363</v>
       </c>
-      <c r="X4" t="s">
+      <c r="W4" t="s">
         <v>277</v>
+      </c>
+      <c r="X4" s="282" t="s">
+        <v>983</v>
       </c>
       <c r="Y4" s="282" t="s">
         <v>983</v>
       </c>
       <c r="Z4" s="282" t="s">
-        <v>983</v>
-      </c>
-      <c r="AA4" s="282" t="s">
         <v>984</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AB4" t="s">
         <v>984</v>
       </c>
-      <c r="AE4" s="282" t="s">
+      <c r="AD4" s="282" t="s">
         <v>986</v>
       </c>
+      <c r="AG4" s="282" t="s">
+        <v>987</v>
+      </c>
       <c r="AH4" s="282" t="s">
-        <v>987</v>
-      </c>
-      <c r="AI4" s="282" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35">
       <c r="A5" s="280" t="s">
         <v>976</v>
       </c>
       <c r="D5" s="281" t="s">
+        <v>996</v>
+      </c>
+      <c r="E5" s="282" t="s">
         <v>997</v>
       </c>
-      <c r="E5" s="282" t="s">
+      <c r="F5" s="282" t="s">
         <v>998</v>
-      </c>
-      <c r="F5" s="282" t="s">
-        <v>999</v>
       </c>
       <c r="G5" s="282" t="s">
         <v>131</v>
@@ -11076,51 +11062,48 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
+        <v>999</v>
+      </c>
+      <c r="K5" s="284" t="s">
         <v>1000</v>
       </c>
-      <c r="K5" s="284" t="s">
+      <c r="L5" s="284" t="s">
         <v>1001</v>
       </c>
-      <c r="L5" s="284" t="s">
+      <c r="M5" s="282" t="s">
+        <v>982</v>
+      </c>
+      <c r="S5" s="282" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="282" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" s="282" t="s">
+        <v>363</v>
+      </c>
+      <c r="W5" t="s">
         <v>1002</v>
       </c>
-      <c r="M5" s="282" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N5" s="282" t="s">
-        <v>982</v>
-      </c>
-      <c r="T5" s="282" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5" s="282" t="s">
-        <v>38</v>
-      </c>
-      <c r="W5" s="282" t="s">
-        <v>363</v>
-      </c>
-      <c r="X5" t="s">
-        <v>1003</v>
+      <c r="X5" s="282" t="s">
+        <v>983</v>
       </c>
       <c r="Y5" s="282" t="s">
         <v>983</v>
       </c>
       <c r="Z5" s="282" t="s">
-        <v>983</v>
-      </c>
-      <c r="AA5" s="282" t="s">
         <v>984</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AB5" t="s">
         <v>984</v>
       </c>
-      <c r="AE5" s="282" t="s">
+      <c r="AD5" s="282" t="s">
         <v>986</v>
       </c>
+      <c r="AG5" s="282" t="s">
+        <v>987</v>
+      </c>
       <c r="AH5" s="282" t="s">
-        <v>987</v>
-      </c>
-      <c r="AI5" s="282" t="s">
         <v>988</v>
       </c>
     </row>
@@ -11137,21 +11120,21 @@
   </sheetPr>
   <dimension ref="A1:CK7"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="182" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="182" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
     <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="172" customFormat="1" ht="110.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:89" s="172" customFormat="1" ht="110.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11332,22 +11315,22 @@
       <c r="CJ1" s="178"/>
       <c r="CK1" s="178"/>
     </row>
-    <row r="2" spans="1:89" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:89" ht="41.45">
       <c r="A2" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B2" s="179" t="s">
         <v>1004</v>
-      </c>
-      <c r="B2" s="179" t="s">
-        <v>1005</v>
       </c>
       <c r="C2" s="179" t="s">
         <v>399</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="33" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>27</v>
@@ -11359,13 +11342,13 @@
         <v>29</v>
       </c>
       <c r="J2" s="180" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K2" s="34" t="s">
         <v>1008</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>1009</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>1010</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>201</v>
@@ -11379,7 +11362,7 @@
         <v>262</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="S2" s="34" t="s">
         <v>38</v>
@@ -11416,7 +11399,7 @@
         <v>221</v>
       </c>
       <c r="AE2" s="181" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AF2" s="181" t="s">
         <v>399</v>
@@ -11425,25 +11408,25 @@
         <v>209</v>
       </c>
       <c r="AH2" s="34" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
-    <row r="3" spans="1:89" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:89" ht="41.45">
       <c r="A3" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B3" s="179" t="s">
         <v>1004</v>
-      </c>
-      <c r="B3" s="179" t="s">
-        <v>1005</v>
       </c>
       <c r="C3" s="179" t="s">
         <v>574</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="33" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>27</v>
@@ -11455,13 +11438,13 @@
         <v>29</v>
       </c>
       <c r="J3" s="180" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L3" s="34" t="s">
         <v>1014</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>1009</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>1015</v>
       </c>
       <c r="M3" s="34" t="s">
         <v>201</v>
@@ -11475,7 +11458,7 @@
         <v>262</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="S3" s="34" t="s">
         <v>38</v>
@@ -11512,7 +11495,7 @@
         <v>221</v>
       </c>
       <c r="AE3" s="181" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AF3" s="181" t="s">
         <v>574</v>
@@ -11524,22 +11507,22 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:89" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:89" ht="41.45">
       <c r="A4" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="179" t="s">
         <v>1004</v>
-      </c>
-      <c r="B4" s="179" t="s">
-        <v>1005</v>
       </c>
       <c r="C4" s="179" t="s">
         <v>579</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="33" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>27</v>
@@ -11551,13 +11534,13 @@
         <v>29</v>
       </c>
       <c r="J4" s="180" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L4" s="34" t="s">
         <v>1017</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>1009</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>1018</v>
       </c>
       <c r="M4" s="34" t="s">
         <v>201</v>
@@ -11571,7 +11554,7 @@
         <v>262</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="S4" s="34" t="s">
         <v>38</v>
@@ -11608,7 +11591,7 @@
         <v>221</v>
       </c>
       <c r="AE4" s="181" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AF4" s="181" t="s">
         <v>579</v>
@@ -11618,22 +11601,22 @@
       </c>
       <c r="AH4" s="31"/>
     </row>
-    <row r="5" spans="1:89" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:89" ht="41.45">
       <c r="A5" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="179" t="s">
         <v>1004</v>
       </c>
-      <c r="B5" s="179" t="s">
+      <c r="C5" s="179" t="s">
+        <v>879</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>1005</v>
-      </c>
-      <c r="C5" s="179" t="s">
-        <v>875</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>1006</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="33" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>27</v>
@@ -11645,13 +11628,13 @@
         <v>29</v>
       </c>
       <c r="J5" s="180" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L5" s="34" t="s">
         <v>1020</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>1009</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>1021</v>
       </c>
       <c r="M5" s="34" t="s">
         <v>201</v>
@@ -11665,7 +11648,7 @@
         <v>262</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="S5" s="34" t="s">
         <v>38</v>
@@ -11702,32 +11685,32 @@
         <v>221</v>
       </c>
       <c r="AE5" s="181" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AF5" s="181" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="AG5" s="34" t="s">
         <v>209</v>
       </c>
       <c r="AH5" s="31"/>
     </row>
-    <row r="6" spans="1:89" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:89" ht="41.45">
       <c r="A6" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B6" s="179" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C6" s="179" t="s">
         <v>399</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="33" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>298</v>
@@ -11739,13 +11722,13 @@
         <v>131</v>
       </c>
       <c r="J6" s="180" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K6" s="34" t="s">
         <v>1025</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="L6" s="34" t="s">
         <v>1026</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>1027</v>
       </c>
       <c r="M6" s="34" t="s">
         <v>201</v>
@@ -11759,7 +11742,7 @@
         <v>262</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="S6" s="34" t="s">
         <v>38</v>
@@ -11796,7 +11779,7 @@
         <v>221</v>
       </c>
       <c r="AE6" s="181" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AF6" s="181" t="s">
         <v>399</v>
@@ -11808,22 +11791,22 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:89" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:89" ht="41.45">
       <c r="A7" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B7" s="179" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C7" s="179" t="s">
         <v>399</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="33" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>27</v>
@@ -11835,13 +11818,13 @@
         <v>29</v>
       </c>
       <c r="J7" s="180" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K7" s="34" t="s">
         <v>1031</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="L7" s="34" t="s">
         <v>1032</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>1033</v>
       </c>
       <c r="M7" s="34" t="s">
         <v>201</v>
@@ -11855,7 +11838,7 @@
         <v>262</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="S7" s="34" t="s">
         <v>38</v>
@@ -11892,7 +11875,7 @@
         <v>221</v>
       </c>
       <c r="AE7" s="181" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="AF7" s="181" t="s">
         <v>399</v>
@@ -11921,17 +11904,17 @@
   </sheetPr>
   <dimension ref="A1:AS26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
-    <col min="5" max="5" width="50.88671875" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="110.45">
       <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
@@ -12068,17 +12051,17 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" ht="41.45">
       <c r="A2" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B2" s="185"/>
       <c r="C2" s="185"/>
       <c r="D2" s="186" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E2" s="175" t="s">
         <v>1035</v>
-      </c>
-      <c r="E2" s="175" t="s">
-        <v>1036</v>
       </c>
       <c r="F2" s="186"/>
       <c r="G2" s="187" t="s">
@@ -12091,16 +12074,16 @@
         <v>29</v>
       </c>
       <c r="J2" s="52" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K2" s="54" t="s">
         <v>1037</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="L2" s="54" t="s">
         <v>1038</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="M2" s="187" t="s">
         <v>1039</v>
-      </c>
-      <c r="M2" s="187" t="s">
-        <v>1040</v>
       </c>
       <c r="N2" s="188">
         <v>45797</v>
@@ -12118,7 +12101,7 @@
         <v>34</v>
       </c>
       <c r="S2" s="52" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="T2" s="52" t="s">
         <v>38</v>
@@ -12127,13 +12110,13 @@
         <v>34</v>
       </c>
       <c r="V2" s="190" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="W2" s="191" t="s">
         <v>277</v>
       </c>
       <c r="X2" s="187" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Y2" s="187" t="s">
         <v>611</v>
@@ -12154,7 +12137,7 @@
         <v>617</v>
       </c>
       <c r="AE2" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF2" s="52" t="s">
         <v>34</v>
@@ -12173,17 +12156,17 @@
       <c r="AR2" s="180"/>
       <c r="AS2" s="180"/>
     </row>
-    <row r="3" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="41.45">
       <c r="A3" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B3" s="185"/>
       <c r="C3" s="185"/>
       <c r="D3" s="186" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E3" s="175" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F3" s="186"/>
       <c r="G3" s="187" t="s">
@@ -12196,16 +12179,16 @@
         <v>29</v>
       </c>
       <c r="J3" s="52" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L3" s="47" t="s">
         <v>1046</v>
       </c>
-      <c r="K3" s="54" t="s">
-        <v>1038</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>1047</v>
-      </c>
       <c r="M3" s="187" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N3" s="188">
         <v>45797</v>
@@ -12223,7 +12206,7 @@
         <v>34</v>
       </c>
       <c r="S3" s="52" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="T3" s="52" t="s">
         <v>38</v>
@@ -12232,13 +12215,13 @@
         <v>34</v>
       </c>
       <c r="V3" s="192" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="W3" s="191" t="s">
         <v>277</v>
       </c>
       <c r="X3" s="187" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Y3" s="187" t="s">
         <v>611</v>
@@ -12259,7 +12242,7 @@
         <v>617</v>
       </c>
       <c r="AE3" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF3" s="52" t="s">
         <v>34</v>
@@ -12278,17 +12261,17 @@
       <c r="AR3" s="180"/>
       <c r="AS3" s="180"/>
     </row>
-    <row r="4" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="39.6">
       <c r="A4" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B4" s="185"/>
       <c r="C4" s="185"/>
       <c r="D4" s="186" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E4" s="175" t="s">
         <v>1049</v>
-      </c>
-      <c r="E4" s="175" t="s">
-        <v>1050</v>
       </c>
       <c r="F4" s="186"/>
       <c r="G4" s="187" t="s">
@@ -12301,16 +12284,16 @@
         <v>29</v>
       </c>
       <c r="J4" s="52" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K4" s="54" t="s">
         <v>1051</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="L4" s="54" t="s">
         <v>1052</v>
       </c>
-      <c r="L4" s="54" t="s">
-        <v>1053</v>
-      </c>
       <c r="M4" s="187" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N4" s="188">
         <v>45797</v>
@@ -12319,13 +12302,13 @@
         <v>410900</v>
       </c>
       <c r="P4" s="52" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Q4" s="193" t="s">
         <v>1054</v>
       </c>
-      <c r="Q4" s="193" t="s">
+      <c r="R4" s="193" t="s">
         <v>1055</v>
-      </c>
-      <c r="R4" s="193" t="s">
-        <v>1056</v>
       </c>
       <c r="S4" s="330" t="s">
         <v>38</v>
@@ -12340,7 +12323,7 @@
         <v>53</v>
       </c>
       <c r="W4" s="191" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="X4" s="180" t="s">
         <v>38</v>
@@ -12364,7 +12347,7 @@
         <v>617</v>
       </c>
       <c r="AE4" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF4" s="52" t="s">
         <v>34</v>
@@ -12383,17 +12366,17 @@
       <c r="AR4" s="180"/>
       <c r="AS4" s="180"/>
     </row>
-    <row r="5" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="39.6">
       <c r="A5" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B5" s="185"/>
       <c r="C5" s="185"/>
       <c r="D5" s="186" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E5" s="175" t="s">
         <v>1058</v>
-      </c>
-      <c r="E5" s="175" t="s">
-        <v>1059</v>
       </c>
       <c r="F5" s="186"/>
       <c r="G5" s="187" t="s">
@@ -12406,16 +12389,16 @@
         <v>29</v>
       </c>
       <c r="J5" s="52" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L5" s="54" t="s">
         <v>1060</v>
       </c>
-      <c r="K5" s="54" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L5" s="54" t="s">
-        <v>1061</v>
-      </c>
       <c r="M5" s="187" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N5" s="188">
         <v>45797</v>
@@ -12424,13 +12407,13 @@
         <v>410900</v>
       </c>
       <c r="P5" s="52" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Q5" s="193" t="s">
+        <v>1054</v>
+      </c>
+      <c r="R5" s="193" t="s">
         <v>1062</v>
-      </c>
-      <c r="Q5" s="193" t="s">
-        <v>1055</v>
-      </c>
-      <c r="R5" s="193" t="s">
-        <v>1063</v>
       </c>
       <c r="S5" s="330" t="s">
         <v>38</v>
@@ -12445,7 +12428,7 @@
         <v>53</v>
       </c>
       <c r="W5" s="191" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="X5" s="180" t="s">
         <v>38</v>
@@ -12469,7 +12452,7 @@
         <v>617</v>
       </c>
       <c r="AE5" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF5" s="52" t="s">
         <v>34</v>
@@ -12488,17 +12471,17 @@
       <c r="AR5" s="180"/>
       <c r="AS5" s="180"/>
     </row>
-    <row r="6" spans="1:45" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" ht="66">
       <c r="A6" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B6" s="185"/>
       <c r="C6" s="185"/>
       <c r="D6" s="186" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E6" s="175" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F6" s="186"/>
       <c r="G6" s="187" t="s">
@@ -12511,16 +12494,16 @@
         <v>29</v>
       </c>
       <c r="J6" s="52" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L6" s="54" t="s">
         <v>1065</v>
       </c>
-      <c r="K6" s="54" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L6" s="54" t="s">
-        <v>1066</v>
-      </c>
       <c r="M6" s="187" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N6" s="188">
         <v>45797</v>
@@ -12529,16 +12512,16 @@
         <v>410900</v>
       </c>
       <c r="P6" s="52" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Q6" s="193" t="s">
         <v>1054</v>
       </c>
-      <c r="Q6" s="193" t="s">
+      <c r="R6" s="193" t="s">
         <v>1055</v>
       </c>
-      <c r="R6" s="193" t="s">
-        <v>1056</v>
-      </c>
       <c r="S6" s="52" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="T6" s="52" t="s">
         <v>38</v>
@@ -12550,7 +12533,7 @@
         <v>53</v>
       </c>
       <c r="W6" s="194" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="X6" s="180" t="s">
         <v>38</v>
@@ -12574,7 +12557,7 @@
         <v>617</v>
       </c>
       <c r="AE6" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF6" s="52" t="s">
         <v>34</v>
@@ -12593,17 +12576,17 @@
       <c r="AR6" s="180"/>
       <c r="AS6" s="180"/>
     </row>
-    <row r="7" spans="1:45" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="66">
       <c r="A7" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B7" s="185"/>
       <c r="C7" s="185"/>
       <c r="D7" s="186" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E7" s="175" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F7" s="186"/>
       <c r="G7" s="187" t="s">
@@ -12616,16 +12599,16 @@
         <v>29</v>
       </c>
       <c r="J7" s="52" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L7" s="54" t="s">
         <v>1070</v>
       </c>
-      <c r="K7" s="54" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L7" s="54" t="s">
-        <v>1071</v>
-      </c>
       <c r="M7" s="187" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N7" s="188">
         <v>45797</v>
@@ -12634,16 +12617,16 @@
         <v>410900</v>
       </c>
       <c r="P7" s="52" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Q7" s="193" t="s">
+        <v>1054</v>
+      </c>
+      <c r="R7" s="193" t="s">
         <v>1062</v>
       </c>
-      <c r="Q7" s="193" t="s">
-        <v>1055</v>
-      </c>
-      <c r="R7" s="193" t="s">
-        <v>1063</v>
-      </c>
       <c r="S7" s="52" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="T7" s="52" t="s">
         <v>38</v>
@@ -12655,7 +12638,7 @@
         <v>53</v>
       </c>
       <c r="W7" s="194" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="X7" s="180" t="s">
         <v>38</v>
@@ -12679,7 +12662,7 @@
         <v>617</v>
       </c>
       <c r="AE7" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF7" s="52" t="s">
         <v>34</v>
@@ -12698,21 +12681,21 @@
       <c r="AR7" s="180"/>
       <c r="AS7" s="180"/>
     </row>
-    <row r="8" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" ht="41.45">
       <c r="A8" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B8" s="185"/>
       <c r="C8" s="185"/>
       <c r="D8" s="186" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E8" s="175" t="s">
         <v>1072</v>
-      </c>
-      <c r="E8" s="175" t="s">
-        <v>1073</v>
       </c>
       <c r="F8" s="186"/>
       <c r="G8" s="187" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H8" s="187" t="s">
         <v>215</v>
@@ -12721,16 +12704,16 @@
         <v>29</v>
       </c>
       <c r="J8" s="52" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K8" s="54" t="s">
         <v>1054</v>
       </c>
-      <c r="K8" s="54" t="s">
+      <c r="L8" s="54" t="s">
         <v>1055</v>
       </c>
-      <c r="L8" s="54" t="s">
-        <v>1056</v>
-      </c>
       <c r="M8" s="187" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N8" s="188">
         <v>45797</v>
@@ -12739,16 +12722,16 @@
         <v>410900</v>
       </c>
       <c r="P8" s="52" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Q8" s="193" t="s">
         <v>1054</v>
       </c>
-      <c r="Q8" s="193" t="s">
+      <c r="R8" s="193" t="s">
         <v>1055</v>
       </c>
-      <c r="R8" s="193" t="s">
-        <v>1056</v>
-      </c>
       <c r="S8" s="330" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="T8" s="52" t="s">
         <v>38</v>
@@ -12760,7 +12743,7 @@
         <v>53</v>
       </c>
       <c r="W8" s="191" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="X8" s="180" t="s">
         <v>38</v>
@@ -12784,7 +12767,7 @@
         <v>617</v>
       </c>
       <c r="AE8" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF8" s="52" t="s">
         <v>34</v>
@@ -12803,21 +12786,21 @@
       <c r="AR8" s="180"/>
       <c r="AS8" s="180"/>
     </row>
-    <row r="9" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="41.45">
       <c r="A9" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B9" s="185"/>
       <c r="C9" s="185"/>
       <c r="D9" s="186" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E9" s="175" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F9" s="186"/>
       <c r="G9" s="187" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H9" s="187" t="s">
         <v>215</v>
@@ -12826,16 +12809,16 @@
         <v>29</v>
       </c>
       <c r="J9" s="52" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L9" s="54" t="s">
         <v>1062</v>
       </c>
-      <c r="K9" s="54" t="s">
-        <v>1055</v>
-      </c>
-      <c r="L9" s="54" t="s">
-        <v>1063</v>
-      </c>
       <c r="M9" s="187" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N9" s="188">
         <v>45797</v>
@@ -12844,16 +12827,16 @@
         <v>410900</v>
       </c>
       <c r="P9" s="52" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Q9" s="193" t="s">
+        <v>1054</v>
+      </c>
+      <c r="R9" s="193" t="s">
         <v>1062</v>
       </c>
-      <c r="Q9" s="193" t="s">
-        <v>1055</v>
-      </c>
-      <c r="R9" s="193" t="s">
-        <v>1063</v>
-      </c>
       <c r="S9" s="330" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="T9" s="52" t="s">
         <v>38</v>
@@ -12865,7 +12848,7 @@
         <v>53</v>
       </c>
       <c r="W9" s="191" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="X9" s="180" t="s">
         <v>38</v>
@@ -12889,7 +12872,7 @@
         <v>617</v>
       </c>
       <c r="AE9" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF9" s="52" t="s">
         <v>34</v>
@@ -12908,17 +12891,17 @@
       <c r="AR9" s="180"/>
       <c r="AS9" s="180"/>
     </row>
-    <row r="10" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" ht="39.6">
       <c r="A10" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B10" s="185"/>
       <c r="C10" s="185"/>
       <c r="D10" s="186" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E10" s="175" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F10" s="186"/>
       <c r="G10" s="187" t="s">
@@ -12931,16 +12914,16 @@
         <v>29</v>
       </c>
       <c r="J10" s="52" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L10" s="54" t="s">
         <v>1079</v>
       </c>
-      <c r="K10" s="54" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L10" s="54" t="s">
-        <v>1080</v>
-      </c>
       <c r="M10" s="187" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N10" s="188">
         <v>45797</v>
@@ -12970,7 +12953,7 @@
         <v>53</v>
       </c>
       <c r="W10" s="191" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="X10" s="180" t="s">
         <v>38</v>
@@ -12994,7 +12977,7 @@
         <v>617</v>
       </c>
       <c r="AE10" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF10" s="52" t="s">
         <v>34</v>
@@ -13013,17 +12996,17 @@
       <c r="AR10" s="180"/>
       <c r="AS10" s="180"/>
     </row>
-    <row r="11" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="41.45">
       <c r="A11" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B11" s="185"/>
       <c r="C11" s="185"/>
       <c r="D11" s="186" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E11" s="175" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F11" s="186"/>
       <c r="G11" s="187" t="s">
@@ -13036,16 +13019,16 @@
         <v>29</v>
       </c>
       <c r="J11" s="52" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L11" s="54" t="s">
         <v>1082</v>
       </c>
-      <c r="K11" s="54" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L11" s="54" t="s">
-        <v>1083</v>
-      </c>
       <c r="M11" s="187" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N11" s="188">
         <v>45797</v>
@@ -13075,7 +13058,7 @@
         <v>53</v>
       </c>
       <c r="W11" s="191" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="X11" s="180" t="s">
         <v>38</v>
@@ -13099,7 +13082,7 @@
         <v>617</v>
       </c>
       <c r="AE11" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF11" s="52" t="s">
         <v>34</v>
@@ -13118,17 +13101,17 @@
       <c r="AR11" s="180"/>
       <c r="AS11" s="180"/>
     </row>
-    <row r="12" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" ht="39.6">
       <c r="A12" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B12" s="185"/>
       <c r="C12" s="185"/>
       <c r="D12" s="186" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E12" s="175" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F12" s="186"/>
       <c r="G12" s="187" t="s">
@@ -13141,16 +13124,16 @@
         <v>29</v>
       </c>
       <c r="J12" s="52" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K12" s="54" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L12" s="54" t="s">
         <v>1085</v>
       </c>
-      <c r="K12" s="54" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L12" s="54" t="s">
-        <v>1086</v>
-      </c>
       <c r="M12" s="187" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N12" s="188">
         <v>45797</v>
@@ -13180,7 +13163,7 @@
         <v>53</v>
       </c>
       <c r="W12" s="191" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="X12" s="180" t="s">
         <v>38</v>
@@ -13204,7 +13187,7 @@
         <v>617</v>
       </c>
       <c r="AE12" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF12" s="52" t="s">
         <v>34</v>
@@ -13223,17 +13206,17 @@
       <c r="AR12" s="180"/>
       <c r="AS12" s="180"/>
     </row>
-    <row r="13" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="39.6">
       <c r="A13" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B13" s="195"/>
       <c r="C13" s="195"/>
       <c r="D13" s="186" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E13" s="175" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F13" s="196"/>
       <c r="G13" s="197" t="s">
@@ -13242,16 +13225,16 @@
       <c r="H13" s="197"/>
       <c r="I13" s="197"/>
       <c r="J13" s="100" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K13" s="54" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L13" s="54" t="s">
         <v>1088</v>
       </c>
-      <c r="K13" s="54" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L13" s="54" t="s">
+      <c r="M13" s="197" t="s">
         <v>1089</v>
-      </c>
-      <c r="M13" s="197" t="s">
-        <v>1090</v>
       </c>
       <c r="N13" s="198">
         <v>45797</v>
@@ -13305,7 +13288,7 @@
         <v>617</v>
       </c>
       <c r="AE13" s="100" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF13" s="100" t="s">
         <v>34</v>
@@ -13324,20 +13307,20 @@
       <c r="AR13" s="91"/>
       <c r="AS13" s="91"/>
     </row>
-    <row r="14" spans="1:45" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" ht="79.150000000000006">
       <c r="A14" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B14" s="185"/>
       <c r="C14" s="185"/>
       <c r="D14" s="186" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E14" s="301" t="s">
         <v>1091</v>
       </c>
-      <c r="E14" s="301" t="s">
+      <c r="F14" s="302" t="s">
         <v>1092</v>
-      </c>
-      <c r="F14" s="302" t="s">
-        <v>1093</v>
       </c>
       <c r="G14" s="187" t="s">
         <v>27</v>
@@ -13349,16 +13332,16 @@
         <v>29</v>
       </c>
       <c r="J14" s="52" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K14" s="54" t="s">
         <v>1094</v>
       </c>
-      <c r="K14" s="54" t="s">
+      <c r="L14" s="54" t="s">
         <v>1095</v>
       </c>
-      <c r="L14" s="54" t="s">
-        <v>1096</v>
-      </c>
       <c r="M14" s="187" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N14" s="188">
         <v>45797</v>
@@ -13367,13 +13350,13 @@
         <v>410900</v>
       </c>
       <c r="P14" s="52" t="s">
+        <v>1096</v>
+      </c>
+      <c r="Q14" s="187" t="s">
         <v>1097</v>
       </c>
-      <c r="Q14" s="187" t="s">
+      <c r="R14" s="187" t="s">
         <v>1098</v>
-      </c>
-      <c r="R14" s="187" t="s">
-        <v>1099</v>
       </c>
       <c r="S14" s="52" t="s">
         <v>38</v>
@@ -13385,13 +13368,13 @@
         <v>34</v>
       </c>
       <c r="V14" s="190" t="s">
+        <v>1099</v>
+      </c>
+      <c r="W14" s="191" t="s">
         <v>1100</v>
       </c>
-      <c r="W14" s="191" t="s">
-        <v>1101</v>
-      </c>
       <c r="X14" s="187" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Y14" s="187" t="s">
         <v>611</v>
@@ -13412,7 +13395,7 @@
         <v>617</v>
       </c>
       <c r="AE14" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF14" s="52" t="s">
         <v>34</v>
@@ -13431,20 +13414,20 @@
       <c r="AR14" s="180"/>
       <c r="AS14" s="180"/>
     </row>
-    <row r="15" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="57.6">
       <c r="A15" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B15" s="185"/>
       <c r="C15" s="185"/>
       <c r="D15" s="186" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E15" s="302" t="s">
         <v>1102</v>
       </c>
-      <c r="E15" s="302" t="s">
+      <c r="F15" s="300" t="s">
         <v>1103</v>
-      </c>
-      <c r="F15" s="300" t="s">
-        <v>1104</v>
       </c>
       <c r="G15" s="187" t="s">
         <v>298</v>
@@ -13456,16 +13439,16 @@
         <v>131</v>
       </c>
       <c r="J15" s="52" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="K15" s="54" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="L15" s="54" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="M15" s="187" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N15" s="188">
         <v>45797</v>
@@ -13492,13 +13475,13 @@
         <v>34</v>
       </c>
       <c r="V15" s="190" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="W15" s="191" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="X15" s="187" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Y15" s="187" t="s">
         <v>611</v>
@@ -13519,7 +13502,7 @@
         <v>617</v>
       </c>
       <c r="AE15" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF15" s="52" t="s">
         <v>34</v>
@@ -13538,17 +13521,17 @@
       <c r="AR15" s="180"/>
       <c r="AS15" s="180"/>
     </row>
-    <row r="16" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" ht="39.6">
       <c r="A16" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B16" s="185"/>
       <c r="C16" s="185"/>
       <c r="D16" s="186" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E16" s="186" t="s">
         <v>1107</v>
-      </c>
-      <c r="E16" s="186" t="s">
-        <v>1108</v>
       </c>
       <c r="F16" s="185"/>
       <c r="G16" s="187" t="s">
@@ -13561,16 +13544,16 @@
         <v>131</v>
       </c>
       <c r="J16" s="52" t="s">
+        <v>1108</v>
+      </c>
+      <c r="K16" s="54" t="s">
         <v>1109</v>
       </c>
-      <c r="K16" s="54" t="s">
+      <c r="L16" s="54" t="s">
         <v>1110</v>
       </c>
-      <c r="L16" s="54" t="s">
-        <v>1111</v>
-      </c>
       <c r="M16" s="187" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N16" s="188">
         <v>45797</v>
@@ -13588,7 +13571,7 @@
         <v>34</v>
       </c>
       <c r="S16" s="52" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="T16" s="52" t="s">
         <v>38</v>
@@ -13597,13 +13580,13 @@
         <v>34</v>
       </c>
       <c r="V16" s="190" t="s">
+        <v>1099</v>
+      </c>
+      <c r="W16" s="191" t="s">
         <v>1100</v>
       </c>
-      <c r="W16" s="191" t="s">
-        <v>1101</v>
-      </c>
       <c r="X16" s="187" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Y16" s="187" t="s">
         <v>611</v>
@@ -13624,7 +13607,7 @@
         <v>617</v>
       </c>
       <c r="AE16" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF16" s="52" t="s">
         <v>34</v>
@@ -13643,17 +13626,17 @@
       <c r="AR16" s="180"/>
       <c r="AS16" s="180"/>
     </row>
-    <row r="17" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="39.6">
       <c r="A17" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B17" s="185"/>
       <c r="C17" s="185"/>
       <c r="D17" s="186" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E17" s="186" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F17" s="185"/>
       <c r="G17" s="187" t="s">
@@ -13666,16 +13649,16 @@
         <v>131</v>
       </c>
       <c r="J17" s="52" t="s">
+        <v>1113</v>
+      </c>
+      <c r="K17" s="54" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L17" s="54" t="s">
         <v>1114</v>
       </c>
-      <c r="K17" s="54" t="s">
-        <v>1110</v>
-      </c>
-      <c r="L17" s="54" t="s">
-        <v>1115</v>
-      </c>
       <c r="M17" s="187" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="N17" s="188">
         <v>45798</v>
@@ -13693,7 +13676,7 @@
         <v>34</v>
       </c>
       <c r="S17" s="52" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="T17" s="52" t="s">
         <v>38</v>
@@ -13702,13 +13685,13 @@
         <v>34</v>
       </c>
       <c r="V17" s="190" t="s">
+        <v>1099</v>
+      </c>
+      <c r="W17" s="191" t="s">
         <v>1100</v>
       </c>
-      <c r="W17" s="191" t="s">
-        <v>1101</v>
-      </c>
       <c r="X17" s="187" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Y17" s="187" t="s">
         <v>611</v>
@@ -13729,7 +13712,7 @@
         <v>617</v>
       </c>
       <c r="AE17" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF17" s="52" t="s">
         <v>34</v>
@@ -13748,17 +13731,17 @@
       <c r="AR17" s="180"/>
       <c r="AS17" s="180"/>
     </row>
-    <row r="18" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" ht="39.6">
       <c r="A18" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B18" s="185"/>
       <c r="C18" s="185"/>
       <c r="D18" s="186" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E18" s="186" t="s">
         <v>1116</v>
-      </c>
-      <c r="E18" s="186" t="s">
-        <v>1117</v>
       </c>
       <c r="F18" s="185"/>
       <c r="G18" s="187" t="s">
@@ -13771,16 +13754,16 @@
         <v>29</v>
       </c>
       <c r="J18" s="52" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K18" s="54" t="s">
         <v>1118</v>
       </c>
-      <c r="K18" s="54" t="s">
+      <c r="L18" s="54" t="s">
         <v>1119</v>
       </c>
-      <c r="L18" s="54" t="s">
-        <v>1120</v>
-      </c>
       <c r="M18" s="187" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N18" s="188">
         <v>45797</v>
@@ -13789,16 +13772,16 @@
         <v>410900</v>
       </c>
       <c r="P18" s="52" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q18" s="187" t="s">
+        <v>1118</v>
+      </c>
+      <c r="R18" s="187" t="s">
         <v>1121</v>
       </c>
-      <c r="Q18" s="187" t="s">
-        <v>1119</v>
-      </c>
-      <c r="R18" s="187" t="s">
+      <c r="S18" s="52" t="s">
         <v>1122</v>
-      </c>
-      <c r="S18" s="52" t="s">
-        <v>1123</v>
       </c>
       <c r="T18" s="52" t="s">
         <v>38</v>
@@ -13807,13 +13790,13 @@
         <v>34</v>
       </c>
       <c r="V18" s="190" t="s">
+        <v>1099</v>
+      </c>
+      <c r="W18" s="191" t="s">
         <v>1100</v>
       </c>
-      <c r="W18" s="191" t="s">
-        <v>1101</v>
-      </c>
       <c r="X18" s="187" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Y18" s="187" t="s">
         <v>611</v>
@@ -13834,7 +13817,7 @@
         <v>617</v>
       </c>
       <c r="AE18" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF18" s="52" t="s">
         <v>34</v>
@@ -13853,17 +13836,17 @@
       <c r="AR18" s="180"/>
       <c r="AS18" s="180"/>
     </row>
-    <row r="19" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="39.6">
       <c r="A19" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B19" s="185"/>
       <c r="C19" s="185"/>
       <c r="D19" s="186" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E19" s="186" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F19" s="185"/>
       <c r="G19" s="187" t="s">
@@ -13876,16 +13859,16 @@
         <v>29</v>
       </c>
       <c r="J19" s="52" t="s">
+        <v>1124</v>
+      </c>
+      <c r="K19" s="54" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L19" s="54" t="s">
         <v>1125</v>
       </c>
-      <c r="K19" s="54" t="s">
-        <v>1119</v>
-      </c>
-      <c r="L19" s="54" t="s">
-        <v>1126</v>
-      </c>
       <c r="M19" s="187" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="N19" s="188">
         <v>45797</v>
@@ -13894,16 +13877,16 @@
         <v>410900</v>
       </c>
       <c r="P19" s="52" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q19" s="187" t="s">
+        <v>1118</v>
+      </c>
+      <c r="R19" s="187" t="s">
         <v>1121</v>
       </c>
-      <c r="Q19" s="187" t="s">
-        <v>1119</v>
-      </c>
-      <c r="R19" s="187" t="s">
+      <c r="S19" s="52" t="s">
         <v>1122</v>
-      </c>
-      <c r="S19" s="52" t="s">
-        <v>1123</v>
       </c>
       <c r="T19" s="52" t="s">
         <v>38</v>
@@ -13912,13 +13895,13 @@
         <v>34</v>
       </c>
       <c r="V19" s="190" t="s">
+        <v>1099</v>
+      </c>
+      <c r="W19" s="191" t="s">
         <v>1100</v>
       </c>
-      <c r="W19" s="191" t="s">
-        <v>1101</v>
-      </c>
       <c r="X19" s="187" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Y19" s="187" t="s">
         <v>611</v>
@@ -13939,7 +13922,7 @@
         <v>617</v>
       </c>
       <c r="AE19" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF19" s="52" t="s">
         <v>34</v>
@@ -13958,17 +13941,17 @@
       <c r="AR19" s="180"/>
       <c r="AS19" s="180"/>
     </row>
-    <row r="20" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" ht="39.6">
       <c r="A20" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B20" s="185"/>
       <c r="C20" s="185"/>
       <c r="D20" s="186" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E20" s="186" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F20" s="185"/>
       <c r="G20" s="187" t="s">
@@ -13981,16 +13964,16 @@
         <v>131</v>
       </c>
       <c r="J20" s="52" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K20" s="54" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L20" s="54" t="s">
         <v>1121</v>
       </c>
-      <c r="K20" s="54" t="s">
-        <v>1119</v>
-      </c>
-      <c r="L20" s="54" t="s">
-        <v>1122</v>
-      </c>
       <c r="M20" s="187" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N20" s="188">
         <v>45797</v>
@@ -13999,13 +13982,13 @@
         <v>410900</v>
       </c>
       <c r="P20" s="52" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q20" s="187" t="s">
+        <v>1118</v>
+      </c>
+      <c r="R20" s="187" t="s">
         <v>1121</v>
-      </c>
-      <c r="Q20" s="187" t="s">
-        <v>1119</v>
-      </c>
-      <c r="R20" s="187" t="s">
-        <v>1122</v>
       </c>
       <c r="S20" s="52" t="s">
         <v>695</v>
@@ -14017,13 +14000,13 @@
         <v>34</v>
       </c>
       <c r="V20" s="190" t="s">
+        <v>1099</v>
+      </c>
+      <c r="W20" s="191" t="s">
         <v>1100</v>
       </c>
-      <c r="W20" s="191" t="s">
-        <v>1101</v>
-      </c>
       <c r="X20" s="187" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Y20" s="187" t="s">
         <v>611</v>
@@ -14044,7 +14027,7 @@
         <v>617</v>
       </c>
       <c r="AE20" s="52" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AF20" s="52" t="s">
         <v>34</v>
@@ -14063,21 +14046,21 @@
       <c r="AR20" s="180"/>
       <c r="AS20" s="180"/>
     </row>
-    <row r="21" spans="1:45" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="55.15">
       <c r="A21" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B21" s="173">
         <v>1120</v>
       </c>
       <c r="C21" s="78" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D21" s="173" t="s">
         <v>1128</v>
       </c>
-      <c r="D21" s="173" t="s">
+      <c r="E21" s="33" t="s">
         <v>1129</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>1130</v>
       </c>
       <c r="F21" s="200"/>
       <c r="G21" s="201" t="s">
@@ -14090,13 +14073,13 @@
         <v>29</v>
       </c>
       <c r="J21" s="52" t="s">
+        <v>1130</v>
+      </c>
+      <c r="K21" s="292" t="s">
         <v>1131</v>
       </c>
-      <c r="K21" s="292" t="s">
+      <c r="L21" s="54" t="s">
         <v>1132</v>
-      </c>
-      <c r="L21" s="54" t="s">
-        <v>1133</v>
       </c>
       <c r="M21" s="36" t="s">
         <v>926</v>
@@ -14143,19 +14126,19 @@
         <v>221</v>
       </c>
       <c r="AE21" s="34" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AF21" s="34" t="s">
+        <v>879</v>
+      </c>
+      <c r="AG21" s="34" t="s">
         <v>1134</v>
       </c>
-      <c r="AF21" s="34" t="s">
-        <v>875</v>
-      </c>
-      <c r="AG21" s="34" t="s">
+      <c r="AH21" s="34" t="s">
         <v>1135</v>
       </c>
-      <c r="AH21" s="34" t="s">
+      <c r="AI21" s="34" t="s">
         <v>1136</v>
-      </c>
-      <c r="AI21" s="34" t="s">
-        <v>1137</v>
       </c>
       <c r="AJ21" s="34"/>
       <c r="AK21" s="34"/>
@@ -14168,19 +14151,19 @@
       <c r="AR21" s="34"/>
       <c r="AS21" s="34"/>
     </row>
-    <row r="22" spans="1:45" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45" ht="55.15">
       <c r="A22" s="184" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B22" s="173">
         <v>1121</v>
       </c>
       <c r="C22" s="203"/>
       <c r="D22" s="173" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E22" s="33" t="s">
         <v>1138</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>1139</v>
       </c>
       <c r="F22" s="200"/>
       <c r="G22" s="201" t="s">
@@ -14193,13 +14176,13 @@
         <v>29</v>
       </c>
       <c r="J22" s="52" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K22" s="292" t="s">
         <v>1140</v>
       </c>
-      <c r="K22" s="292" t="s">
+      <c r="L22" s="54" t="s">
         <v>1141</v>
-      </c>
-      <c r="L22" s="54" t="s">
-        <v>1142</v>
       </c>
       <c r="M22" s="36" t="s">
         <v>926</v>
@@ -14248,16 +14231,16 @@
         <v>221</v>
       </c>
       <c r="AE22" s="34" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AF22" s="34" t="s">
+        <v>885</v>
+      </c>
+      <c r="AG22" s="34" t="s">
         <v>1134</v>
       </c>
-      <c r="AF22" s="34" t="s">
-        <v>880</v>
-      </c>
-      <c r="AG22" s="34" t="s">
+      <c r="AH22" s="34" t="s">
         <v>1135</v>
-      </c>
-      <c r="AH22" s="34" t="s">
-        <v>1136</v>
       </c>
       <c r="AI22" s="34">
         <v>77</v>
@@ -14273,30 +14256,30 @@
       <c r="AR22" s="34"/>
       <c r="AS22" s="34"/>
     </row>
-    <row r="23" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="27.6">
       <c r="A23" s="203" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B23" s="173"/>
       <c r="C23" s="203"/>
       <c r="D23" s="173" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E23" s="33" t="s">
         <v>1144</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>1145</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="201"/>
       <c r="H23" s="36"/>
       <c r="I23" s="201"/>
       <c r="J23" s="52" t="s">
+        <v>1145</v>
+      </c>
+      <c r="K23" s="36" t="s">
         <v>1146</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="L23" s="54" t="s">
         <v>1147</v>
-      </c>
-      <c r="L23" s="54" t="s">
-        <v>1148</v>
       </c>
       <c r="M23" s="36"/>
       <c r="N23" s="84"/>
@@ -14334,30 +14317,30 @@
       <c r="AR23" s="34"/>
       <c r="AS23" s="34"/>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45">
       <c r="A24" s="203" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B24" s="173"/>
       <c r="C24" s="203"/>
       <c r="D24" s="173" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="201"/>
       <c r="H24" s="36"/>
       <c r="I24" s="201"/>
       <c r="J24" s="52" t="s">
+        <v>1149</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L24" s="54" t="s">
         <v>1150</v>
-      </c>
-      <c r="K24" s="36" t="s">
-        <v>1147</v>
-      </c>
-      <c r="L24" s="54" t="s">
-        <v>1151</v>
       </c>
       <c r="M24" s="36"/>
       <c r="N24" s="84"/>
@@ -14395,30 +14378,30 @@
       <c r="AR24" s="34"/>
       <c r="AS24" s="34"/>
     </row>
-    <row r="25" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="27.6">
       <c r="A25" s="203" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B25" s="173"/>
       <c r="C25" s="203"/>
       <c r="D25" s="173" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="201"/>
       <c r="H25" s="36"/>
       <c r="I25" s="201"/>
       <c r="J25" s="52" t="s">
+        <v>1152</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L25" s="54" t="s">
         <v>1153</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>1147</v>
-      </c>
-      <c r="L25" s="54" t="s">
-        <v>1154</v>
       </c>
       <c r="M25" s="36"/>
       <c r="N25" s="84"/>
@@ -14456,19 +14439,19 @@
       <c r="AR25" s="34"/>
       <c r="AS25" s="34"/>
     </row>
-    <row r="26" spans="1:45" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:45" ht="55.15">
       <c r="A26" s="203" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B26" s="173">
         <v>131</v>
       </c>
       <c r="C26" s="203"/>
       <c r="D26" s="173" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E26" s="33" t="s">
         <v>1155</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>1156</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="201" t="s">
@@ -14481,13 +14464,13 @@
         <v>38</v>
       </c>
       <c r="J26" s="52" t="s">
+        <v>1156</v>
+      </c>
+      <c r="K26" s="36" t="s">
         <v>1157</v>
       </c>
-      <c r="K26" s="36" t="s">
+      <c r="L26" s="54" t="s">
         <v>1158</v>
-      </c>
-      <c r="L26" s="54" t="s">
-        <v>1159</v>
       </c>
       <c r="M26" s="36" t="s">
         <v>926</v>
@@ -14536,10 +14519,10 @@
       <c r="AE26" s="34"/>
       <c r="AF26" s="34"/>
       <c r="AG26" s="34" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AH26" s="34" t="s">
         <v>1135</v>
-      </c>
-      <c r="AH26" s="34" t="s">
-        <v>1136</v>
       </c>
       <c r="AI26" s="34">
         <v>77</v>
@@ -14574,22 +14557,22 @@
   </sheetPr>
   <dimension ref="A1:AS25"/>
   <sheetViews>
-    <sheetView topLeftCell="Q20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="3" width="10.88671875" style="182"/>
-    <col min="4" max="4" width="46.88671875" style="182" customWidth="1"/>
-    <col min="5" max="5" width="51.109375" style="272" customWidth="1"/>
-    <col min="6" max="6" width="44.44140625" style="182" customWidth="1"/>
-    <col min="7" max="13" width="10.88671875" style="182"/>
-    <col min="14" max="15" width="10.88671875" style="273"/>
-    <col min="16" max="16384" width="10.88671875" style="182"/>
+    <col min="1" max="3" width="10.85546875" style="182"/>
+    <col min="4" max="4" width="46.85546875" style="182" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" style="272" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" style="182" customWidth="1"/>
+    <col min="7" max="13" width="10.85546875" style="182"/>
+    <col min="14" max="15" width="10.85546875" style="273"/>
+    <col min="16" max="16384" width="10.85546875" style="182"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" customFormat="1" ht="110.45">
       <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
@@ -14726,20 +14709,20 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A2" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B2" s="306"/>
       <c r="C2" s="307"/>
       <c r="D2" s="308" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E2" s="309" t="s">
         <v>1161</v>
       </c>
-      <c r="E2" s="309" t="s">
+      <c r="F2" s="310" t="s">
         <v>1162</v>
-      </c>
-      <c r="F2" s="310" t="s">
-        <v>1163</v>
       </c>
       <c r="G2" s="307" t="s">
         <v>567</v>
@@ -14751,13 +14734,13 @@
         <v>29</v>
       </c>
       <c r="J2" s="311" t="s">
+        <v>1163</v>
+      </c>
+      <c r="K2" s="312" t="s">
         <v>1164</v>
       </c>
-      <c r="K2" s="312" t="s">
+      <c r="L2" s="313" t="s">
         <v>1165</v>
-      </c>
-      <c r="L2" s="313" t="s">
-        <v>1166</v>
       </c>
       <c r="M2" s="307" t="s">
         <v>201</v>
@@ -14772,13 +14755,13 @@
       <c r="Q2" s="307"/>
       <c r="R2" s="306"/>
       <c r="S2" s="331" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T2" s="331" t="s">
         <v>1167</v>
       </c>
-      <c r="T2" s="331" t="s">
-        <v>1168</v>
-      </c>
       <c r="U2" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V2" s="315" t="s">
         <v>236</v>
@@ -14806,7 +14789,7 @@
         <v>331</v>
       </c>
       <c r="AE2" s="307" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AF2" s="306" t="s">
         <v>399</v>
@@ -14815,10 +14798,10 @@
         <v>209</v>
       </c>
       <c r="AH2" s="36" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AI2" s="306" t="s">
         <v>1170</v>
-      </c>
-      <c r="AI2" s="306" t="s">
-        <v>1171</v>
       </c>
       <c r="AJ2" s="306" t="s">
         <v>336</v>
@@ -14837,20 +14820,20 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A3" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B3" s="307"/>
       <c r="C3" s="307"/>
       <c r="D3" s="308" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E3" s="309" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F3" s="310" t="s">
         <v>1172</v>
-      </c>
-      <c r="E3" s="309" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F3" s="310" t="s">
-        <v>1173</v>
       </c>
       <c r="G3" s="307" t="s">
         <v>567</v>
@@ -14862,13 +14845,13 @@
         <v>29</v>
       </c>
       <c r="J3" s="311" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K3" s="306" t="s">
         <v>1174</v>
       </c>
-      <c r="K3" s="306" t="s">
+      <c r="L3" s="307" t="s">
         <v>1175</v>
-      </c>
-      <c r="L3" s="307" t="s">
-        <v>1176</v>
       </c>
       <c r="M3" s="307" t="s">
         <v>201</v>
@@ -14883,13 +14866,13 @@
       <c r="Q3" s="307"/>
       <c r="R3" s="307"/>
       <c r="S3" s="331" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T3" s="331" t="s">
         <v>1167</v>
       </c>
-      <c r="T3" s="331" t="s">
-        <v>1168</v>
-      </c>
       <c r="U3" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V3" s="315" t="s">
         <v>236</v>
@@ -14917,7 +14900,7 @@
         <v>331</v>
       </c>
       <c r="AE3" s="307" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AF3" s="306" t="s">
         <v>399</v>
@@ -14929,7 +14912,7 @@
         <v>210</v>
       </c>
       <c r="AI3" s="306" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AJ3" s="306" t="s">
         <v>336</v>
@@ -14948,20 +14931,20 @@
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A4" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B4" s="306"/>
       <c r="C4" s="307"/>
       <c r="D4" s="308" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E4" s="310" t="s">
         <v>1177</v>
       </c>
-      <c r="E4" s="310" t="s">
+      <c r="F4" s="317" t="s">
         <v>1178</v>
-      </c>
-      <c r="F4" s="317" t="s">
-        <v>1179</v>
       </c>
       <c r="G4" s="307" t="s">
         <v>567</v>
@@ -14973,13 +14956,13 @@
         <v>29</v>
       </c>
       <c r="J4" s="318" t="s">
+        <v>1179</v>
+      </c>
+      <c r="K4" s="307" t="s">
         <v>1180</v>
       </c>
-      <c r="K4" s="307" t="s">
+      <c r="L4" s="306" t="s">
         <v>1181</v>
-      </c>
-      <c r="L4" s="306" t="s">
-        <v>1182</v>
       </c>
       <c r="M4" s="307" t="s">
         <v>201</v>
@@ -14994,13 +14977,13 @@
       <c r="Q4" s="307"/>
       <c r="R4" s="306"/>
       <c r="S4" s="331" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T4" s="331" t="s">
         <v>1167</v>
       </c>
-      <c r="T4" s="331" t="s">
-        <v>1168</v>
-      </c>
       <c r="U4" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V4" s="306" t="s">
         <v>53</v>
@@ -15028,7 +15011,7 @@
         <v>221</v>
       </c>
       <c r="AE4" s="307" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AF4" s="306" t="s">
         <v>399</v>
@@ -15040,7 +15023,7 @@
         <v>210</v>
       </c>
       <c r="AI4" s="306" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AJ4" s="306" t="s">
         <v>336</v>
@@ -15059,20 +15042,20 @@
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A5" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B5" s="307"/>
       <c r="C5" s="307"/>
       <c r="D5" s="308" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E5" s="310" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F5" s="309" t="s">
         <v>1183</v>
-      </c>
-      <c r="E5" s="310" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F5" s="309" t="s">
-        <v>1184</v>
       </c>
       <c r="G5" s="307" t="s">
         <v>567</v>
@@ -15084,13 +15067,13 @@
         <v>29</v>
       </c>
       <c r="J5" s="318" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K5" s="319" t="s">
         <v>1185</v>
       </c>
-      <c r="K5" s="319" t="s">
+      <c r="L5" s="320" t="s">
         <v>1186</v>
-      </c>
-      <c r="L5" s="320" t="s">
-        <v>1187</v>
       </c>
       <c r="M5" s="307" t="s">
         <v>201</v>
@@ -15105,19 +15088,19 @@
       <c r="Q5" s="321"/>
       <c r="R5" s="321"/>
       <c r="S5" s="331" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T5" s="331" t="s">
         <v>1167</v>
       </c>
-      <c r="T5" s="331" t="s">
-        <v>1168</v>
-      </c>
       <c r="U5" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V5" s="322" t="s">
         <v>236</v>
       </c>
       <c r="W5" s="321" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="X5" s="321" t="s">
         <v>53</v>
@@ -15139,7 +15122,7 @@
         <v>221</v>
       </c>
       <c r="AE5" s="321" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AF5" s="323" t="s">
         <v>399</v>
@@ -15148,10 +15131,10 @@
         <v>209</v>
       </c>
       <c r="AH5" s="36" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AI5" s="323" t="s">
         <v>1170</v>
-      </c>
-      <c r="AI5" s="323" t="s">
-        <v>1171</v>
       </c>
       <c r="AJ5" s="323" t="s">
         <v>336</v>
@@ -15170,20 +15153,20 @@
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A6" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B6" s="307"/>
       <c r="C6" s="307"/>
       <c r="D6" s="308" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E6" s="310" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F6" s="310" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G6" s="307" t="s">
         <v>567</v>
@@ -15195,13 +15178,13 @@
         <v>29</v>
       </c>
       <c r="J6" s="318" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="K6" s="307" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="L6" s="307" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="M6" s="307" t="s">
         <v>201</v>
@@ -15216,19 +15199,19 @@
       <c r="Q6" s="321"/>
       <c r="R6" s="321"/>
       <c r="S6" s="331" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T6" s="331" t="s">
         <v>1167</v>
       </c>
-      <c r="T6" s="331" t="s">
-        <v>1168</v>
-      </c>
       <c r="U6" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V6" s="322" t="s">
         <v>236</v>
       </c>
       <c r="W6" s="321" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="X6" s="321" t="s">
         <v>53</v>
@@ -15250,7 +15233,7 @@
         <v>221</v>
       </c>
       <c r="AE6" s="321" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AF6" s="323" t="s">
         <v>399</v>
@@ -15262,7 +15245,7 @@
         <v>210</v>
       </c>
       <c r="AI6" s="323" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AJ6" s="323" t="s">
         <v>336</v>
@@ -15281,20 +15264,20 @@
         <v>399</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A7" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B7" s="306"/>
       <c r="C7" s="307"/>
       <c r="D7" s="308" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E7" s="310" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F7" s="310" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G7" s="307" t="s">
         <v>567</v>
@@ -15306,13 +15289,13 @@
         <v>29</v>
       </c>
       <c r="J7" s="318" t="s">
+        <v>1191</v>
+      </c>
+      <c r="K7" s="307" t="s">
         <v>1192</v>
       </c>
-      <c r="K7" s="307" t="s">
+      <c r="L7" s="306" t="s">
         <v>1193</v>
-      </c>
-      <c r="L7" s="306" t="s">
-        <v>1194</v>
       </c>
       <c r="M7" s="307" t="s">
         <v>201</v>
@@ -15327,13 +15310,13 @@
       <c r="Q7" s="307"/>
       <c r="R7" s="306"/>
       <c r="S7" s="331" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T7" s="331" t="s">
         <v>1167</v>
       </c>
-      <c r="T7" s="331" t="s">
-        <v>1168</v>
-      </c>
       <c r="U7" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V7" s="306" t="s">
         <v>53</v>
@@ -15361,7 +15344,7 @@
         <v>221</v>
       </c>
       <c r="AE7" s="307" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AF7" s="306" t="s">
         <v>399</v>
@@ -15373,7 +15356,7 @@
         <v>210</v>
       </c>
       <c r="AI7" s="306" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AJ7" s="306" t="s">
         <v>336</v>
@@ -15392,20 +15375,20 @@
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="324" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" s="324" customFormat="1" ht="41.45">
       <c r="A8" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B8" s="308"/>
       <c r="C8" s="308"/>
       <c r="D8" s="308" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E8" s="317" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F8" s="317" t="s">
         <v>1195</v>
-      </c>
-      <c r="F8" s="317" t="s">
-        <v>1196</v>
       </c>
       <c r="G8" s="306" t="s">
         <v>567</v>
@@ -15417,13 +15400,13 @@
         <v>29</v>
       </c>
       <c r="J8" s="311" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K8" s="306" t="s">
+        <v>1185</v>
+      </c>
+      <c r="L8" s="313" t="s">
         <v>1197</v>
-      </c>
-      <c r="K8" s="306" t="s">
-        <v>1186</v>
-      </c>
-      <c r="L8" s="313" t="s">
-        <v>1198</v>
       </c>
       <c r="M8" s="306" t="s">
         <v>201</v>
@@ -15438,13 +15421,13 @@
       <c r="Q8" s="306"/>
       <c r="R8" s="306"/>
       <c r="S8" s="331" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="T8" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="U8" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V8" s="306" t="s">
         <v>236</v>
@@ -15472,7 +15455,7 @@
         <v>331</v>
       </c>
       <c r="AE8" s="306" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AF8" s="306" t="s">
         <v>399</v>
@@ -15481,10 +15464,10 @@
         <v>209</v>
       </c>
       <c r="AH8" s="36" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AI8" s="306" t="s">
         <v>1170</v>
-      </c>
-      <c r="AI8" s="306" t="s">
-        <v>1171</v>
       </c>
       <c r="AJ8" s="306" t="s">
         <v>336</v>
@@ -15503,20 +15486,20 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A9" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B9" s="308"/>
       <c r="C9" s="308"/>
       <c r="D9" s="308" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E9" s="317" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F9" s="317" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="G9" s="306" t="s">
         <v>567</v>
@@ -15528,13 +15511,13 @@
         <v>29</v>
       </c>
       <c r="J9" s="311" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K9" s="306" t="s">
+        <v>1189</v>
+      </c>
+      <c r="L9" s="313" t="s">
         <v>1201</v>
-      </c>
-      <c r="K9" s="306" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L9" s="313" t="s">
-        <v>1202</v>
       </c>
       <c r="M9" s="306" t="s">
         <v>201</v>
@@ -15549,13 +15532,13 @@
       <c r="Q9" s="306"/>
       <c r="R9" s="306"/>
       <c r="S9" s="331" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="T9" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="U9" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V9" s="306" t="s">
         <v>236</v>
@@ -15583,7 +15566,7 @@
         <v>221</v>
       </c>
       <c r="AE9" s="306" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AF9" s="306" t="s">
         <v>399</v>
@@ -15595,7 +15578,7 @@
         <v>210</v>
       </c>
       <c r="AI9" s="306" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AJ9" s="306" t="s">
         <v>336</v>
@@ -15614,20 +15597,20 @@
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A10" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B10" s="307"/>
       <c r="C10" s="307"/>
       <c r="D10" s="308" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E10" s="317" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F10" s="317" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G10" s="307" t="s">
         <v>567</v>
@@ -15639,13 +15622,13 @@
         <v>29</v>
       </c>
       <c r="J10" s="318" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K10" s="307" t="s">
+        <v>1192</v>
+      </c>
+      <c r="L10" s="307" t="s">
         <v>1204</v>
-      </c>
-      <c r="K10" s="307" t="s">
-        <v>1193</v>
-      </c>
-      <c r="L10" s="307" t="s">
-        <v>1205</v>
       </c>
       <c r="M10" s="307" t="s">
         <v>201</v>
@@ -15660,13 +15643,13 @@
       <c r="Q10" s="307"/>
       <c r="R10" s="307"/>
       <c r="S10" s="331" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="T10" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="U10" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V10" s="306" t="s">
         <v>53</v>
@@ -15694,7 +15677,7 @@
         <v>221</v>
       </c>
       <c r="AE10" s="307" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AF10" s="306" t="s">
         <v>399</v>
@@ -15706,7 +15689,7 @@
         <v>210</v>
       </c>
       <c r="AI10" s="306" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AJ10" s="306" t="s">
         <v>336</v>
@@ -15725,20 +15708,20 @@
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:45" s="327" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" s="327" customFormat="1" ht="41.45">
       <c r="A11" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B11" s="308"/>
       <c r="C11" s="308"/>
       <c r="D11" s="308" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E11" s="310" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F11" s="309" t="s">
         <v>1206</v>
-      </c>
-      <c r="F11" s="309" t="s">
-        <v>1207</v>
       </c>
       <c r="G11" s="306" t="s">
         <v>567</v>
@@ -15751,10 +15734,10 @@
       </c>
       <c r="J11" s="325"/>
       <c r="K11" s="326" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="L11" s="326" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="M11" s="306" t="s">
         <v>201</v>
@@ -15769,13 +15752,13 @@
       <c r="Q11" s="306"/>
       <c r="R11" s="306"/>
       <c r="S11" s="331" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T11" s="331" t="s">
         <v>1167</v>
       </c>
-      <c r="T11" s="331" t="s">
-        <v>1168</v>
-      </c>
       <c r="U11" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V11" s="306" t="s">
         <v>236</v>
@@ -15806,7 +15789,7 @@
       <c r="AF11" s="306"/>
       <c r="AG11" s="306"/>
       <c r="AH11" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AI11" s="306"/>
       <c r="AJ11" s="306"/>
@@ -15820,20 +15803,20 @@
       <c r="AR11" s="306"/>
       <c r="AS11" s="306"/>
     </row>
-    <row r="12" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A12" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B12" s="308"/>
       <c r="C12" s="308"/>
       <c r="D12" s="308" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E12" s="310" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F12" s="317" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G12" s="306" t="s">
         <v>567</v>
@@ -15845,13 +15828,13 @@
         <v>29</v>
       </c>
       <c r="J12" s="311" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K12" s="306" t="s">
+        <v>1185</v>
+      </c>
+      <c r="L12" s="313" t="s">
         <v>1210</v>
-      </c>
-      <c r="K12" s="306" t="s">
-        <v>1186</v>
-      </c>
-      <c r="L12" s="313" t="s">
-        <v>1211</v>
       </c>
       <c r="M12" s="307" t="s">
         <v>201</v>
@@ -15866,13 +15849,13 @@
       <c r="Q12" s="306"/>
       <c r="R12" s="306"/>
       <c r="S12" s="331" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T12" s="331" t="s">
         <v>1167</v>
       </c>
-      <c r="T12" s="331" t="s">
-        <v>1168</v>
-      </c>
       <c r="U12" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V12" s="315" t="s">
         <v>236</v>
@@ -15903,7 +15886,7 @@
       <c r="AF12" s="306"/>
       <c r="AG12" s="306"/>
       <c r="AH12" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AI12" s="306"/>
       <c r="AJ12" s="306"/>
@@ -15917,20 +15900,20 @@
       <c r="AR12" s="306"/>
       <c r="AS12" s="306"/>
     </row>
-    <row r="13" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A13" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B13" s="308"/>
       <c r="C13" s="308"/>
       <c r="D13" s="308" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E13" s="310" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F13" s="309" t="s">
         <v>1206</v>
-      </c>
-      <c r="F13" s="309" t="s">
-        <v>1207</v>
       </c>
       <c r="G13" s="306" t="s">
         <v>567</v>
@@ -15943,10 +15926,10 @@
       </c>
       <c r="J13" s="325"/>
       <c r="K13" s="326" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="L13" s="326" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="M13" s="306" t="s">
         <v>201</v>
@@ -15961,13 +15944,13 @@
       <c r="Q13" s="306"/>
       <c r="R13" s="306"/>
       <c r="S13" s="331" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T13" s="331" t="s">
         <v>1167</v>
       </c>
-      <c r="T13" s="331" t="s">
-        <v>1168</v>
-      </c>
       <c r="U13" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V13" s="306" t="s">
         <v>236</v>
@@ -16012,20 +15995,20 @@
       <c r="AR13" s="306"/>
       <c r="AS13" s="306"/>
     </row>
-    <row r="14" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A14" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B14" s="308"/>
       <c r="C14" s="308"/>
       <c r="D14" s="308" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E14" s="310" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F14" s="317" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G14" s="306" t="s">
         <v>567</v>
@@ -16037,13 +16020,13 @@
         <v>29</v>
       </c>
       <c r="J14" s="311" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K14" s="306" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="L14" s="313" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="M14" s="307" t="s">
         <v>201</v>
@@ -16058,13 +16041,13 @@
       <c r="Q14" s="306"/>
       <c r="R14" s="306"/>
       <c r="S14" s="331" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T14" s="331" t="s">
         <v>1167</v>
       </c>
-      <c r="T14" s="331" t="s">
-        <v>1168</v>
-      </c>
       <c r="U14" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V14" s="315" t="s">
         <v>236</v>
@@ -16109,20 +16092,20 @@
       <c r="AR14" s="306"/>
       <c r="AS14" s="306"/>
     </row>
-    <row r="15" spans="1:45" s="285" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" s="285" customFormat="1" ht="27.6">
       <c r="A15" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B15" s="306"/>
       <c r="C15" s="307"/>
       <c r="D15" s="308" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E15" s="309" t="s">
         <v>1213</v>
       </c>
-      <c r="E15" s="309" t="s">
+      <c r="F15" s="310" t="s">
         <v>1214</v>
-      </c>
-      <c r="F15" s="310" t="s">
-        <v>1215</v>
       </c>
       <c r="G15" s="307" t="s">
         <v>567</v>
@@ -16135,10 +16118,10 @@
       </c>
       <c r="J15" s="328"/>
       <c r="K15" s="315" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L15" s="306" t="s">
         <v>1216</v>
-      </c>
-      <c r="L15" s="306" t="s">
-        <v>1217</v>
       </c>
       <c r="M15" s="307" t="s">
         <v>201</v>
@@ -16153,13 +16136,13 @@
       <c r="Q15" s="307"/>
       <c r="R15" s="306"/>
       <c r="S15" s="331" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T15" s="331" t="s">
         <v>1167</v>
       </c>
-      <c r="T15" s="331" t="s">
-        <v>1168</v>
-      </c>
       <c r="U15" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V15" s="307" t="s">
         <v>236</v>
@@ -16188,7 +16171,7 @@
       <c r="AF15" s="306"/>
       <c r="AG15" s="307"/>
       <c r="AH15" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AI15" s="306"/>
       <c r="AJ15" s="306"/>
@@ -16202,20 +16185,20 @@
       <c r="AR15" s="306"/>
       <c r="AS15" s="306"/>
     </row>
-    <row r="16" spans="1:45" s="285" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" s="285" customFormat="1" ht="41.45">
       <c r="A16" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B16" s="306"/>
       <c r="C16" s="307"/>
       <c r="D16" s="308" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E16" s="309" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F16" s="310" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G16" s="307" t="s">
         <v>567</v>
@@ -16227,13 +16210,13 @@
         <v>29</v>
       </c>
       <c r="J16" s="318" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K16" s="315" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L16" s="313" t="s">
         <v>1219</v>
-      </c>
-      <c r="K16" s="315" t="s">
-        <v>1216</v>
-      </c>
-      <c r="L16" s="313" t="s">
-        <v>1220</v>
       </c>
       <c r="M16" s="307" t="s">
         <v>201</v>
@@ -16248,13 +16231,13 @@
       <c r="Q16" s="307"/>
       <c r="R16" s="306"/>
       <c r="S16" s="331" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T16" s="331" t="s">
         <v>1167</v>
       </c>
-      <c r="T16" s="331" t="s">
-        <v>1168</v>
-      </c>
       <c r="U16" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V16" s="315" t="s">
         <v>236</v>
@@ -16282,7 +16265,7 @@
         <v>221</v>
       </c>
       <c r="AE16" s="307" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AF16" s="306" t="s">
         <v>399</v>
@@ -16291,10 +16274,10 @@
         <v>209</v>
       </c>
       <c r="AH16" s="36" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AI16" s="306" t="s">
         <v>1170</v>
-      </c>
-      <c r="AI16" s="306" t="s">
-        <v>1171</v>
       </c>
       <c r="AJ16" s="306" t="s">
         <v>336</v>
@@ -16313,20 +16296,20 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:45" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" customFormat="1" ht="41.45">
       <c r="A17" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B17" s="308"/>
       <c r="C17" s="308"/>
       <c r="D17" s="308" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E17" s="310" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F17" s="309" t="s">
         <v>1221</v>
-      </c>
-      <c r="F17" s="309" t="s">
-        <v>1222</v>
       </c>
       <c r="G17" s="306" t="s">
         <v>567</v>
@@ -16338,13 +16321,13 @@
         <v>29</v>
       </c>
       <c r="J17" s="311" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K17" s="306" t="s">
+        <v>1164</v>
+      </c>
+      <c r="L17" s="313" t="s">
         <v>1223</v>
-      </c>
-      <c r="K17" s="306" t="s">
-        <v>1165</v>
-      </c>
-      <c r="L17" s="313" t="s">
-        <v>1224</v>
       </c>
       <c r="M17" s="306" t="s">
         <v>201</v>
@@ -16359,13 +16342,13 @@
       <c r="Q17" s="306"/>
       <c r="R17" s="306"/>
       <c r="S17" s="331" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T17" s="331" t="s">
         <v>1167</v>
       </c>
-      <c r="T17" s="331" t="s">
-        <v>1168</v>
-      </c>
       <c r="U17" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V17" s="306" t="s">
         <v>236</v>
@@ -16396,7 +16379,7 @@
       <c r="AF17" s="306"/>
       <c r="AG17" s="306"/>
       <c r="AH17" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AI17" s="306"/>
       <c r="AJ17" s="306"/>
@@ -16410,20 +16393,20 @@
       <c r="AR17" s="306"/>
       <c r="AS17" s="306"/>
     </row>
-    <row r="18" spans="1:45" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" customFormat="1" ht="27.6">
       <c r="A18" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B18" s="308"/>
       <c r="C18" s="308"/>
       <c r="D18" s="308" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E18" s="310" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F18" s="309" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="G18" s="306" t="s">
         <v>567</v>
@@ -16436,10 +16419,10 @@
       </c>
       <c r="J18" s="326"/>
       <c r="K18" s="306" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="L18" s="313" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="M18" s="306" t="s">
         <v>201</v>
@@ -16454,13 +16437,13 @@
       <c r="Q18" s="306"/>
       <c r="R18" s="306"/>
       <c r="S18" s="331" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T18" s="331" t="s">
         <v>1167</v>
       </c>
-      <c r="T18" s="331" t="s">
-        <v>1168</v>
-      </c>
       <c r="U18" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V18" s="307" t="s">
         <v>236</v>
@@ -16489,7 +16472,7 @@
       <c r="AF18" s="306"/>
       <c r="AG18" s="306"/>
       <c r="AH18" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AI18" s="306"/>
       <c r="AJ18" s="306"/>
@@ -16503,20 +16486,20 @@
       <c r="AR18" s="306"/>
       <c r="AS18" s="306"/>
     </row>
-    <row r="19" spans="1:45" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" customFormat="1" ht="41.45">
       <c r="A19" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B19" s="308"/>
       <c r="C19" s="308"/>
       <c r="D19" s="308" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E19" s="310" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F19" s="309" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="G19" s="306" t="s">
         <v>567</v>
@@ -16529,10 +16512,10 @@
       </c>
       <c r="J19" s="326"/>
       <c r="K19" s="306" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="L19" s="326" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="M19" s="306" t="s">
         <v>201</v>
@@ -16547,13 +16530,13 @@
       <c r="Q19" s="306"/>
       <c r="R19" s="306"/>
       <c r="S19" s="331" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T19" s="331" t="s">
         <v>1167</v>
       </c>
-      <c r="T19" s="331" t="s">
-        <v>1168</v>
-      </c>
       <c r="U19" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V19" s="306" t="s">
         <v>236</v>
@@ -16584,7 +16567,7 @@
       <c r="AF19" s="306"/>
       <c r="AG19" s="306"/>
       <c r="AH19" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AI19" s="306"/>
       <c r="AJ19" s="306"/>
@@ -16598,20 +16581,20 @@
       <c r="AR19" s="306"/>
       <c r="AS19" s="306"/>
     </row>
-    <row r="20" spans="1:45" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" customFormat="1" ht="41.45">
       <c r="A20" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B20" s="308"/>
       <c r="C20" s="308"/>
       <c r="D20" s="308" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E20" s="310" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F20" s="309" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="G20" s="306" t="s">
         <v>567</v>
@@ -16624,10 +16607,10 @@
       </c>
       <c r="J20" s="325"/>
       <c r="K20" s="306" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="L20" s="306" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="M20" s="306" t="s">
         <v>201</v>
@@ -16642,13 +16625,13 @@
       <c r="Q20" s="306"/>
       <c r="R20" s="306"/>
       <c r="S20" s="331" t="s">
+        <v>1166</v>
+      </c>
+      <c r="T20" s="331" t="s">
         <v>1167</v>
       </c>
-      <c r="T20" s="331" t="s">
-        <v>1168</v>
-      </c>
       <c r="U20" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V20" s="307" t="s">
         <v>236</v>
@@ -16677,7 +16660,7 @@
       <c r="AF20" s="306"/>
       <c r="AG20" s="306"/>
       <c r="AH20" s="36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AI20" s="306"/>
       <c r="AJ20" s="306"/>
@@ -16691,20 +16674,20 @@
       <c r="AR20" s="306"/>
       <c r="AS20" s="306"/>
     </row>
-    <row r="21" spans="1:45" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" customFormat="1" ht="41.45">
       <c r="A21" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B21" s="307"/>
       <c r="C21" s="307"/>
       <c r="D21" s="308" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E21" s="309" t="s">
         <v>1230</v>
       </c>
-      <c r="E21" s="309" t="s">
+      <c r="F21" s="309" t="s">
         <v>1231</v>
-      </c>
-      <c r="F21" s="309" t="s">
-        <v>1232</v>
       </c>
       <c r="G21" s="307" t="s">
         <v>567</v>
@@ -16716,13 +16699,13 @@
         <v>29</v>
       </c>
       <c r="J21" s="311" t="s">
+        <v>1232</v>
+      </c>
+      <c r="K21" s="307" t="s">
         <v>1233</v>
       </c>
-      <c r="K21" s="307" t="s">
+      <c r="L21" s="313" t="s">
         <v>1234</v>
-      </c>
-      <c r="L21" s="313" t="s">
-        <v>1235</v>
       </c>
       <c r="M21" s="307" t="s">
         <v>201</v>
@@ -16737,13 +16720,13 @@
       <c r="Q21" s="307"/>
       <c r="R21" s="307"/>
       <c r="S21" s="331" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="T21" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="U21" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V21" s="315" t="s">
         <v>236</v>
@@ -16771,7 +16754,7 @@
         <v>221</v>
       </c>
       <c r="AE21" s="307" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AF21" s="306" t="s">
         <v>399</v>
@@ -16783,7 +16766,7 @@
         <v>210</v>
       </c>
       <c r="AI21" s="306" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AJ21" s="306" t="s">
         <v>336</v>
@@ -16802,20 +16785,20 @@
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:45" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45" customFormat="1" ht="41.45">
       <c r="A22" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B22" s="306"/>
       <c r="C22" s="307"/>
       <c r="D22" s="308" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E22" s="310" t="s">
         <v>1237</v>
       </c>
-      <c r="E22" s="310" t="s">
+      <c r="F22" s="317" t="s">
         <v>1238</v>
-      </c>
-      <c r="F22" s="317" t="s">
-        <v>1239</v>
       </c>
       <c r="G22" s="307" t="s">
         <v>567</v>
@@ -16827,13 +16810,13 @@
         <v>131</v>
       </c>
       <c r="J22" s="311" t="s">
+        <v>1239</v>
+      </c>
+      <c r="K22" s="306" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L22" s="306" t="s">
         <v>1240</v>
-      </c>
-      <c r="K22" s="306" t="s">
-        <v>1224</v>
-      </c>
-      <c r="L22" s="306" t="s">
-        <v>1241</v>
       </c>
       <c r="M22" s="307" t="s">
         <v>201</v>
@@ -16848,13 +16831,13 @@
       <c r="Q22" s="307"/>
       <c r="R22" s="306"/>
       <c r="S22" s="331" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="T22" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="U22" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V22" s="315" t="s">
         <v>236</v>
@@ -16882,7 +16865,7 @@
         <v>221</v>
       </c>
       <c r="AE22" s="307" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AF22" s="306" t="s">
         <v>399</v>
@@ -16894,7 +16877,7 @@
         <v>210</v>
       </c>
       <c r="AI22" s="306" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AJ22" s="306" t="s">
         <v>336</v>
@@ -16913,20 +16896,20 @@
         <v>399</v>
       </c>
     </row>
-    <row r="23" spans="1:45" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" customFormat="1" ht="41.45">
       <c r="A23" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B23" s="306"/>
       <c r="C23" s="307"/>
       <c r="D23" s="308" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E23" s="310" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F23" s="317" t="s">
         <v>1242</v>
-      </c>
-      <c r="F23" s="317" t="s">
-        <v>1243</v>
       </c>
       <c r="G23" s="307" t="s">
         <v>567</v>
@@ -16939,10 +16922,10 @@
       </c>
       <c r="J23" s="325"/>
       <c r="K23" s="312" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="L23" s="329" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="M23" s="307" t="s">
         <v>201</v>
@@ -16957,13 +16940,13 @@
       <c r="Q23" s="307"/>
       <c r="R23" s="306"/>
       <c r="S23" s="331" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="T23" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="U23" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V23" s="315" t="s">
         <v>236</v>
@@ -16991,7 +16974,7 @@
         <v>221</v>
       </c>
       <c r="AE23" s="307" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AF23" s="306" t="s">
         <v>399</v>
@@ -17003,7 +16986,7 @@
         <v>210</v>
       </c>
       <c r="AI23" s="306" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AJ23" s="306" t="s">
         <v>336</v>
@@ -17022,38 +17005,38 @@
         <v>399</v>
       </c>
     </row>
-    <row r="24" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A24" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B24" s="306"/>
       <c r="C24" s="307"/>
       <c r="D24" s="308" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E24" s="310" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F24" s="310" t="s">
         <v>1245</v>
-      </c>
-      <c r="E24" s="310" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F24" s="310" t="s">
-        <v>1246</v>
       </c>
       <c r="G24" s="307" t="s">
         <v>567</v>
       </c>
       <c r="H24" s="306" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I24" s="306" t="s">
         <v>131</v>
       </c>
       <c r="J24" s="318" t="s">
+        <v>1247</v>
+      </c>
+      <c r="K24" s="307" t="s">
         <v>1248</v>
       </c>
-      <c r="K24" s="307" t="s">
+      <c r="L24" s="306" t="s">
         <v>1249</v>
-      </c>
-      <c r="L24" s="306" t="s">
-        <v>1250</v>
       </c>
       <c r="M24" s="307" t="s">
         <v>201</v>
@@ -17068,13 +17051,13 @@
       <c r="Q24" s="307"/>
       <c r="R24" s="306"/>
       <c r="S24" s="332" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="T24" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="U24" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V24" s="306" t="s">
         <v>53</v>
@@ -17104,7 +17087,7 @@
         <v>221</v>
       </c>
       <c r="AE24" s="307" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AF24" s="306" t="s">
         <v>399</v>
@@ -17116,7 +17099,7 @@
         <v>210</v>
       </c>
       <c r="AI24" s="306" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="AJ24" s="306" t="s">
         <v>336</v>
@@ -17135,20 +17118,20 @@
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="1:45" s="316" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" s="316" customFormat="1" ht="27.6">
       <c r="A25" s="305" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B25" s="308"/>
       <c r="C25" s="308"/>
       <c r="D25" s="308" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E25" s="317" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F25" s="317" t="s">
         <v>1252</v>
-      </c>
-      <c r="E25" s="317" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F25" s="317" t="s">
-        <v>1253</v>
       </c>
       <c r="G25" s="306" t="s">
         <v>567</v>
@@ -17160,13 +17143,13 @@
         <v>29</v>
       </c>
       <c r="J25" s="311" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K25" s="306" t="s">
         <v>1254</v>
       </c>
-      <c r="K25" s="306" t="s">
+      <c r="L25" s="306" t="s">
         <v>1255</v>
-      </c>
-      <c r="L25" s="306" t="s">
-        <v>1256</v>
       </c>
       <c r="M25" s="306" t="s">
         <v>201</v>
@@ -17184,16 +17167,16 @@
         <v>233</v>
       </c>
       <c r="T25" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="U25" s="331" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V25" s="306" t="s">
         <v>236</v>
       </c>
       <c r="W25" s="306" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="X25" s="306" t="s">
         <v>53</v>
@@ -17287,13 +17270,13 @@
   </sheetPr>
   <dimension ref="A1:CK5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:89" s="172" customFormat="1" ht="55.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:89" s="172" customFormat="1" ht="55.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17474,17 +17457,17 @@
       <c r="CJ1" s="178"/>
       <c r="CK1" s="178"/>
     </row>
-    <row r="2" spans="1:89" s="33" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:89" s="33" customFormat="1" ht="110.45">
       <c r="A2" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B2" s="178"/>
       <c r="C2" s="1"/>
       <c r="D2" s="173" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E2" s="301" t="s">
         <v>1259</v>
-      </c>
-      <c r="E2" s="301" t="s">
-        <v>1260</v>
       </c>
       <c r="F2" s="303" t="s">
         <v>642</v>
@@ -17500,13 +17483,13 @@
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L2" s="36" t="s">
         <v>700</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="N2" s="84">
         <v>45798</v>
@@ -17565,17 +17548,17 @@
       <c r="BL2" s="76"/>
       <c r="BM2" s="174"/>
     </row>
-    <row r="3" spans="1:89" s="33" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:89" s="33" customFormat="1" ht="110.45">
       <c r="A3" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B3" s="178"/>
       <c r="C3" s="1"/>
       <c r="D3" s="173" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E3" s="301" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F3" s="303" t="s">
         <v>642</v>
@@ -17591,13 +17574,13 @@
       </c>
       <c r="J3" s="36"/>
       <c r="K3" s="36" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L3" s="36" t="s">
         <v>707</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="N3" s="84">
         <v>45800</v>
@@ -17656,17 +17639,17 @@
       <c r="BL3" s="76"/>
       <c r="BM3" s="174"/>
     </row>
-    <row r="4" spans="1:89" s="33" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:89" s="33" customFormat="1" ht="110.45">
       <c r="A4" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="1"/>
       <c r="D4" s="173" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E4" s="301" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F4" s="303" t="s">
         <v>642</v>
@@ -17682,13 +17665,13 @@
       </c>
       <c r="J4" s="36"/>
       <c r="K4" s="36" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L4" s="36" t="s">
         <v>713</v>
       </c>
       <c r="M4" s="36" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="N4" s="84">
         <v>45802</v>
@@ -17747,17 +17730,17 @@
       <c r="BL4" s="76"/>
       <c r="BM4" s="174"/>
     </row>
-    <row r="5" spans="1:89" s="33" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:89" s="33" customFormat="1" ht="110.45">
       <c r="A5" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B5" s="178"/>
       <c r="C5" s="1"/>
       <c r="D5" s="173" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E5" s="304" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F5" s="303" t="s">
         <v>642</v>
@@ -17773,13 +17756,13 @@
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="36" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L5" s="145" t="s">
         <v>719</v>
       </c>
       <c r="M5" s="36" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="N5" s="84">
         <v>45804</v>
@@ -17859,14 +17842,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
     <col min="4" max="4" width="58" customWidth="1"/>
-    <col min="6" max="6" width="53.44140625" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="110.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18003,7 +17986,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" ht="41.45">
       <c r="A2" s="1" t="s">
         <v>194</v>
       </c>
@@ -18089,7 +18072,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="41.45">
       <c r="A3" s="1" t="s">
         <v>194</v>
       </c>
@@ -18175,7 +18158,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="27.6">
       <c r="A4" s="1" t="s">
         <v>194</v>
       </c>
@@ -18261,7 +18244,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="27.6">
       <c r="A5" s="1" t="s">
         <v>194</v>
       </c>
@@ -18368,31 +18351,31 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="4" max="4" width="55.109375" customWidth="1"/>
+    <col min="4" max="4" width="55.140625" customWidth="1"/>
     <col min="5" max="5" width="66" customWidth="1"/>
-    <col min="6" max="6" width="63.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="63.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
-    <col min="23" max="23" width="15.88671875" customWidth="1"/>
-    <col min="24" max="24" width="14.109375" customWidth="1"/>
-    <col min="26" max="26" width="19.109375" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" customWidth="1"/>
+    <col min="26" max="26" width="19.140625" customWidth="1"/>
     <col min="27" max="27" width="17" customWidth="1"/>
-    <col min="28" max="28" width="13.6640625" customWidth="1"/>
-    <col min="30" max="30" width="16.44140625" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" customWidth="1"/>
+    <col min="30" max="30" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="172" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:89" s="172" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="255" t="s">
         <v>0</v>
       </c>
@@ -18573,7 +18556,7 @@
       <c r="CJ1" s="178"/>
       <c r="CK1" s="178"/>
     </row>
-    <row r="2" spans="1:89" s="172" customFormat="1" ht="207" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:89" s="172" customFormat="1" ht="207">
       <c r="A2" s="1" t="s">
         <v>225</v>
       </c>
@@ -18718,7 +18701,7 @@
       <c r="CJ2" s="178"/>
       <c r="CK2" s="178"/>
     </row>
-    <row r="3" spans="1:89" s="172" customFormat="1" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:89" s="172" customFormat="1" ht="27.6">
       <c r="A3" s="1" t="s">
         <v>225</v>
       </c>
@@ -18861,7 +18844,7 @@
       <c r="CJ3" s="178"/>
       <c r="CK3" s="178"/>
     </row>
-    <row r="4" spans="1:89" s="172" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:89" s="172" customFormat="1" ht="56.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>225</v>
       </c>
@@ -19002,7 +18985,7 @@
       <c r="CJ4" s="178"/>
       <c r="CK4" s="178"/>
     </row>
-    <row r="5" spans="1:89" s="172" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:89" s="172" customFormat="1" ht="71.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>225</v>
       </c>
@@ -19143,7 +19126,7 @@
       <c r="CJ5" s="178"/>
       <c r="CK5" s="178"/>
     </row>
-    <row r="6" spans="1:89" s="172" customFormat="1" ht="124.2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:89" s="172" customFormat="1" ht="124.15">
       <c r="A6" s="1" t="s">
         <v>225</v>
       </c>
@@ -19288,7 +19271,7 @@
       <c r="CJ6" s="178"/>
       <c r="CK6" s="178"/>
     </row>
-    <row r="7" spans="1:89" s="172" customFormat="1" ht="55.2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:89" s="172" customFormat="1" ht="55.15">
       <c r="A7" s="1" t="s">
         <v>225</v>
       </c>
@@ -19433,7 +19416,7 @@
       <c r="CJ7" s="178"/>
       <c r="CK7" s="178"/>
     </row>
-    <row r="8" spans="1:89" s="172" customFormat="1" ht="82.8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:89" s="172" customFormat="1" ht="82.9">
       <c r="A8" s="1" t="s">
         <v>225</v>
       </c>
@@ -19578,7 +19561,7 @@
       <c r="CJ8" s="178"/>
       <c r="CK8" s="178"/>
     </row>
-    <row r="9" spans="1:89" s="172" customFormat="1" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:89" s="172" customFormat="1" ht="27.6">
       <c r="A9" s="1" t="s">
         <v>225</v>
       </c>
@@ -19721,7 +19704,7 @@
       <c r="CJ9" s="178"/>
       <c r="CK9" s="178"/>
     </row>
-    <row r="10" spans="1:89" s="172" customFormat="1" ht="69" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:89" s="172" customFormat="1" ht="69">
       <c r="A10" s="1" t="s">
         <v>225</v>
       </c>
@@ -19866,7 +19849,7 @@
       <c r="CJ10" s="178"/>
       <c r="CK10" s="178"/>
     </row>
-    <row r="11" spans="1:89" s="172" customFormat="1" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:89" s="172" customFormat="1" ht="27.6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -20001,7 +19984,7 @@
       <c r="CJ11" s="178"/>
       <c r="CK11" s="178"/>
     </row>
-    <row r="12" spans="1:89" s="172" customFormat="1" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:89" s="172" customFormat="1" ht="27.6">
       <c r="A12" s="1" t="s">
         <v>225</v>
       </c>
@@ -20138,7 +20121,7 @@
       <c r="CJ12" s="178"/>
       <c r="CK12" s="178"/>
     </row>
-    <row r="13" spans="1:89" s="172" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:89" s="172" customFormat="1" ht="147.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>225</v>
       </c>
@@ -20283,7 +20266,7 @@
       <c r="CJ13" s="178"/>
       <c r="CK13" s="178"/>
     </row>
-    <row r="14" spans="1:89" s="172" customFormat="1" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:89" s="172" customFormat="1" ht="27.6">
       <c r="A14" s="1" t="s">
         <v>225</v>
       </c>
@@ -20426,7 +20409,7 @@
       <c r="CJ14" s="178"/>
       <c r="CK14" s="178"/>
     </row>
-    <row r="15" spans="1:89" s="172" customFormat="1" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:89" s="172" customFormat="1" ht="27.6">
       <c r="A15" s="1" t="s">
         <v>225</v>
       </c>
@@ -20606,27 +20589,27 @@
       <selection activeCell="L23" sqref="K23:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="252"/>
-    <col min="2" max="2" width="16.33203125" style="252" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="252" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" style="252" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="252" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" style="252" customWidth="1"/>
-    <col min="7" max="16" width="11.44140625" style="252"/>
-    <col min="17" max="17" width="11.44140625" style="254"/>
-    <col min="18" max="18" width="11.44140625" style="252"/>
+    <col min="1" max="1" width="11.42578125" style="252"/>
+    <col min="2" max="2" width="16.28515625" style="252" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="252" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="252" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="252" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="252" customWidth="1"/>
+    <col min="7" max="16" width="11.42578125" style="252"/>
+    <col min="17" max="17" width="11.42578125" style="254"/>
+    <col min="18" max="18" width="11.42578125" style="252"/>
     <col min="19" max="19" width="14" style="254" customWidth="1"/>
-    <col min="20" max="20" width="11.44140625" style="254"/>
-    <col min="21" max="21" width="12.5546875" style="254" customWidth="1"/>
-    <col min="22" max="22" width="11.44140625" style="254"/>
-    <col min="23" max="30" width="11.44140625" style="252"/>
-    <col min="31" max="31" width="16.5546875" style="252" customWidth="1"/>
-    <col min="32" max="16384" width="11.44140625" style="252"/>
+    <col min="20" max="20" width="11.42578125" style="254"/>
+    <col min="21" max="21" width="12.5703125" style="254" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="254"/>
+    <col min="23" max="30" width="11.42578125" style="252"/>
+    <col min="31" max="31" width="16.5703125" style="252" customWidth="1"/>
+    <col min="32" max="16384" width="11.42578125" style="252"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="218" customFormat="1" ht="110.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:89" s="218" customFormat="1" ht="110.45">
       <c r="A1" s="206" t="s">
         <v>0</v>
       </c>
@@ -20807,7 +20790,7 @@
       <c r="CJ1" s="217"/>
       <c r="CK1" s="217"/>
     </row>
-    <row r="2" spans="1:89" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:89" s="228" customFormat="1" ht="55.15">
       <c r="A2" s="224" t="s">
         <v>318</v>
       </c>
@@ -20940,7 +20923,7 @@
       <c r="BL2" s="226"/>
       <c r="BM2" s="227"/>
     </row>
-    <row r="3" spans="1:89" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:89" s="228" customFormat="1" ht="55.15">
       <c r="A3" s="224" t="s">
         <v>318</v>
       </c>
@@ -21073,7 +21056,7 @@
       <c r="BL3" s="226"/>
       <c r="BM3" s="227"/>
     </row>
-    <row r="4" spans="1:89" s="228" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:89" s="228" customFormat="1" ht="69">
       <c r="A4" s="224" t="s">
         <v>318</v>
       </c>
@@ -21206,7 +21189,7 @@
       <c r="BL4" s="226"/>
       <c r="BM4" s="227"/>
     </row>
-    <row r="5" spans="1:89" s="228" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:89" s="228" customFormat="1" ht="69">
       <c r="A5" s="224" t="s">
         <v>318</v>
       </c>
@@ -21339,7 +21322,7 @@
       <c r="BL5" s="226"/>
       <c r="BM5" s="227"/>
     </row>
-    <row r="6" spans="1:89" s="228" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:89" s="228" customFormat="1" ht="124.15">
       <c r="A6" s="224" t="s">
         <v>318</v>
       </c>
@@ -21474,7 +21457,7 @@
       <c r="BL6" s="226"/>
       <c r="BM6" s="227"/>
     </row>
-    <row r="7" spans="1:89" s="228" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:89" s="228" customFormat="1" ht="124.15">
       <c r="A7" s="224" t="s">
         <v>318</v>
       </c>
@@ -21609,7 +21592,7 @@
       <c r="BL7" s="226"/>
       <c r="BM7" s="227"/>
     </row>
-    <row r="8" spans="1:89" s="228" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:89" s="228" customFormat="1" ht="124.15">
       <c r="A8" s="224" t="s">
         <v>318</v>
       </c>
@@ -21744,7 +21727,7 @@
       <c r="BL8" s="226"/>
       <c r="BM8" s="227"/>
     </row>
-    <row r="9" spans="1:89" s="228" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:89" s="228" customFormat="1" ht="124.15">
       <c r="A9" s="224" t="s">
         <v>318</v>
       </c>
@@ -21879,7 +21862,7 @@
       <c r="BL9" s="226"/>
       <c r="BM9" s="227"/>
     </row>
-    <row r="10" spans="1:89" s="247" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:89" s="247" customFormat="1" ht="55.15">
       <c r="A10" s="224" t="s">
         <v>318</v>
       </c>
@@ -22031,7 +22014,7 @@
       <c r="CI10" s="238"/>
       <c r="CJ10" s="238"/>
     </row>
-    <row r="11" spans="1:89" s="247" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:89" s="247" customFormat="1" ht="55.15">
       <c r="A11" s="224" t="s">
         <v>318</v>
       </c>
@@ -22183,7 +22166,7 @@
       <c r="CI11" s="238"/>
       <c r="CJ11" s="238"/>
     </row>
-    <row r="12" spans="1:89" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:89" s="228" customFormat="1" ht="55.15">
       <c r="A12" s="224" t="s">
         <v>318</v>
       </c>
@@ -22316,7 +22299,7 @@
       <c r="BL12" s="226"/>
       <c r="BM12" s="227"/>
     </row>
-    <row r="13" spans="1:89" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:89" s="228" customFormat="1" ht="55.15">
       <c r="A13" s="224" t="s">
         <v>318</v>
       </c>
@@ -22449,7 +22432,7 @@
       <c r="BL13" s="226"/>
       <c r="BM13" s="227"/>
     </row>
-    <row r="14" spans="1:89" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:89" s="228" customFormat="1" ht="55.15">
       <c r="A14" s="224" t="s">
         <v>318</v>
       </c>
@@ -22578,7 +22561,7 @@
       <c r="BL14" s="226"/>
       <c r="BM14" s="227"/>
     </row>
-    <row r="15" spans="1:89" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:89" s="228" customFormat="1" ht="55.15">
       <c r="A15" s="224" t="s">
         <v>318</v>
       </c>
@@ -22707,7 +22690,7 @@
       <c r="BL15" s="226"/>
       <c r="BM15" s="227"/>
     </row>
-    <row r="16" spans="1:89" s="228" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:89" s="228" customFormat="1" ht="110.45">
       <c r="A16" s="224" t="s">
         <v>318</v>
       </c>
@@ -22832,7 +22815,7 @@
       <c r="BL16" s="226"/>
       <c r="BM16" s="227"/>
     </row>
-    <row r="17" spans="1:88" s="228" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:88" s="228" customFormat="1" ht="96.6">
       <c r="A17" s="224" t="s">
         <v>318</v>
       </c>
@@ -22961,7 +22944,7 @@
       <c r="BL17" s="226"/>
       <c r="BM17" s="227"/>
     </row>
-    <row r="18" spans="1:88" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:88" s="228" customFormat="1" ht="55.15">
       <c r="A18" s="224" t="s">
         <v>407</v>
       </c>
@@ -23088,7 +23071,7 @@
       <c r="BL18" s="226"/>
       <c r="BM18" s="227"/>
     </row>
-    <row r="19" spans="1:88" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:88" s="228" customFormat="1" ht="55.15">
       <c r="A19" s="224" t="s">
         <v>318</v>
       </c>
@@ -23213,7 +23196,7 @@
       <c r="BL19" s="226"/>
       <c r="BM19" s="227"/>
     </row>
-    <row r="20" spans="1:88" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:88" s="228" customFormat="1" ht="55.15">
       <c r="A20" s="224" t="s">
         <v>318</v>
       </c>
@@ -23338,7 +23321,7 @@
       <c r="BL20" s="226"/>
       <c r="BM20" s="227"/>
     </row>
-    <row r="21" spans="1:88" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:88" s="228" customFormat="1" ht="55.15">
       <c r="A21" s="224" t="s">
         <v>318</v>
       </c>
@@ -23463,7 +23446,7 @@
       <c r="BL21" s="226"/>
       <c r="BM21" s="227"/>
     </row>
-    <row r="22" spans="1:88" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:88" s="228" customFormat="1" ht="55.15">
       <c r="A22" s="224" t="s">
         <v>318</v>
       </c>
@@ -23588,7 +23571,7 @@
       <c r="BL22" s="226"/>
       <c r="BM22" s="227"/>
     </row>
-    <row r="23" spans="1:88" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:88" s="228" customFormat="1" ht="55.15">
       <c r="A23" s="224" t="s">
         <v>318</v>
       </c>
@@ -23719,7 +23702,7 @@
       <c r="BL23" s="226"/>
       <c r="BM23" s="227"/>
     </row>
-    <row r="24" spans="1:88" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:88" s="228" customFormat="1" ht="55.15">
       <c r="A24" s="224" t="s">
         <v>318</v>
       </c>
@@ -23850,7 +23833,7 @@
       <c r="BL24" s="226"/>
       <c r="BM24" s="227"/>
     </row>
-    <row r="25" spans="1:88" s="247" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:88" s="247" customFormat="1" ht="55.15">
       <c r="A25" s="224" t="s">
         <v>318</v>
       </c>
@@ -24004,7 +23987,7 @@
       <c r="CI25" s="238"/>
       <c r="CJ25" s="238"/>
     </row>
-    <row r="26" spans="1:88" s="247" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:88" s="247" customFormat="1" ht="55.15">
       <c r="A26" s="224" t="s">
         <v>318</v>
       </c>
@@ -24158,7 +24141,7 @@
       <c r="CI26" s="238"/>
       <c r="CJ26" s="238"/>
     </row>
-    <row r="27" spans="1:88" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:88" s="228" customFormat="1" ht="55.15">
       <c r="A27" s="224" t="s">
         <v>407</v>
       </c>
@@ -24283,7 +24266,7 @@
       <c r="BL27" s="226"/>
       <c r="BM27" s="227"/>
     </row>
-    <row r="28" spans="1:88" s="228" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:88" s="228" customFormat="1" ht="124.15">
       <c r="A28" s="224" t="s">
         <v>318</v>
       </c>
@@ -24410,7 +24393,7 @@
       <c r="BL28" s="226"/>
       <c r="BM28" s="227"/>
     </row>
-    <row r="29" spans="1:88" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:88" ht="55.15">
       <c r="A29" s="248" t="s">
         <v>318</v>
       </c>
@@ -24523,7 +24506,7 @@
       <c r="AR29" s="224"/>
       <c r="AS29" s="224"/>
     </row>
-    <row r="30" spans="1:88" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:88" ht="55.15">
       <c r="A30" s="248" t="s">
         <v>318</v>
       </c>
@@ -24655,15 +24638,15 @@
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="4" max="4" width="28.44140625" customWidth="1"/>
-    <col min="5" max="5" width="60.44140625" customWidth="1"/>
-    <col min="6" max="6" width="53.44140625" customWidth="1"/>
-    <col min="23" max="23" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="60.42578125" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:89" ht="82.9">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -24800,7 +24783,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:89" s="60" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:89" s="60" customFormat="1" ht="41.45">
       <c r="A2" s="40" t="s">
         <v>486</v>
       </c>
@@ -24931,7 +24914,7 @@
       <c r="CJ2" s="59"/>
       <c r="CK2" s="59"/>
     </row>
-    <row r="3" spans="1:89" s="60" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:89" s="60" customFormat="1" ht="41.45">
       <c r="A3" s="40" t="s">
         <v>486</v>
       </c>
@@ -25058,7 +25041,7 @@
       <c r="CJ3" s="59"/>
       <c r="CK3" s="59"/>
     </row>
-    <row r="4" spans="1:89" s="60" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:89" s="60" customFormat="1" ht="41.45">
       <c r="A4" s="40" t="s">
         <v>486</v>
       </c>
@@ -25189,7 +25172,7 @@
       <c r="CJ4" s="59"/>
       <c r="CK4" s="59"/>
     </row>
-    <row r="5" spans="1:89" s="60" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:89" s="60" customFormat="1" ht="41.45">
       <c r="A5" s="40" t="s">
         <v>486</v>
       </c>
@@ -25316,7 +25299,7 @@
       <c r="CJ5" s="59"/>
       <c r="CK5" s="59"/>
     </row>
-    <row r="6" spans="1:89" s="60" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:89" s="60" customFormat="1" ht="69">
       <c r="A6" s="40" t="s">
         <v>486</v>
       </c>
@@ -25447,7 +25430,7 @@
       <c r="CJ6" s="59"/>
       <c r="CK6" s="59"/>
     </row>
-    <row r="7" spans="1:89" s="60" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:89" s="60" customFormat="1" ht="27.6">
       <c r="A7" s="40" t="s">
         <v>486</v>
       </c>
@@ -25576,7 +25559,7 @@
       <c r="CJ7" s="59"/>
       <c r="CK7" s="59"/>
     </row>
-    <row r="8" spans="1:89" s="60" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:89" s="60" customFormat="1" ht="27.6">
       <c r="A8" s="40" t="s">
         <v>486</v>
       </c>
@@ -25703,7 +25686,7 @@
       <c r="CJ8" s="59"/>
       <c r="CK8" s="59"/>
     </row>
-    <row r="9" spans="1:89" s="60" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:89" s="60" customFormat="1" ht="69">
       <c r="A9" s="40" t="s">
         <v>486</v>
       </c>
@@ -25857,16 +25840,16 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="77" customFormat="1" ht="55.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:87" s="77" customFormat="1" ht="55.15">
       <c r="A1" s="64" t="s">
         <v>529</v>
       </c>
@@ -26045,7 +26028,7 @@
       <c r="CH1" s="76"/>
       <c r="CI1" s="76"/>
     </row>
-    <row r="2" spans="1:87" s="86" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:87" s="86" customFormat="1" ht="27.6">
       <c r="A2" s="78" t="s">
         <v>547</v>
       </c>
@@ -26163,7 +26146,7 @@
       <c r="BQ2" s="85"/>
       <c r="BR2" s="85"/>
     </row>
-    <row r="3" spans="1:87" s="86" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:87" s="86" customFormat="1" ht="41.45">
       <c r="A3" s="87" t="s">
         <v>547</v>
       </c>
@@ -26256,7 +26239,7 @@
       <c r="AR3" s="89"/>
       <c r="AS3" s="89"/>
     </row>
-    <row r="4" spans="1:87" s="86" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:87" s="86" customFormat="1" ht="41.45">
       <c r="A4" s="92" t="s">
         <v>547</v>
       </c>
@@ -26347,7 +26330,7 @@
       <c r="AR4" s="89"/>
       <c r="AS4" s="89"/>
     </row>
-    <row r="5" spans="1:87" s="86" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:87" s="86" customFormat="1" ht="41.45">
       <c r="A5" s="92" t="s">
         <v>547</v>
       </c>
@@ -26434,7 +26417,7 @@
       <c r="AR5" s="89"/>
       <c r="AS5" s="89"/>
     </row>
-    <row r="6" spans="1:87" s="86" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:87" s="86" customFormat="1" ht="41.45">
       <c r="A6" s="92" t="s">
         <v>547</v>
       </c>
@@ -26527,7 +26510,7 @@
       <c r="AR6" s="89"/>
       <c r="AS6" s="89"/>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:87">
       <c r="F7" s="103"/>
     </row>
   </sheetData>
@@ -26551,20 +26534,20 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="3" width="11.44140625" style="127"/>
-    <col min="4" max="4" width="56.5546875" style="127" customWidth="1"/>
-    <col min="5" max="5" width="50.109375" style="127" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="127" customWidth="1"/>
-    <col min="7" max="8" width="11.44140625" style="127"/>
-    <col min="9" max="29" width="11.44140625" style="128"/>
-    <col min="30" max="30" width="13.6640625" style="129" customWidth="1"/>
-    <col min="31" max="45" width="11.44140625" style="128"/>
-    <col min="46" max="16384" width="11.44140625" style="111"/>
+    <col min="1" max="3" width="11.42578125" style="127"/>
+    <col min="4" max="4" width="56.5703125" style="127" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" style="127" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="127" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="127"/>
+    <col min="9" max="29" width="11.42578125" style="128"/>
+    <col min="30" max="30" width="13.7109375" style="129" customWidth="1"/>
+    <col min="31" max="45" width="11.42578125" style="128"/>
+    <col min="46" max="16384" width="11.42578125" style="111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="110.45">
       <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
@@ -26701,7 +26684,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="121" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" s="121" customFormat="1" ht="41.45">
       <c r="A2" s="104" t="s">
         <v>586</v>
       </c>
@@ -26794,7 +26777,7 @@
       <c r="AR2" s="118"/>
       <c r="AS2" s="118"/>
     </row>
-    <row r="3" spans="1:45" s="121" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" s="121" customFormat="1">
       <c r="A3" s="104" t="s">
         <v>586</v>
       </c>
@@ -26865,7 +26848,7 @@
       <c r="AR3" s="118"/>
       <c r="AS3" s="118"/>
     </row>
-    <row r="4" spans="1:45" s="121" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" s="121" customFormat="1" ht="55.15">
       <c r="A4" s="104" t="s">
         <v>586</v>
       </c>
@@ -26958,7 +26941,7 @@
       <c r="AR4" s="118"/>
       <c r="AS4" s="118"/>
     </row>
-    <row r="5" spans="1:45" s="121" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" s="121" customFormat="1" ht="55.15">
       <c r="A5" s="104" t="s">
         <v>586</v>
       </c>
@@ -27051,7 +27034,7 @@
       <c r="AR5" s="118"/>
       <c r="AS5" s="118"/>
     </row>
-    <row r="6" spans="1:45" s="121" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" s="121" customFormat="1" ht="41.45">
       <c r="A6" s="104" t="s">
         <v>586</v>
       </c>
@@ -27140,7 +27123,7 @@
       <c r="AR6" s="118"/>
       <c r="AS6" s="118"/>
     </row>
-    <row r="7" spans="1:45" s="121" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" s="121" customFormat="1" ht="41.45">
       <c r="A7" s="104" t="s">
         <v>586</v>
       </c>
@@ -27231,7 +27214,7 @@
       <c r="AR7" s="118"/>
       <c r="AS7" s="118"/>
     </row>
-    <row r="8" spans="1:45" s="121" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" s="121" customFormat="1" ht="41.45">
       <c r="A8" s="104" t="s">
         <v>586</v>
       </c>
@@ -27324,7 +27307,7 @@
       <c r="AR8" s="118"/>
       <c r="AS8" s="118"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45">
       <c r="A11" s="126" t="s">
         <v>634</v>
       </c>
@@ -27350,17 +27333,17 @@
       <selection activeCell="S2" sqref="S2:S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5546875" customWidth="1"/>
-    <col min="5" max="5" width="42.88671875" customWidth="1"/>
-    <col min="6" max="6" width="53.88671875" customWidth="1"/>
-    <col min="7" max="7" width="43.5546875" customWidth="1"/>
-    <col min="8" max="8" width="53.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" customWidth="1"/>
+    <col min="7" max="7" width="43.5703125" customWidth="1"/>
+    <col min="8" max="8" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="138" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="138" customFormat="1" ht="55.15">
       <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
@@ -27467,7 +27450,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="138" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="138" customFormat="1" ht="55.15">
       <c r="A2" s="130" t="s">
         <v>637</v>
       </c>
@@ -27564,7 +27547,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="138" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" s="138" customFormat="1" ht="55.15">
       <c r="A3" s="130" t="s">
         <v>637</v>
       </c>
@@ -27661,7 +27644,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="138" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="138" customFormat="1" ht="55.15">
       <c r="A4" s="130" t="s">
         <v>637</v>
       </c>
@@ -27756,7 +27739,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="138" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="138" customFormat="1" ht="55.15">
       <c r="A5" s="130" t="s">
         <v>637</v>
       </c>
@@ -27851,7 +27834,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="138" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" s="138" customFormat="1" ht="13.9">
       <c r="A6" s="152" t="s">
         <v>668</v>
       </c>
@@ -27860,7 +27843,7 @@
       <c r="K6" s="154"/>
       <c r="L6" s="154"/>
     </row>
-    <row r="7" spans="1:36" s="138" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" s="138" customFormat="1" ht="55.15">
       <c r="A7" s="130" t="s">
         <v>637</v>
       </c>
@@ -27956,27 +27939,27 @@
       </c>
       <c r="AJ7" s="147"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36">
       <c r="D11" s="158"/>
       <c r="E11" s="159"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36">
       <c r="D12" s="158"/>
       <c r="E12" s="159"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36">
       <c r="D13" s="158"/>
       <c r="E13" s="159"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36">
       <c r="D14" s="158"/>
       <c r="E14" s="159"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36">
       <c r="D15" s="160"/>
       <c r="E15" s="160"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36">
       <c r="D16" s="158"/>
       <c r="E16" s="158"/>
     </row>
@@ -27997,58 +27980,58 @@
   </sheetPr>
   <dimension ref="A1:CK44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="38.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="38.140625" defaultRowHeight="13.15"/>
   <cols>
     <col min="1" max="1" width="8" style="252" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="252" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="252" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="38.109375" style="252"/>
-    <col min="6" max="6" width="27.6640625" style="252" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="252" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" style="252" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="252" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="252" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="252" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="38.140625" style="252"/>
+    <col min="6" max="6" width="27.7109375" style="252" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="252" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="252" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="252" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="252" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.88671875" style="252" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" style="252" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="252" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.85546875" style="252" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="252" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="252" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="252" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.109375" style="252"/>
-    <col min="17" max="17" width="18.88671875" style="252" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" style="252" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.44140625" style="252" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.88671875" style="252" customWidth="1"/>
+    <col min="16" max="16" width="38.140625" style="252"/>
+    <col min="17" max="17" width="18.85546875" style="252" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="252" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.42578125" style="252" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" style="252" customWidth="1"/>
     <col min="22" max="22" width="16" style="252" customWidth="1"/>
-    <col min="23" max="23" width="11.88671875" style="252" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.88671875" style="252" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.109375" style="252" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.33203125" style="252" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.6640625" style="252" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.109375" style="252" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.5546875" style="252" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.6640625" style="252" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.6640625" style="252" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.33203125" style="252" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.5546875" style="252" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="34.109375" style="252" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.6640625" style="252" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.109375" style="252" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" style="252" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="252" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="252" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.28515625" style="252" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.7109375" style="252" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="252" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" style="252" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.7109375" style="252" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" style="252" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.28515625" style="252" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.5703125" style="252" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="34.140625" style="252" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.7109375" style="252" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.140625" style="252" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="26" style="252" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="27.44140625" style="252" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.5546875" style="252" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.44140625" style="252" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.5546875" style="252" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.33203125" style="252" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="21.44140625" style="252" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="27.42578125" style="252" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.5703125" style="252" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.42578125" style="252" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.5703125" style="252" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.28515625" style="252" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="21.42578125" style="252" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="21" style="252" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="38" style="252" customWidth="1"/>
-    <col min="47" max="16384" width="38.109375" style="252"/>
+    <col min="47" max="16384" width="38.140625" style="252"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="218" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:89" s="218" customFormat="1" ht="37.5" customHeight="1">
       <c r="A1" s="206" t="s">
         <v>0</v>
       </c>
@@ -28229,7 +28212,7 @@
       <c r="CJ1" s="217"/>
       <c r="CK1" s="217"/>
     </row>
-    <row r="2" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A2" s="206" t="s">
         <v>680</v>
       </c>
@@ -28354,7 +28337,7 @@
       <c r="BL2" s="226"/>
       <c r="BM2" s="227"/>
     </row>
-    <row r="3" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A3" s="206" t="s">
         <v>680</v>
       </c>
@@ -28477,7 +28460,7 @@
       <c r="BL3" s="226"/>
       <c r="BM3" s="227"/>
     </row>
-    <row r="4" spans="1:89" s="229" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:89" s="229" customFormat="1" ht="27.6">
       <c r="A4" s="206" t="s">
         <v>680</v>
       </c>
@@ -28626,7 +28609,7 @@
       <c r="CJ4" s="228"/>
       <c r="CK4" s="228"/>
     </row>
-    <row r="5" spans="1:89" s="229" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:89" s="229" customFormat="1" ht="27.6">
       <c r="A5" s="230" t="s">
         <v>680</v>
       </c>
@@ -28771,7 +28754,7 @@
       <c r="CJ5" s="228"/>
       <c r="CK5" s="228"/>
     </row>
-    <row r="6" spans="1:89" s="229" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:89" s="229" customFormat="1" ht="27.6">
       <c r="A6" s="206" t="s">
         <v>680</v>
       </c>
@@ -28920,7 +28903,7 @@
       <c r="CJ6" s="228"/>
       <c r="CK6" s="228"/>
     </row>
-    <row r="7" spans="1:89" s="229" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:89" s="229" customFormat="1" ht="27.6">
       <c r="A7" s="230" t="s">
         <v>680</v>
       </c>
@@ -29065,7 +29048,7 @@
       <c r="CJ7" s="228"/>
       <c r="CK7" s="228"/>
     </row>
-    <row r="8" spans="1:89" s="228" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:89" s="228" customFormat="1" ht="27.6">
       <c r="A8" s="206" t="s">
         <v>680</v>
       </c>
@@ -29190,7 +29173,7 @@
       <c r="BL8" s="226"/>
       <c r="BM8" s="227"/>
     </row>
-    <row r="9" spans="1:89" s="229" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:89" s="229" customFormat="1" ht="27.6">
       <c r="A9" s="230" t="s">
         <v>680</v>
       </c>
@@ -29335,7 +29318,7 @@
       <c r="CJ9" s="228"/>
       <c r="CK9" s="228"/>
     </row>
-    <row r="10" spans="1:89" s="229" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:89" s="229" customFormat="1" ht="41.45">
       <c r="A10" s="206" t="s">
         <v>680</v>
       </c>
@@ -29460,7 +29443,7 @@
       <c r="BL10" s="233"/>
       <c r="BM10" s="234"/>
     </row>
-    <row r="11" spans="1:89" s="229" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:89" s="229" customFormat="1" ht="41.45">
       <c r="A11" s="230" t="s">
         <v>680</v>
       </c>
@@ -29605,7 +29588,7 @@
       <c r="CJ11" s="228"/>
       <c r="CK11" s="228"/>
     </row>
-    <row r="12" spans="1:89" s="229" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:89" s="229" customFormat="1" ht="27.6">
       <c r="A12" s="206" t="s">
         <v>680</v>
       </c>
@@ -29748,7 +29731,7 @@
       <c r="CJ12" s="228"/>
       <c r="CK12" s="228"/>
     </row>
-    <row r="13" spans="1:89" s="235" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:89" s="235" customFormat="1" ht="27.6">
       <c r="A13" s="206" t="s">
         <v>680</v>
       </c>
@@ -29897,7 +29880,7 @@
       <c r="CJ13" s="228"/>
       <c r="CK13" s="228"/>
     </row>
-    <row r="14" spans="1:89" s="235" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:89" s="235" customFormat="1" ht="27.6">
       <c r="A14" s="206" t="s">
         <v>680</v>
       </c>
@@ -30044,7 +30027,7 @@
       <c r="CJ14" s="228"/>
       <c r="CK14" s="228"/>
     </row>
-    <row r="15" spans="1:89" s="228" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:89" s="228" customFormat="1" ht="27.6">
       <c r="A15" s="206" t="s">
         <v>680</v>
       </c>
@@ -30169,7 +30152,7 @@
       <c r="BL15" s="226"/>
       <c r="BM15" s="227"/>
     </row>
-    <row r="16" spans="1:89" s="228" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:89" s="228" customFormat="1" ht="27.6">
       <c r="A16" s="206" t="s">
         <v>680</v>
       </c>
@@ -30290,7 +30273,7 @@
       <c r="BL16" s="226"/>
       <c r="BM16" s="227"/>
     </row>
-    <row r="17" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A17" s="206" t="s">
         <v>680</v>
       </c>
@@ -30439,7 +30422,7 @@
       <c r="CJ17" s="229"/>
       <c r="CK17" s="229"/>
     </row>
-    <row r="18" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A18" s="206" t="s">
         <v>680</v>
       </c>
@@ -30586,7 +30569,7 @@
       <c r="CJ18" s="229"/>
       <c r="CK18" s="229"/>
     </row>
-    <row r="19" spans="1:89" s="235" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:89" s="235" customFormat="1" ht="41.45">
       <c r="A19" s="206" t="s">
         <v>680</v>
       </c>
@@ -30733,7 +30716,7 @@
       <c r="CJ19" s="228"/>
       <c r="CK19" s="228"/>
     </row>
-    <row r="20" spans="1:89" s="228" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:89" s="228" customFormat="1" ht="42.6" customHeight="1">
       <c r="A20" s="206" t="s">
         <v>680</v>
       </c>
@@ -30880,7 +30863,7 @@
       <c r="CJ20" s="229"/>
       <c r="CK20" s="229"/>
     </row>
-    <row r="21" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A21" s="206" t="s">
         <v>680</v>
       </c>
@@ -31003,7 +30986,7 @@
       <c r="BL21" s="226"/>
       <c r="BM21" s="227"/>
     </row>
-    <row r="22" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A22" s="206" t="s">
         <v>680</v>
       </c>
@@ -31126,7 +31109,7 @@
       <c r="BL22" s="226"/>
       <c r="BM22" s="227"/>
     </row>
-    <row r="23" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A23" s="206" t="s">
         <v>680</v>
       </c>
@@ -31273,7 +31256,7 @@
       <c r="CJ23" s="229"/>
       <c r="CK23" s="229"/>
     </row>
-    <row r="24" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A24" s="206" t="s">
         <v>680</v>
       </c>
@@ -31420,7 +31403,7 @@
       <c r="CJ24" s="229"/>
       <c r="CK24" s="229"/>
     </row>
-    <row r="25" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A25" s="206" t="s">
         <v>680</v>
       </c>
@@ -31567,7 +31550,7 @@
       <c r="CJ25" s="229"/>
       <c r="CK25" s="229"/>
     </row>
-    <row r="26" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A26" s="206" t="s">
         <v>680</v>
       </c>
@@ -31714,7 +31697,7 @@
       <c r="CJ26" s="229"/>
       <c r="CK26" s="229"/>
     </row>
-    <row r="27" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A27" s="206" t="s">
         <v>680</v>
       </c>
@@ -31861,7 +31844,7 @@
       <c r="CJ27" s="229"/>
       <c r="CK27" s="229"/>
     </row>
-    <row r="28" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A28" s="206" t="s">
         <v>680</v>
       </c>
@@ -32008,7 +31991,7 @@
       <c r="CJ28" s="229"/>
       <c r="CK28" s="229"/>
     </row>
-    <row r="29" spans="1:89" s="226" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:89" s="226" customFormat="1" ht="41.45">
       <c r="A29" s="206" t="s">
         <v>680</v>
       </c>
@@ -32155,7 +32138,7 @@
       <c r="CJ29" s="233"/>
       <c r="CK29" s="233"/>
     </row>
-    <row r="30" spans="1:89" s="226" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:89" s="226" customFormat="1" ht="41.45">
       <c r="A30" s="206" t="s">
         <v>680</v>
       </c>
@@ -32302,7 +32285,7 @@
       <c r="CJ30" s="233"/>
       <c r="CK30" s="233"/>
     </row>
-    <row r="31" spans="1:89" s="226" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:89" s="226" customFormat="1" ht="41.45">
       <c r="A31" s="206" t="s">
         <v>680</v>
       </c>
@@ -32449,7 +32432,7 @@
       <c r="CJ31" s="233"/>
       <c r="CK31" s="233"/>
     </row>
-    <row r="32" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A32" s="206" t="s">
         <v>680</v>
       </c>
@@ -32596,7 +32579,7 @@
       <c r="CJ32" s="229"/>
       <c r="CK32" s="229"/>
     </row>
-    <row r="33" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A33" s="206" t="s">
         <v>680</v>
       </c>
@@ -32719,7 +32702,7 @@
       <c r="BL33" s="226"/>
       <c r="BM33" s="227"/>
     </row>
-    <row r="34" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A34" s="206" t="s">
         <v>680</v>
       </c>
@@ -32842,7 +32825,7 @@
       <c r="BL34" s="226"/>
       <c r="BM34" s="227"/>
     </row>
-    <row r="35" spans="1:89" s="235" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:89" s="235" customFormat="1" ht="41.45">
       <c r="A35" s="206" t="s">
         <v>680</v>
       </c>
@@ -32991,7 +32974,7 @@
       <c r="CJ35" s="228"/>
       <c r="CK35" s="228"/>
     </row>
-    <row r="36" spans="1:89" s="235" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:89" s="235" customFormat="1" ht="41.45">
       <c r="A36" s="206" t="s">
         <v>680</v>
       </c>
@@ -33138,7 +33121,7 @@
       <c r="CJ36" s="228"/>
       <c r="CK36" s="228"/>
     </row>
-    <row r="37" spans="1:89" s="235" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:89" s="235" customFormat="1" ht="41.45">
       <c r="A37" s="206" t="s">
         <v>680</v>
       </c>
@@ -33287,7 +33270,7 @@
       <c r="CJ37" s="228"/>
       <c r="CK37" s="228"/>
     </row>
-    <row r="38" spans="1:89" s="235" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:89" s="235" customFormat="1" ht="41.45">
       <c r="A38" s="206" t="s">
         <v>680</v>
       </c>
@@ -33434,7 +33417,7 @@
       <c r="CJ38" s="228"/>
       <c r="CK38" s="228"/>
     </row>
-    <row r="39" spans="1:89" s="235" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:89" s="235" customFormat="1" ht="41.45">
       <c r="A39" s="206" t="s">
         <v>680</v>
       </c>
@@ -33583,7 +33566,7 @@
       <c r="CJ39" s="228"/>
       <c r="CK39" s="228"/>
     </row>
-    <row r="40" spans="1:89" s="235" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:89" s="235" customFormat="1" ht="41.45">
       <c r="A40" s="206" t="s">
         <v>680</v>
       </c>
@@ -33730,7 +33713,7 @@
       <c r="CJ40" s="228"/>
       <c r="CK40" s="228"/>
     </row>
-    <row r="41" spans="1:89" s="239" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:89" s="239" customFormat="1" ht="41.45">
       <c r="A41" s="206" t="s">
         <v>680</v>
       </c>
@@ -33877,7 +33860,7 @@
       <c r="CJ41" s="226"/>
       <c r="CK41" s="226"/>
     </row>
-    <row r="42" spans="1:89" s="239" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:89" s="239" customFormat="1" ht="41.45">
       <c r="A42" s="206" t="s">
         <v>680</v>
       </c>
@@ -34024,7 +34007,7 @@
       <c r="CJ42" s="226"/>
       <c r="CK42" s="226"/>
     </row>
-    <row r="43" spans="1:89" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:89" ht="41.45">
       <c r="A43" s="206" t="s">
         <v>680</v>
       </c>
@@ -34127,7 +34110,7 @@
       <c r="AR43" s="293"/>
       <c r="AS43" s="293"/>
     </row>
-    <row r="44" spans="1:89" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:89" ht="41.45">
       <c r="A44" s="206" t="s">
         <v>680</v>
       </c>
@@ -34233,12 +34216,16 @@
   </sheetData>
   <autoFilter ref="A1:CK1" xr:uid="{81481555-CC8D-496A-8B62-D9F1569CF07D}"/>
   <mergeCells count="28">
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="Q16:R16"/>
@@ -34251,16 +34238,12 @@
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q11:R11"/>
   </mergeCells>
   <conditionalFormatting sqref="P1:R1">
     <cfRule type="expression" dxfId="28" priority="1" stopIfTrue="1">

--- a/sqlite/docs/excel-cod.xlsx
+++ b/sqlite/docs/excel-cod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmunoz\trabajo\proyectos\LKS\FP\carga-excel-python\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{FD160B07-0254-45C5-837A-198D083F8BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1330BAD1-2423-400F-9A28-0C522BDB9ED5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E629901E-F738-4210-8281-6C02CC3A4B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="10" xr2:uid="{985A6DF8-F51D-4D3E-B1AA-DA801117F226}"/>
   </bookViews>

--- a/sqlite/docs/excel-cod.xlsx
+++ b/sqlite/docs/excel-cod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29607"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmunoz\trabajo\proyectos\LKS\FP\carga-excel-python\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E629901E-F738-4210-8281-6C02CC3A4B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{FD160B07-0254-45C5-837A-198D083F8BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CC364C4-C859-4FFF-9849-C7D90F80D605}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="10" xr2:uid="{985A6DF8-F51D-4D3E-B1AA-DA801117F226}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{985A6DF8-F51D-4D3E-B1AA-DA801117F226}"/>
   </bookViews>
   <sheets>
     <sheet name="EX00" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>EX-00</t>
   </si>
   <si>
-    <t>Autorización de estancia de larga duración INICIAL por estudios, movilidad de alumnos, servicios de voluntariado o actividades formativas</t>
-  </si>
-  <si>
     <t>Autorización de estancia INICIAL para la realización de estudios superiores. Art. 52.1.a. Solicitada en España</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>Duración oficial estudios + 15</t>
+  </si>
+  <si>
+    <t>Autorización de estancia de larga duración INICIAL por estudios, movilidad de alumnos, servicios de voluntariado o actividades formativas</t>
   </si>
   <si>
     <t>Autorización de estancia para la realización de estudios superiores. Art. 52.1.a. Solicitada en oficina consular</t>
@@ -4765,7 +4765,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5723,7 +5723,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6430,8 +6429,8 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -6513,7 +6512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="165.6">
+    <row r="2" spans="1:23" ht="148.5">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -6523,31 +6522,31 @@
         <v>24</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="297" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="297" t="s">
+      <c r="G2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="N2" s="10">
         <v>45797</v>
@@ -6556,26 +6555,26 @@
         <v>82182</v>
       </c>
       <c r="P2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="296" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="165.6">
@@ -6585,34 +6584,34 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="297" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>42</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" s="10">
         <v>45797</v>
@@ -6621,26 +6620,26 @@
         <v>82182</v>
       </c>
       <c r="P3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="333" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="333" t="s">
-        <v>37</v>
-      </c>
       <c r="T3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="296" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="165.6">
@@ -6650,34 +6649,34 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="297" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>45</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>46</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>47</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="10">
         <v>45797</v>
@@ -6686,26 +6685,26 @@
         <v>82182</v>
       </c>
       <c r="P4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="T4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="296" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="138">
@@ -6715,7 +6714,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>48</v>
@@ -6724,25 +6723,25 @@
         <v>49</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>50</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>51</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" s="10">
         <v>45797</v>
@@ -6751,19 +6750,19 @@
         <v>82182</v>
       </c>
       <c r="P5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="2" t="s">
@@ -6780,7 +6779,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>55</v>
@@ -6789,25 +6788,25 @@
         <v>49</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>56</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>58</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N6" s="10">
         <v>45797</v>
@@ -6816,19 +6815,19 @@
         <v>82182</v>
       </c>
       <c r="P6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="S6" s="333" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="2" t="s">
@@ -6845,7 +6844,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>59</v>
@@ -6855,22 +6854,22 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>61</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>62</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N7" s="10">
         <v>45797</v>
@@ -6879,19 +6878,19 @@
         <v>82182</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="2" t="s">
@@ -6908,7 +6907,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>63</v>
@@ -6918,22 +6917,22 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>64</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>65</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N8" s="10">
         <v>45797</v>
@@ -6942,19 +6941,19 @@
         <v>82182</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S8" s="333" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="2" t="s">
@@ -6971,32 +6970,32 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F9" s="297"/>
       <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>67</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>68</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9" s="10">
         <v>45797</v>
@@ -7005,19 +7004,19 @@
         <v>82182</v>
       </c>
       <c r="P9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>69</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="2" t="s">
@@ -7034,32 +7033,32 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>70</v>
       </c>
       <c r="F10" s="298"/>
       <c r="G10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>71</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>72</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N10" s="10">
         <v>45797</v>
@@ -7068,19 +7067,19 @@
         <v>82182</v>
       </c>
       <c r="P10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="S10" s="333" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="2" t="s">
@@ -7097,7 +7096,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>73</v>
@@ -7106,25 +7105,25 @@
         <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>76</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N11" s="10">
         <v>45797</v>
@@ -7133,19 +7132,19 @@
         <v>82182</v>
       </c>
       <c r="P11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>77</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="2" t="s">
@@ -7162,7 +7161,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>78</v>
@@ -7171,25 +7170,25 @@
         <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>80</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N12" s="10">
         <v>45797</v>
@@ -7198,19 +7197,19 @@
         <v>82182</v>
       </c>
       <c r="P12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>77</v>
       </c>
       <c r="S12" s="333" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="2" t="s">
@@ -7227,7 +7226,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>81</v>
@@ -7236,25 +7235,25 @@
         <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>84</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N13" s="10">
         <v>45797</v>
@@ -7263,19 +7262,19 @@
         <v>82182</v>
       </c>
       <c r="P13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>85</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="2" t="s">
@@ -7292,7 +7291,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>87</v>
@@ -7301,25 +7300,25 @@
         <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>89</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N14" s="10">
         <v>45797</v>
@@ -7328,19 +7327,19 @@
         <v>82182</v>
       </c>
       <c r="P14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>85</v>
       </c>
       <c r="S14" s="333" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="2" t="s">
@@ -7364,11 +7363,11 @@
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>92</v>
@@ -7380,7 +7379,7 @@
         <v>94</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N15" s="10">
         <v>45797</v>
@@ -7389,7 +7388,7 @@
         <v>82182</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>95</v>
@@ -7398,7 +7397,7 @@
         <v>96</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>97</v>
@@ -7425,11 +7424,11 @@
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>102</v>
@@ -7441,7 +7440,7 @@
         <v>104</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N16" s="10">
         <v>45797</v>
@@ -7450,7 +7449,7 @@
         <v>82182</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>105</v>
@@ -7459,7 +7458,7 @@
         <v>106</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>97</v>
@@ -7479,32 +7478,32 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>108</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L17" s="17" t="s">
         <v>110</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N17" s="10">
         <v>45797</v>
@@ -7513,19 +7512,19 @@
         <v>82182</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="2" t="s">
@@ -7542,32 +7541,32 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>113</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>115</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N18" s="10">
         <v>45797</v>
@@ -7576,19 +7575,19 @@
         <v>82182</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S18" s="333" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="2" t="s">
@@ -7605,7 +7604,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>116</v>
@@ -7614,25 +7613,25 @@
         <v>82</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>117</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>118</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N19" s="10">
         <v>45797</v>
@@ -7641,19 +7640,19 @@
         <v>82182</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="2" t="s">
@@ -7670,7 +7669,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>120</v>
@@ -7679,25 +7678,25 @@
         <v>82</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="I20" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20" s="18" t="s">
         <v>122</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N20" s="10">
         <v>45797</v>
@@ -7706,19 +7705,19 @@
         <v>82182</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S20" s="333" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="2" t="s">
@@ -7735,14 +7734,14 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>123</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>124</v>
@@ -7752,13 +7751,13 @@
         <v>125</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L21" s="18" t="s">
         <v>126</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N21" s="10">
         <v>45797</v>
@@ -7767,19 +7766,19 @@
         <v>82182</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S21" s="333" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="2" t="s">
@@ -7796,7 +7795,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>128</v>
@@ -7805,7 +7804,7 @@
         <v>129</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>130</v>
@@ -7817,13 +7816,13 @@
         <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L22" s="18" t="s">
         <v>133</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N22" s="10">
         <v>45797</v>
@@ -7832,19 +7831,19 @@
         <v>82182</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="2" t="s">
@@ -7861,32 +7860,32 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>134</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="I23" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L23" s="18" t="s">
         <v>136</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N23" s="10">
         <v>45797</v>
@@ -7895,19 +7894,19 @@
         <v>82182</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U23" s="1"/>
       <c r="V23" s="296" t="s">
@@ -7924,7 +7923,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>137</v>
@@ -7933,25 +7932,25 @@
         <v>138</v>
       </c>
       <c r="G24" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="I24" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>139</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L24" s="18" t="s">
         <v>140</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N24" s="10">
         <v>45797</v>
@@ -7960,19 +7959,19 @@
         <v>82182</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="2" t="s">
@@ -7989,7 +7988,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>141</v>
@@ -7997,22 +7996,22 @@
       <c r="F25" s="12"/>
       <c r="G25" s="18"/>
       <c r="H25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N25" s="10">
         <v>45797</v>
@@ -8021,19 +8020,19 @@
         <v>82182</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S25" s="333" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U25" s="1"/>
       <c r="V25" s="2" t="s">
@@ -8063,7 +8062,7 @@
         <v>130</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>148</v>
@@ -8072,10 +8071,10 @@
         <v>149</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N26" s="10">
         <v>45797</v>
@@ -8084,23 +8083,23 @@
         <v>82182</v>
       </c>
       <c r="P26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>150</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="296" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W26" s="25" t="s">
         <v>54</v>
@@ -8128,7 +8127,7 @@
         <v>130</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>152</v>
@@ -8140,7 +8139,7 @@
         <v>52</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N27" s="10">
         <v>45797</v>
@@ -8149,10 +8148,10 @@
         <v>82182</v>
       </c>
       <c r="P27" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>52</v>
@@ -8161,7 +8160,7 @@
         <v>150</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="2" t="s">
@@ -8191,7 +8190,7 @@
         <v>130</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>154</v>
@@ -8203,7 +8202,7 @@
         <v>69</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N28" s="10">
         <v>45797</v>
@@ -8212,19 +8211,19 @@
         <v>82182</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>150</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="2" t="s">
@@ -8256,7 +8255,7 @@
         <v>130</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>156</v>
@@ -8268,7 +8267,7 @@
         <v>157</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N29" s="10">
         <v>45797</v>
@@ -8277,19 +8276,19 @@
         <v>82182</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>150</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U29" s="1"/>
       <c r="V29" s="2" t="s">
@@ -8321,7 +8320,7 @@
         <v>130</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>159</v>
@@ -8333,7 +8332,7 @@
         <v>85</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N30" s="10">
         <v>45797</v>
@@ -8342,10 +8341,10 @@
         <v>82182</v>
       </c>
       <c r="P30" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>85</v>
@@ -8354,7 +8353,7 @@
         <v>150</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="2" t="s">
@@ -8384,7 +8383,7 @@
         <v>130</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>162</v>
@@ -8396,7 +8395,7 @@
         <v>96</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N31" s="10">
         <v>45797</v>
@@ -8405,7 +8404,7 @@
         <v>82182</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>95</v>
@@ -8447,7 +8446,7 @@
         <v>130</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>166</v>
@@ -8459,7 +8458,7 @@
         <v>106</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N32" s="10">
         <v>45797</v>
@@ -8468,7 +8467,7 @@
         <v>82182</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>105</v>
@@ -8708,7 +8707,7 @@
         <v>864</v>
       </c>
       <c r="T2" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U2" s="147" t="s">
         <v>205</v>
@@ -8815,7 +8814,7 @@
         <v>864</v>
       </c>
       <c r="T3" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" s="147" t="s">
         <v>205</v>
@@ -8895,7 +8894,7 @@
         <v>872</v>
       </c>
       <c r="I4" s="162" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="165" t="s">
         <v>873</v>
@@ -8922,7 +8921,7 @@
         <v>864</v>
       </c>
       <c r="T4" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U4" s="147" t="s">
         <v>205</v>
@@ -9029,7 +9028,7 @@
         <v>864</v>
       </c>
       <c r="T5" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U5" s="147" t="s">
         <v>205</v>
@@ -9138,7 +9137,7 @@
         <v>864</v>
       </c>
       <c r="T6" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U6" s="147" t="s">
         <v>205</v>
@@ -9245,7 +9244,7 @@
         <v>864</v>
       </c>
       <c r="T7" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U7" s="147" t="s">
         <v>205</v>
@@ -9352,7 +9351,7 @@
         <v>864</v>
       </c>
       <c r="T8" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U8" s="147" t="s">
         <v>205</v>
@@ -9459,7 +9458,7 @@
         <v>864</v>
       </c>
       <c r="T9" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U9" s="147" t="s">
         <v>205</v>
@@ -9566,7 +9565,7 @@
         <v>906</v>
       </c>
       <c r="T10" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U10" s="147" t="s">
         <v>205</v>
@@ -9673,7 +9672,7 @@
         <v>864</v>
       </c>
       <c r="T11" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U11" s="147" t="s">
         <v>205</v>
@@ -9753,7 +9752,7 @@
         <v>872</v>
       </c>
       <c r="I12" s="162" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="165" t="s">
         <v>914</v>
@@ -9780,7 +9779,7 @@
         <v>864</v>
       </c>
       <c r="T12" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U12" s="147" t="s">
         <v>205</v>
@@ -9887,7 +9886,7 @@
         <v>906</v>
       </c>
       <c r="T13" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U13" s="147" t="s">
         <v>205</v>
@@ -9994,7 +9993,7 @@
         <v>906</v>
       </c>
       <c r="T14" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U14" s="147" t="s">
         <v>205</v>
@@ -10101,7 +10100,7 @@
         <v>864</v>
       </c>
       <c r="T15" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U15" s="147" t="s">
         <v>205</v>
@@ -10208,7 +10207,7 @@
         <v>864</v>
       </c>
       <c r="T16" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U16" s="147" t="s">
         <v>205</v>
@@ -10315,7 +10314,7 @@
         <v>864</v>
       </c>
       <c r="T17" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U17" s="147" t="s">
         <v>205</v>
@@ -10422,7 +10421,7 @@
         <v>906</v>
       </c>
       <c r="T18" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U18" s="147" t="s">
         <v>205</v>
@@ -10529,7 +10528,7 @@
         <v>906</v>
       </c>
       <c r="T19" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U19" s="147" t="s">
         <v>205</v>
@@ -10636,7 +10635,7 @@
         <v>864</v>
       </c>
       <c r="T20" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U20" s="147" t="s">
         <v>205</v>
@@ -10712,7 +10711,7 @@
   </sheetPr>
   <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -10723,7 +10722,6 @@
     <col min="5" max="5" width="44.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="13" max="13" width="22" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="337"/>
     <col min="30" max="30" width="13" customWidth="1"/>
     <col min="33" max="33" width="39.42578125" customWidth="1"/>
     <col min="34" max="34" width="14.5703125" customWidth="1"/>
@@ -10850,13 +10848,13 @@
         <v>979</v>
       </c>
       <c r="G2" s="282" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="282" t="s">
         <v>299</v>
       </c>
       <c r="I2" s="282" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
         <v>980</v>
@@ -10872,10 +10870,10 @@
       </c>
       <c r="Q2" s="282"/>
       <c r="S2" s="282" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T2" s="282" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V2" s="282" t="s">
         <v>363</v>
@@ -10916,13 +10914,13 @@
         <v>989</v>
       </c>
       <c r="G3" s="282" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>299</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
         <v>990</v>
@@ -10938,10 +10936,10 @@
       </c>
       <c r="Q3" s="282"/>
       <c r="S3" s="282" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T3" s="282" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V3" s="282" t="s">
         <v>363</v>
@@ -10985,13 +10983,13 @@
         <v>993</v>
       </c>
       <c r="G4" s="282" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
         <v>299</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
         <v>994</v>
@@ -11006,10 +11004,10 @@
         <v>982</v>
       </c>
       <c r="S4" s="282" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T4" s="282" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V4" s="282" t="s">
         <v>363</v>
@@ -11059,7 +11057,7 @@
         <v>299</v>
       </c>
       <c r="I5" s="282" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
         <v>999</v>
@@ -11074,10 +11072,10 @@
         <v>982</v>
       </c>
       <c r="S5" s="282" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T5" s="282" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V5" s="282" t="s">
         <v>363</v>
@@ -11333,13 +11331,13 @@
         <v>1006</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>872</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="180" t="s">
         <v>1007</v>
@@ -11365,10 +11363,10 @@
         <v>1010</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U2" s="34" t="s">
         <v>205</v>
@@ -11429,13 +11427,13 @@
         <v>1012</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>872</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="180" t="s">
         <v>1013</v>
@@ -11461,10 +11459,10 @@
         <v>1010</v>
       </c>
       <c r="S3" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" s="34" t="s">
         <v>205</v>
@@ -11525,13 +11523,13 @@
         <v>1015</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>872</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="180" t="s">
         <v>1016</v>
@@ -11557,10 +11555,10 @@
         <v>1010</v>
       </c>
       <c r="S4" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T4" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U4" s="34" t="s">
         <v>205</v>
@@ -11619,13 +11617,13 @@
         <v>1018</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="34" t="s">
         <v>872</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="180" t="s">
         <v>1019</v>
@@ -11651,10 +11649,10 @@
         <v>1010</v>
       </c>
       <c r="S5" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U5" s="34" t="s">
         <v>205</v>
@@ -11745,10 +11743,10 @@
         <v>1010</v>
       </c>
       <c r="S6" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T6" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U6" s="34" t="s">
         <v>205</v>
@@ -11809,13 +11807,13 @@
         <v>1029</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="34" t="s">
         <v>872</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="180" t="s">
         <v>1030</v>
@@ -11841,10 +11839,10 @@
         <v>1010</v>
       </c>
       <c r="S7" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T7" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U7" s="34" t="s">
         <v>205</v>
@@ -12065,13 +12063,13 @@
       </c>
       <c r="F2" s="186"/>
       <c r="G2" s="187" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="187" t="s">
         <v>424</v>
       </c>
       <c r="I2" s="187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="52" t="s">
         <v>1036</v>
@@ -12092,22 +12090,22 @@
         <v>410900</v>
       </c>
       <c r="P2" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="187" t="s">
         <v>262</v>
       </c>
       <c r="R2" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" s="52" t="s">
         <v>1040</v>
       </c>
       <c r="T2" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U2" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" s="190" t="s">
         <v>1041</v>
@@ -12140,7 +12138,7 @@
         <v>1043</v>
       </c>
       <c r="AF2" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG2" s="180"/>
       <c r="AH2" s="180"/>
@@ -12170,13 +12168,13 @@
       </c>
       <c r="F3" s="186"/>
       <c r="G3" s="187" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="187" t="s">
         <v>424</v>
       </c>
       <c r="I3" s="187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="52" t="s">
         <v>1045</v>
@@ -12197,22 +12195,22 @@
         <v>410900</v>
       </c>
       <c r="P3" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="187" t="s">
         <v>262</v>
       </c>
       <c r="R3" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S3" s="52" t="s">
         <v>1040</v>
       </c>
       <c r="T3" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V3" s="192" t="s">
         <v>1047</v>
@@ -12245,7 +12243,7 @@
         <v>1043</v>
       </c>
       <c r="AF3" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG3" s="180"/>
       <c r="AH3" s="180"/>
@@ -12275,13 +12273,13 @@
       </c>
       <c r="F4" s="186"/>
       <c r="G4" s="187" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="187" t="s">
         <v>424</v>
       </c>
       <c r="I4" s="187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="52" t="s">
         <v>1050</v>
@@ -12311,13 +12309,13 @@
         <v>1055</v>
       </c>
       <c r="S4" s="330" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T4" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U4" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V4" s="180" t="s">
         <v>53</v>
@@ -12326,16 +12324,16 @@
         <v>1056</v>
       </c>
       <c r="X4" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y4" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z4" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA4" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB4" s="191" t="s">
         <v>236</v>
@@ -12350,7 +12348,7 @@
         <v>1043</v>
       </c>
       <c r="AF4" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG4" s="180"/>
       <c r="AH4" s="180"/>
@@ -12380,13 +12378,13 @@
       </c>
       <c r="F5" s="186"/>
       <c r="G5" s="187" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="187" t="s">
         <v>424</v>
       </c>
       <c r="I5" s="187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="52" t="s">
         <v>1059</v>
@@ -12416,13 +12414,13 @@
         <v>1062</v>
       </c>
       <c r="S5" s="330" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T5" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U5" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V5" s="180" t="s">
         <v>53</v>
@@ -12431,16 +12429,16 @@
         <v>1056</v>
       </c>
       <c r="X5" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y5" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA5" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB5" s="191" t="s">
         <v>236</v>
@@ -12455,7 +12453,7 @@
         <v>1043</v>
       </c>
       <c r="AF5" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG5" s="180"/>
       <c r="AH5" s="180"/>
@@ -12491,7 +12489,7 @@
         <v>424</v>
       </c>
       <c r="I6" s="187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>1064</v>
@@ -12524,10 +12522,10 @@
         <v>1066</v>
       </c>
       <c r="T6" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U6" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V6" s="180" t="s">
         <v>53</v>
@@ -12536,16 +12534,16 @@
         <v>1067</v>
       </c>
       <c r="X6" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y6" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z6" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA6" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB6" s="191" t="s">
         <v>236</v>
@@ -12560,7 +12558,7 @@
         <v>1043</v>
       </c>
       <c r="AF6" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG6" s="180"/>
       <c r="AH6" s="180"/>
@@ -12596,7 +12594,7 @@
         <v>424</v>
       </c>
       <c r="I7" s="187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="52" t="s">
         <v>1069</v>
@@ -12629,10 +12627,10 @@
         <v>1066</v>
       </c>
       <c r="T7" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U7" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V7" s="180" t="s">
         <v>53</v>
@@ -12641,16 +12639,16 @@
         <v>1067</v>
       </c>
       <c r="X7" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y7" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z7" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA7" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB7" s="191" t="s">
         <v>236</v>
@@ -12665,7 +12663,7 @@
         <v>1043</v>
       </c>
       <c r="AF7" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG7" s="180"/>
       <c r="AH7" s="180"/>
@@ -12701,7 +12699,7 @@
         <v>215</v>
       </c>
       <c r="I8" s="187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="52" t="s">
         <v>1053</v>
@@ -12734,10 +12732,10 @@
         <v>1074</v>
       </c>
       <c r="T8" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U8" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V8" s="180" t="s">
         <v>53</v>
@@ -12746,16 +12744,16 @@
         <v>1075</v>
       </c>
       <c r="X8" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y8" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z8" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA8" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB8" s="191" t="s">
         <v>53</v>
@@ -12770,7 +12768,7 @@
         <v>1043</v>
       </c>
       <c r="AF8" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG8" s="180"/>
       <c r="AH8" s="180"/>
@@ -12806,7 +12804,7 @@
         <v>215</v>
       </c>
       <c r="I9" s="187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="52" t="s">
         <v>1061</v>
@@ -12839,10 +12837,10 @@
         <v>1074</v>
       </c>
       <c r="T9" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U9" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V9" s="180" t="s">
         <v>53</v>
@@ -12851,16 +12849,16 @@
         <v>1075</v>
       </c>
       <c r="X9" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y9" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z9" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA9" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB9" s="191" t="s">
         <v>53</v>
@@ -12875,7 +12873,7 @@
         <v>1043</v>
       </c>
       <c r="AF9" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG9" s="180"/>
       <c r="AH9" s="180"/>
@@ -12905,13 +12903,13 @@
       </c>
       <c r="F10" s="186"/>
       <c r="G10" s="187" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="187" t="s">
         <v>424</v>
       </c>
       <c r="I10" s="187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="52" t="s">
         <v>1078</v>
@@ -12932,22 +12930,22 @@
         <v>410900</v>
       </c>
       <c r="P10" s="187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R10" s="187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S10" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T10" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U10" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V10" s="180" t="s">
         <v>53</v>
@@ -12956,16 +12954,16 @@
         <v>1056</v>
       </c>
       <c r="X10" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y10" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z10" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA10" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB10" s="191" t="s">
         <v>236</v>
@@ -12980,7 +12978,7 @@
         <v>1043</v>
       </c>
       <c r="AF10" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG10" s="180"/>
       <c r="AH10" s="180"/>
@@ -13010,13 +13008,13 @@
       </c>
       <c r="F11" s="186"/>
       <c r="G11" s="187" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="187" t="s">
         <v>424</v>
       </c>
       <c r="I11" s="187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="52" t="s">
         <v>1081</v>
@@ -13037,22 +13035,22 @@
         <v>410900</v>
       </c>
       <c r="P11" s="187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R11" s="187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S11" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T11" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U11" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V11" s="180" t="s">
         <v>53</v>
@@ -13061,16 +13059,16 @@
         <v>1056</v>
       </c>
       <c r="X11" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y11" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z11" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA11" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB11" s="191" t="s">
         <v>236</v>
@@ -13085,7 +13083,7 @@
         <v>1043</v>
       </c>
       <c r="AF11" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG11" s="180"/>
       <c r="AH11" s="180"/>
@@ -13115,13 +13113,13 @@
       </c>
       <c r="F12" s="186"/>
       <c r="G12" s="187" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="187" t="s">
         <v>424</v>
       </c>
       <c r="I12" s="187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="52" t="s">
         <v>1084</v>
@@ -13142,22 +13140,22 @@
         <v>410900</v>
       </c>
       <c r="P12" s="187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R12" s="187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S12" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T12" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U12" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V12" s="180" t="s">
         <v>53</v>
@@ -13166,16 +13164,16 @@
         <v>1056</v>
       </c>
       <c r="X12" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y12" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z12" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA12" s="180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB12" s="191" t="s">
         <v>236</v>
@@ -13190,7 +13188,7 @@
         <v>1043</v>
       </c>
       <c r="AF12" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG12" s="180"/>
       <c r="AH12" s="180"/>
@@ -13243,22 +13241,22 @@
         <v>410900</v>
       </c>
       <c r="P13" s="100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R13" s="197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S13" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T13" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U13" s="100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V13" s="91" t="s">
         <v>53</v>
@@ -13267,16 +13265,16 @@
         <v>203</v>
       </c>
       <c r="X13" s="91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y13" s="91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z13" s="91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA13" s="91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB13" s="199" t="s">
         <v>53</v>
@@ -13291,7 +13289,7 @@
         <v>1043</v>
       </c>
       <c r="AF13" s="100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG13" s="91"/>
       <c r="AH13" s="91"/>
@@ -13323,13 +13321,13 @@
         <v>1092</v>
       </c>
       <c r="G14" s="187" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="187" t="s">
         <v>424</v>
       </c>
       <c r="I14" s="187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14" s="52" t="s">
         <v>1093</v>
@@ -13359,13 +13357,13 @@
         <v>1098</v>
       </c>
       <c r="S14" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T14" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U14" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V14" s="190" t="s">
         <v>1099</v>
@@ -13398,7 +13396,7 @@
         <v>1043</v>
       </c>
       <c r="AF14" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG14" s="180"/>
       <c r="AH14" s="180"/>
@@ -13457,22 +13455,22 @@
         <v>410900</v>
       </c>
       <c r="P15" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="187" t="s">
         <v>262</v>
       </c>
       <c r="R15" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S15" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T15" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U15" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V15" s="190" t="s">
         <v>1099</v>
@@ -13505,7 +13503,7 @@
         <v>1043</v>
       </c>
       <c r="AF15" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG15" s="180"/>
       <c r="AH15" s="180"/>
@@ -13562,22 +13560,22 @@
         <v>410900</v>
       </c>
       <c r="P16" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="187" t="s">
         <v>262</v>
       </c>
       <c r="R16" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S16" s="52" t="s">
         <v>1111</v>
       </c>
       <c r="T16" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U16" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V16" s="190" t="s">
         <v>1099</v>
@@ -13610,7 +13608,7 @@
         <v>1043</v>
       </c>
       <c r="AF16" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG16" s="180"/>
       <c r="AH16" s="180"/>
@@ -13667,22 +13665,22 @@
         <v>410900</v>
       </c>
       <c r="P17" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="187" t="s">
         <v>262</v>
       </c>
       <c r="R17" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S17" s="52" t="s">
         <v>1111</v>
       </c>
       <c r="T17" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U17" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V17" s="190" t="s">
         <v>1099</v>
@@ -13715,7 +13713,7 @@
         <v>1043</v>
       </c>
       <c r="AF17" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG17" s="180"/>
       <c r="AH17" s="180"/>
@@ -13745,13 +13743,13 @@
       </c>
       <c r="F18" s="185"/>
       <c r="G18" s="187" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="193" t="s">
         <v>215</v>
       </c>
       <c r="I18" s="193" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" s="52" t="s">
         <v>1117</v>
@@ -13784,10 +13782,10 @@
         <v>1122</v>
       </c>
       <c r="T18" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U18" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V18" s="190" t="s">
         <v>1099</v>
@@ -13820,7 +13818,7 @@
         <v>1043</v>
       </c>
       <c r="AF18" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG18" s="180"/>
       <c r="AH18" s="180"/>
@@ -13850,13 +13848,13 @@
       </c>
       <c r="F19" s="185"/>
       <c r="G19" s="187" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="193" t="s">
         <v>215</v>
       </c>
       <c r="I19" s="193" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J19" s="52" t="s">
         <v>1124</v>
@@ -13889,10 +13887,10 @@
         <v>1122</v>
       </c>
       <c r="T19" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U19" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V19" s="190" t="s">
         <v>1099</v>
@@ -13925,7 +13923,7 @@
         <v>1043</v>
       </c>
       <c r="AF19" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG19" s="180"/>
       <c r="AH19" s="180"/>
@@ -13994,10 +13992,10 @@
         <v>695</v>
       </c>
       <c r="T20" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U20" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V20" s="190" t="s">
         <v>1099</v>
@@ -14030,7 +14028,7 @@
         <v>1043</v>
       </c>
       <c r="AF20" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG20" s="180"/>
       <c r="AH20" s="180"/>
@@ -14064,13 +14062,13 @@
       </c>
       <c r="F21" s="200"/>
       <c r="G21" s="201" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="36" t="s">
         <v>215</v>
       </c>
       <c r="I21" s="201" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J21" s="52" t="s">
         <v>1130</v>
@@ -14094,10 +14092,10 @@
       <c r="Q21" s="34"/>
       <c r="R21" s="34"/>
       <c r="S21" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T21" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U21" s="34" t="s">
         <v>205</v>
@@ -14167,13 +14165,13 @@
       </c>
       <c r="F22" s="200"/>
       <c r="G22" s="201" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="36" t="s">
         <v>215</v>
       </c>
       <c r="I22" s="201" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J22" s="52" t="s">
         <v>1139</v>
@@ -14197,10 +14195,10 @@
       <c r="Q22" s="34"/>
       <c r="R22" s="34"/>
       <c r="S22" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T22" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U22" s="34" t="s">
         <v>205</v>
@@ -14289,7 +14287,7 @@
       <c r="R23" s="34"/>
       <c r="S23" s="34"/>
       <c r="T23" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U23" s="34"/>
       <c r="V23" s="34"/>
@@ -14350,7 +14348,7 @@
       <c r="R24" s="34"/>
       <c r="S24" s="34"/>
       <c r="T24" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U24" s="34"/>
       <c r="V24" s="34"/>
@@ -14411,7 +14409,7 @@
       <c r="R25" s="34"/>
       <c r="S25" s="34"/>
       <c r="T25" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="34"/>
@@ -14455,13 +14453,13 @@
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="201" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26" s="201" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I26" s="201" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J26" s="52" t="s">
         <v>1156</v>
@@ -14485,10 +14483,10 @@
       <c r="Q26" s="34"/>
       <c r="R26" s="34"/>
       <c r="S26" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T26" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U26" s="34" t="s">
         <v>205</v>
@@ -14731,7 +14729,7 @@
         <v>215</v>
       </c>
       <c r="I2" s="307" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="311" t="s">
         <v>1163</v>
@@ -14842,7 +14840,7 @@
         <v>215</v>
       </c>
       <c r="I3" s="307" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="311" t="s">
         <v>1173</v>
@@ -14953,7 +14951,7 @@
         <v>215</v>
       </c>
       <c r="I4" s="307" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="318" t="s">
         <v>1179</v>
@@ -15064,7 +15062,7 @@
         <v>215</v>
       </c>
       <c r="I5" s="307" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="318" t="s">
         <v>1184</v>
@@ -15175,7 +15173,7 @@
         <v>215</v>
       </c>
       <c r="I6" s="307" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="318" t="s">
         <v>1184</v>
@@ -15286,7 +15284,7 @@
         <v>215</v>
       </c>
       <c r="I7" s="307" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="318" t="s">
         <v>1191</v>
@@ -15397,7 +15395,7 @@
         <v>215</v>
       </c>
       <c r="I8" s="306" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="311" t="s">
         <v>1196</v>
@@ -15508,7 +15506,7 @@
         <v>215</v>
       </c>
       <c r="I9" s="306" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="311" t="s">
         <v>1200</v>
@@ -15619,7 +15617,7 @@
         <v>872</v>
       </c>
       <c r="I10" s="307" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="318" t="s">
         <v>1203</v>
@@ -15730,7 +15728,7 @@
         <v>215</v>
       </c>
       <c r="I11" s="306" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="325"/>
       <c r="K11" s="326" t="s">
@@ -15825,7 +15823,7 @@
         <v>215</v>
       </c>
       <c r="I12" s="306" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="311" t="s">
         <v>1209</v>
@@ -15922,7 +15920,7 @@
         <v>215</v>
       </c>
       <c r="I13" s="306" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="325"/>
       <c r="K13" s="326" t="s">
@@ -16017,7 +16015,7 @@
         <v>215</v>
       </c>
       <c r="I14" s="306" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14" s="311" t="s">
         <v>1211</v>
@@ -16114,7 +16112,7 @@
         <v>215</v>
       </c>
       <c r="I15" s="307" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" s="328"/>
       <c r="K15" s="315" t="s">
@@ -16207,7 +16205,7 @@
         <v>215</v>
       </c>
       <c r="I16" s="307" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J16" s="318" t="s">
         <v>1218</v>
@@ -16318,7 +16316,7 @@
         <v>215</v>
       </c>
       <c r="I17" s="306" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J17" s="311" t="s">
         <v>1222</v>
@@ -16415,7 +16413,7 @@
         <v>215</v>
       </c>
       <c r="I18" s="306" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" s="326"/>
       <c r="K18" s="306" t="s">
@@ -16508,7 +16506,7 @@
         <v>215</v>
       </c>
       <c r="I19" s="306" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J19" s="326"/>
       <c r="K19" s="306" t="s">
@@ -16603,7 +16601,7 @@
         <v>215</v>
       </c>
       <c r="I20" s="306" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J20" s="325"/>
       <c r="K20" s="306" t="s">
@@ -16696,7 +16694,7 @@
         <v>215</v>
       </c>
       <c r="I21" s="307" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J21" s="311" t="s">
         <v>1232</v>
@@ -17140,7 +17138,7 @@
         <v>215</v>
       </c>
       <c r="I25" s="306" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J25" s="311" t="s">
         <v>1253</v>
@@ -17473,13 +17471,13 @@
         <v>642</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="36" t="s">
         <v>215</v>
       </c>
       <c r="I2" s="201" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36" t="s">
@@ -17564,13 +17562,13 @@
         <v>642</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>215</v>
       </c>
       <c r="I3" s="201" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="36"/>
       <c r="K3" s="36" t="s">
@@ -17655,13 +17653,13 @@
         <v>642</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>215</v>
       </c>
       <c r="I4" s="201" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="36"/>
       <c r="K4" s="36" t="s">
@@ -17746,13 +17744,13 @@
         <v>642</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>215</v>
       </c>
       <c r="I5" s="201" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="36" t="s">
@@ -18000,13 +17998,13 @@
         <v>196</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>197</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="35" t="s">
         <v>198</v>
@@ -18045,16 +18043,16 @@
         <v>206</v>
       </c>
       <c r="X2" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y2" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z2" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA2" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB2" s="34" t="s">
         <v>207</v>
@@ -18086,13 +18084,13 @@
         <v>211</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>197</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="35" t="s">
         <v>212</v>
@@ -18131,16 +18129,16 @@
         <v>206</v>
       </c>
       <c r="X3" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z3" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA3" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB3" s="34" t="s">
         <v>207</v>
@@ -18172,7 +18170,7 @@
         <v>196</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>215</v>
@@ -18217,16 +18215,16 @@
         <v>220</v>
       </c>
       <c r="X4" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y4" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z4" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA4" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB4" s="34" t="s">
         <v>53</v>
@@ -18258,7 +18256,7 @@
         <v>211</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="34" t="s">
         <v>215</v>
@@ -18303,16 +18301,16 @@
         <v>220</v>
       </c>
       <c r="X5" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y5" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA5" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB5" s="34" t="s">
         <v>53</v>
@@ -18572,13 +18570,13 @@
         <v>228</v>
       </c>
       <c r="G2" s="263" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="263" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="263" t="s">
+      <c r="I2" s="263" t="s">
         <v>28</v>
-      </c>
-      <c r="I2" s="263" t="s">
-        <v>29</v>
       </c>
       <c r="J2" s="288" t="s">
         <v>229</v>
@@ -18590,7 +18588,7 @@
         <v>231</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" s="10">
         <v>45797</v>
@@ -18599,7 +18597,7 @@
         <v>82182</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>232</v>
@@ -18611,10 +18609,10 @@
         <v>233</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>234</v>
@@ -18623,13 +18621,13 @@
         <v>235</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>236</v>
@@ -18715,13 +18713,13 @@
       </c>
       <c r="F3" s="101"/>
       <c r="G3" s="263" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="263" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="263" t="s">
+      <c r="I3" s="263" t="s">
         <v>28</v>
-      </c>
-      <c r="I3" s="263" t="s">
-        <v>29</v>
       </c>
       <c r="J3" s="288" t="s">
         <v>239</v>
@@ -18733,7 +18731,7 @@
         <v>240</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" s="10">
         <v>45797</v>
@@ -18742,7 +18740,7 @@
         <v>82182</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>232</v>
@@ -18754,10 +18752,10 @@
         <v>233</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>241</v>
@@ -18766,13 +18764,13 @@
         <v>235</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>53</v>
@@ -18863,10 +18861,10 @@
         <v>245</v>
       </c>
       <c r="H4" s="263" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="263" t="s">
         <v>28</v>
-      </c>
-      <c r="I4" s="263" t="s">
-        <v>29</v>
       </c>
       <c r="J4" s="288" t="s">
         <v>246</v>
@@ -18878,7 +18876,7 @@
         <v>248</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="10">
         <v>45797</v>
@@ -18887,7 +18885,7 @@
         <v>82182</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -18895,10 +18893,10 @@
         <v>233</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>249</v>
@@ -18907,13 +18905,13 @@
         <v>250</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>53</v>
@@ -19004,10 +19002,10 @@
         <v>245</v>
       </c>
       <c r="H5" s="263" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="263" t="s">
         <v>28</v>
-      </c>
-      <c r="I5" s="263" t="s">
-        <v>29</v>
       </c>
       <c r="J5" s="288" t="s">
         <v>252</v>
@@ -19019,7 +19017,7 @@
         <v>253</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" s="10">
         <v>45797</v>
@@ -19028,7 +19026,7 @@
         <v>82182</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -19036,10 +19034,10 @@
         <v>233</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>249</v>
@@ -19048,13 +19046,13 @@
         <v>254</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA5" s="2" t="s">
         <v>53</v>
@@ -19142,13 +19140,13 @@
         <v>257</v>
       </c>
       <c r="G6" s="263" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="263" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="263" t="s">
+      <c r="I6" s="263" t="s">
         <v>28</v>
-      </c>
-      <c r="I6" s="263" t="s">
-        <v>29</v>
       </c>
       <c r="J6" s="288" t="s">
         <v>258</v>
@@ -19169,7 +19167,7 @@
         <v>82182</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>262</v>
@@ -19181,10 +19179,10 @@
         <v>264</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>241</v>
@@ -19193,13 +19191,13 @@
         <v>265</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA6" s="2" t="s">
         <v>53</v>
@@ -19287,13 +19285,13 @@
         <v>267</v>
       </c>
       <c r="G7" s="263" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="263" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="263" t="s">
+      <c r="I7" s="263" t="s">
         <v>28</v>
-      </c>
-      <c r="I7" s="263" t="s">
-        <v>29</v>
       </c>
       <c r="J7" s="288" t="s">
         <v>268</v>
@@ -19314,7 +19312,7 @@
         <v>82182</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>262</v>
@@ -19326,10 +19324,10 @@
         <v>264</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>241</v>
@@ -19338,13 +19336,13 @@
         <v>271</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>53</v>
@@ -19432,13 +19430,13 @@
         <v>273</v>
       </c>
       <c r="G8" s="263" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="263" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="263" t="s">
+      <c r="I8" s="263" t="s">
         <v>28</v>
-      </c>
-      <c r="I8" s="263" t="s">
-        <v>29</v>
       </c>
       <c r="J8" s="288" t="s">
         <v>274</v>
@@ -19459,7 +19457,7 @@
         <v>82182</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>262</v>
@@ -19471,10 +19469,10 @@
         <v>264</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>241</v>
@@ -19483,13 +19481,13 @@
         <v>277</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA8" s="2" t="s">
         <v>53</v>
@@ -19575,13 +19573,13 @@
       </c>
       <c r="F9" s="266"/>
       <c r="G9" s="263" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="263" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="263" t="s">
+      <c r="I9" s="263" t="s">
         <v>28</v>
-      </c>
-      <c r="I9" s="263" t="s">
-        <v>29</v>
       </c>
       <c r="J9" s="288" t="s">
         <v>279</v>
@@ -19602,7 +19600,7 @@
         <v>82182</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>262</v>
@@ -19614,10 +19612,10 @@
         <v>264</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>241</v>
@@ -19626,13 +19624,13 @@
         <v>277</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA9" s="2" t="s">
         <v>53</v>
@@ -19720,13 +19718,13 @@
         <v>283</v>
       </c>
       <c r="G10" s="263" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="263" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="263" t="s">
+      <c r="I10" s="263" t="s">
         <v>28</v>
-      </c>
-      <c r="I10" s="263" t="s">
-        <v>29</v>
       </c>
       <c r="J10" s="288" t="s">
         <v>284</v>
@@ -19747,7 +19745,7 @@
         <v>82182</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>262</v>
@@ -19759,10 +19757,10 @@
         <v>264</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>241</v>
@@ -19771,13 +19769,13 @@
         <v>277</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA10" s="2" t="s">
         <v>53</v>
@@ -19861,13 +19859,13 @@
       </c>
       <c r="F11" s="266"/>
       <c r="G11" s="263" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="263" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="263" t="s">
+      <c r="I11" s="263" t="s">
         <v>28</v>
-      </c>
-      <c r="I11" s="263" t="s">
-        <v>29</v>
       </c>
       <c r="J11" s="288" t="s">
         <v>288</v>
@@ -19888,7 +19886,7 @@
         <v>82182</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -19896,23 +19894,23 @@
         <v>264</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U11" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>241</v>
       </c>
       <c r="W11" s="270"/>
       <c r="X11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA11" s="2" t="s">
         <v>53</v>
@@ -19998,13 +19996,13 @@
       </c>
       <c r="F12" s="101"/>
       <c r="G12" s="263" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="263" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="263" t="s">
+      <c r="I12" s="263" t="s">
         <v>28</v>
-      </c>
-      <c r="I12" s="263" t="s">
-        <v>29</v>
       </c>
       <c r="J12" s="288" t="s">
         <v>292</v>
@@ -20025,7 +20023,7 @@
         <v>82182</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -20033,23 +20031,23 @@
         <v>264</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U12" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>241</v>
       </c>
       <c r="W12" s="270"/>
       <c r="X12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA12" s="2" t="s">
         <v>53</v>
@@ -20164,7 +20162,7 @@
         <v>82182</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>262</v>
@@ -20176,10 +20174,10 @@
         <v>303</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>241</v>
@@ -20188,13 +20186,13 @@
         <v>265</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA13" s="2" t="s">
         <v>53</v>
@@ -20307,7 +20305,7 @@
         <v>82182</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="265" t="s">
         <v>309</v>
@@ -20316,13 +20314,13 @@
         <v>308</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T14" s="11" t="s">
         <v>203</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>310</v>
@@ -20331,13 +20329,13 @@
         <v>311</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>53</v>
@@ -20450,7 +20448,7 @@
         <v>82182</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="265" t="s">
         <v>309</v>
@@ -20459,13 +20457,13 @@
         <v>314</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T15" s="11" t="s">
         <v>203</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>315</v>
@@ -20474,13 +20472,13 @@
         <v>311</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA15" s="2" t="s">
         <v>53</v>
@@ -20810,13 +20808,13 @@
         <v>321</v>
       </c>
       <c r="G2" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="224" t="s">
         <v>215</v>
       </c>
       <c r="I2" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="224" t="s">
         <v>322</v>
@@ -20943,13 +20941,13 @@
         <v>338</v>
       </c>
       <c r="G3" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="224" t="s">
         <v>215</v>
       </c>
       <c r="I3" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="224" t="s">
         <v>339</v>
@@ -21076,13 +21074,13 @@
         <v>321</v>
       </c>
       <c r="G4" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="224" t="s">
         <v>215</v>
       </c>
       <c r="I4" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="224" t="s">
         <v>344</v>
@@ -21209,13 +21207,13 @@
         <v>338</v>
       </c>
       <c r="G5" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="224" t="s">
         <v>215</v>
       </c>
       <c r="I5" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="224" t="s">
         <v>348</v>
@@ -21342,13 +21340,13 @@
         <v>321</v>
       </c>
       <c r="G6" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="224" t="s">
         <v>215</v>
       </c>
       <c r="I6" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="224" t="s">
         <v>351</v>
@@ -21477,13 +21475,13 @@
         <v>338</v>
       </c>
       <c r="G7" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="224" t="s">
         <v>215</v>
       </c>
       <c r="I7" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="224" t="s">
         <v>357</v>
@@ -21612,13 +21610,13 @@
         <v>321</v>
       </c>
       <c r="G8" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="224" t="s">
         <v>215</v>
       </c>
       <c r="I8" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="224" t="s">
         <v>360</v>
@@ -21753,7 +21751,7 @@
         <v>215</v>
       </c>
       <c r="I9" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="224" t="s">
         <v>365</v>
@@ -21882,13 +21880,13 @@
         <v>368</v>
       </c>
       <c r="G10" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="224" t="s">
         <v>215</v>
       </c>
       <c r="I10" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="224" t="s">
         <v>369</v>
@@ -22034,13 +22032,13 @@
         <v>373</v>
       </c>
       <c r="G11" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="224" t="s">
         <v>215</v>
       </c>
       <c r="I11" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J11" s="224" t="s">
         <v>374</v>
@@ -22186,13 +22184,13 @@
         <v>376</v>
       </c>
       <c r="G12" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="224" t="s">
         <v>215</v>
       </c>
       <c r="I12" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="224" t="s">
         <v>377</v>
@@ -22319,13 +22317,13 @@
         <v>380</v>
       </c>
       <c r="G13" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="224" t="s">
         <v>215</v>
       </c>
       <c r="I13" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="224" t="s">
         <v>381</v>
@@ -22452,13 +22450,13 @@
         <v>383</v>
       </c>
       <c r="G14" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="224" t="s">
         <v>215</v>
       </c>
       <c r="I14" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J14" s="224" t="s">
         <v>384</v>
@@ -22581,13 +22579,13 @@
         <v>386</v>
       </c>
       <c r="G15" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="224" t="s">
         <v>215</v>
       </c>
       <c r="I15" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" s="224" t="s">
         <v>387</v>
@@ -22708,13 +22706,13 @@
       </c>
       <c r="F16" s="220"/>
       <c r="G16" s="249" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="224" t="s">
         <v>215</v>
       </c>
       <c r="I16" s="249" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J16" s="224" t="s">
         <v>392</v>
@@ -22738,13 +22736,13 @@
       </c>
       <c r="R16" s="250"/>
       <c r="S16" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T16" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U16" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V16" s="224" t="s">
         <v>396</v>
@@ -22835,13 +22833,13 @@
         <v>402</v>
       </c>
       <c r="G17" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="224" t="s">
         <v>215</v>
       </c>
       <c r="I17" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J17" s="224" t="s">
         <v>403</v>
@@ -22962,13 +22960,13 @@
       </c>
       <c r="F18" s="220"/>
       <c r="G18" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="224" t="s">
         <v>215</v>
       </c>
       <c r="I18" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" s="224" t="s">
         <v>410</v>
@@ -22992,7 +22990,7 @@
       </c>
       <c r="R18" s="220"/>
       <c r="S18" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T18" s="334" t="s">
         <v>414</v>
@@ -23091,13 +23089,13 @@
         <v>423</v>
       </c>
       <c r="G19" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="224" t="s">
         <v>424</v>
       </c>
       <c r="I19" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J19" s="224" t="s">
         <v>425</v>
@@ -23121,7 +23119,7 @@
       </c>
       <c r="R19" s="220"/>
       <c r="S19" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T19" s="334" t="s">
         <v>327</v>
@@ -23216,13 +23214,13 @@
         <v>428</v>
       </c>
       <c r="G20" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="224" t="s">
         <v>424</v>
       </c>
       <c r="I20" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J20" s="224" t="s">
         <v>429</v>
@@ -23246,7 +23244,7 @@
       </c>
       <c r="R20" s="220"/>
       <c r="S20" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T20" s="334" t="s">
         <v>327</v>
@@ -23341,13 +23339,13 @@
         <v>423</v>
       </c>
       <c r="G21" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="224" t="s">
         <v>424</v>
       </c>
       <c r="I21" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J21" s="224" t="s">
         <v>432</v>
@@ -23371,7 +23369,7 @@
       </c>
       <c r="R21" s="220"/>
       <c r="S21" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T21" s="334" t="s">
         <v>327</v>
@@ -23466,13 +23464,13 @@
         <v>428</v>
       </c>
       <c r="G22" s="224" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="224" t="s">
         <v>424</v>
       </c>
       <c r="I22" s="224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J22" s="224" t="s">
         <v>434</v>
@@ -23496,7 +23494,7 @@
       </c>
       <c r="R22" s="220"/>
       <c r="S22" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T22" s="334" t="s">
         <v>327</v>
@@ -23627,7 +23625,7 @@
         <v>443</v>
       </c>
       <c r="U23" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V23" s="224" t="s">
         <v>444</v>
@@ -23758,7 +23756,7 @@
         <v>443</v>
       </c>
       <c r="U24" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V24" s="224" t="s">
         <v>444</v>
@@ -23886,10 +23884,10 @@
         <v>442</v>
       </c>
       <c r="T25" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U25" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V25" s="224" t="s">
         <v>444</v>
@@ -24040,10 +24038,10 @@
         <v>442</v>
       </c>
       <c r="T26" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U26" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V26" s="224" t="s">
         <v>444</v>
@@ -24189,13 +24187,13 @@
       </c>
       <c r="R27" s="220"/>
       <c r="S27" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T27" s="334" t="s">
         <v>467</v>
       </c>
       <c r="U27" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V27" s="224" t="s">
         <v>416</v>
@@ -24316,13 +24314,13 @@
       </c>
       <c r="R28" s="250"/>
       <c r="S28" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T28" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U28" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V28" s="224" t="s">
         <v>444</v>
@@ -24411,13 +24409,13 @@
       </c>
       <c r="F29" s="220"/>
       <c r="G29" s="249" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" s="249" t="s">
         <v>215</v>
       </c>
       <c r="I29" s="249" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J29" s="224" t="s">
         <v>478</v>
@@ -24562,7 +24560,7 @@
         <v>443</v>
       </c>
       <c r="U30" s="334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V30" s="248" t="s">
         <v>444</v>
@@ -24797,7 +24795,7 @@
       </c>
       <c r="F2" s="47"/>
       <c r="G2" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="47" t="s">
         <v>489</v>
@@ -24836,10 +24834,10 @@
         <v>496</v>
       </c>
       <c r="T2" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U2" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" s="47"/>
       <c r="W2" s="53" t="s">
@@ -24928,7 +24926,7 @@
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="47" t="s">
         <v>489</v>
@@ -24967,10 +24965,10 @@
         <v>496</v>
       </c>
       <c r="T3" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U3" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V3" s="47"/>
       <c r="W3" s="53"/>
@@ -25055,7 +25053,7 @@
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="47" t="s">
         <v>489</v>
@@ -25094,10 +25092,10 @@
         <v>496</v>
       </c>
       <c r="T4" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U4" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V4" s="47"/>
       <c r="W4" s="53" t="s">
@@ -25186,7 +25184,7 @@
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="47" t="s">
         <v>489</v>
@@ -25225,10 +25223,10 @@
         <v>496</v>
       </c>
       <c r="T5" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U5" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V5" s="47"/>
       <c r="W5" s="53"/>
@@ -25315,7 +25313,7 @@
         <v>511</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="47" t="s">
         <v>489</v>
@@ -25354,10 +25352,10 @@
         <v>496</v>
       </c>
       <c r="T6" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U6" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V6" s="47" t="s">
         <v>53</v>
@@ -25483,10 +25481,10 @@
         <v>520</v>
       </c>
       <c r="T7" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U7" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V7" s="47"/>
       <c r="W7" s="47" t="s">
@@ -25612,10 +25610,10 @@
         <v>520</v>
       </c>
       <c r="T8" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U8" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V8" s="47"/>
       <c r="W8" s="47"/>
@@ -25739,10 +25737,10 @@
         <v>520</v>
       </c>
       <c r="T9" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U9" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V9" s="47"/>
       <c r="W9" s="47"/>
@@ -26046,13 +26044,13 @@
       </c>
       <c r="F2" s="83"/>
       <c r="G2" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="36" t="s">
         <v>424</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="36" t="s">
         <v>551</v>
@@ -26265,7 +26263,7 @@
         <v>568</v>
       </c>
       <c r="I4" s="54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="36" t="s">
         <v>569</v>
@@ -26356,7 +26354,7 @@
         <v>215</v>
       </c>
       <c r="I5" s="100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="36" t="s">
         <v>577</v>
@@ -26698,13 +26696,13 @@
       </c>
       <c r="F2" s="112"/>
       <c r="G2" s="115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="115" t="s">
         <v>589</v>
       </c>
       <c r="I2" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="115" t="s">
         <v>590</v>
@@ -26791,13 +26789,13 @@
       </c>
       <c r="F3" s="112"/>
       <c r="G3" s="115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="112" t="s">
         <v>589</v>
       </c>
       <c r="I3" s="118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="115" t="s">
         <v>600</v>
@@ -27048,13 +27046,13 @@
       </c>
       <c r="F6" s="112"/>
       <c r="G6" s="115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="115" t="s">
         <v>589</v>
       </c>
       <c r="I6" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="115" t="s">
         <v>619</v>
@@ -27230,13 +27228,13 @@
         <v>631</v>
       </c>
       <c r="G8" s="115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="115" t="s">
         <v>589</v>
       </c>
       <c r="I8" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="115" t="s">
         <v>632</v>
@@ -27476,7 +27474,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="130" t="s">
         <v>643</v>
@@ -27501,7 +27499,7 @@
         <v>646</v>
       </c>
       <c r="T2" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U2" s="147" t="s">
         <v>205</v>
@@ -27573,7 +27571,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="130" t="s">
         <v>653</v>
@@ -27598,7 +27596,7 @@
         <v>646</v>
       </c>
       <c r="T3" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" s="147" t="s">
         <v>205</v>
@@ -27670,7 +27668,7 @@
         <v>658</v>
       </c>
       <c r="I4" s="142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="130" t="s">
         <v>659</v>
@@ -27695,7 +27693,7 @@
         <v>662</v>
       </c>
       <c r="T4" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U4" s="147" t="s">
         <v>205</v>
@@ -27765,7 +27763,7 @@
         <v>658</v>
       </c>
       <c r="I5" s="142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="130" t="s">
         <v>666</v>
@@ -27790,7 +27788,7 @@
         <v>646</v>
       </c>
       <c r="T5" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U5" s="147" t="s">
         <v>205</v>
@@ -28228,13 +28226,13 @@
         <v>642</v>
       </c>
       <c r="G2" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I2" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="145" t="s">
         <v>683</v>
@@ -28265,7 +28263,7 @@
         <v>687</v>
       </c>
       <c r="T2" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U2" s="224" t="s">
         <v>205</v>
@@ -28388,7 +28386,7 @@
         <v>695</v>
       </c>
       <c r="T3" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" s="224" t="s">
         <v>205</v>
@@ -28476,13 +28474,13 @@
         <v>642</v>
       </c>
       <c r="G4" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I4" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="145" t="s">
         <v>698</v>
@@ -28513,7 +28511,7 @@
         <v>702</v>
       </c>
       <c r="T4" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U4" s="224" t="s">
         <v>205</v>
@@ -28660,7 +28658,7 @@
         <v>695</v>
       </c>
       <c r="T5" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U5" s="147"/>
       <c r="V5" s="224" t="s">
@@ -28770,13 +28768,13 @@
         <v>642</v>
       </c>
       <c r="G6" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I6" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="145" t="s">
         <v>706</v>
@@ -28807,7 +28805,7 @@
         <v>702</v>
       </c>
       <c r="T6" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U6" s="224" t="s">
         <v>205</v>
@@ -28954,7 +28952,7 @@
         <v>695</v>
       </c>
       <c r="T7" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U7" s="147"/>
       <c r="V7" s="224" t="s">
@@ -29064,13 +29062,13 @@
         <v>642</v>
       </c>
       <c r="G8" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I8" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="145" t="s">
         <v>712</v>
@@ -29101,7 +29099,7 @@
         <v>702</v>
       </c>
       <c r="T8" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U8" s="224" t="s">
         <v>205</v>
@@ -29224,7 +29222,7 @@
         <v>695</v>
       </c>
       <c r="T9" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U9" s="147"/>
       <c r="V9" s="224" t="s">
@@ -29334,13 +29332,13 @@
         <v>642</v>
       </c>
       <c r="G10" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I10" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="145" t="s">
         <v>718</v>
@@ -29371,7 +29369,7 @@
         <v>702</v>
       </c>
       <c r="T10" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U10" s="147" t="s">
         <v>205</v>
@@ -29494,7 +29492,7 @@
         <v>695</v>
       </c>
       <c r="T11" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U11" s="147"/>
       <c r="V11" s="224" t="s">
@@ -29604,13 +29602,13 @@
         <v>642</v>
       </c>
       <c r="G12" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I12" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="145" t="s">
         <v>726</v>
@@ -29639,7 +29637,7 @@
         <v>702</v>
       </c>
       <c r="T12" s="147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U12" s="147"/>
       <c r="V12" s="224" t="s">
@@ -29747,13 +29745,13 @@
         <v>642</v>
       </c>
       <c r="G13" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I13" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J13" s="145" t="s">
         <v>732</v>
@@ -29784,7 +29782,7 @@
         <v>687</v>
       </c>
       <c r="T13" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U13" s="224" t="s">
         <v>205</v>
@@ -29931,7 +29929,7 @@
         <v>695</v>
       </c>
       <c r="T14" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U14" s="224" t="s">
         <v>205</v>
@@ -30043,13 +30041,13 @@
         <v>642</v>
       </c>
       <c r="G15" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I15" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J15" s="145" t="s">
         <v>740</v>
@@ -30080,7 +30078,7 @@
         <v>687</v>
       </c>
       <c r="T15" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U15" s="224" t="s">
         <v>205</v>
@@ -30203,7 +30201,7 @@
         <v>695</v>
       </c>
       <c r="T16" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U16" s="224"/>
       <c r="V16" s="224" t="s">
@@ -30289,13 +30287,13 @@
         <v>747</v>
       </c>
       <c r="G17" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I17" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J17" s="145" t="s">
         <v>748</v>
@@ -30326,7 +30324,7 @@
         <v>752</v>
       </c>
       <c r="T17" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U17" s="224" t="s">
         <v>205</v>
@@ -30438,13 +30436,13 @@
         <v>755</v>
       </c>
       <c r="G18" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I18" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" s="145" t="s">
         <v>756</v>
@@ -30470,10 +30468,10 @@
       </c>
       <c r="R18" s="336"/>
       <c r="S18" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T18" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U18" s="224" t="s">
         <v>205</v>
@@ -30585,13 +30583,13 @@
         <v>747</v>
       </c>
       <c r="G19" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I19" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J19" s="145" t="s">
         <v>760</v>
@@ -30620,7 +30618,7 @@
         <v>752</v>
       </c>
       <c r="T19" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U19" s="224" t="s">
         <v>205</v>
@@ -30732,13 +30730,13 @@
         <v>755</v>
       </c>
       <c r="G20" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="221" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I20" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J20" s="145" t="s">
         <v>764</v>
@@ -30767,7 +30765,7 @@
         <v>752</v>
       </c>
       <c r="T20" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U20" s="224" t="s">
         <v>205</v>
@@ -30879,13 +30877,13 @@
         <v>747</v>
       </c>
       <c r="G21" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I21" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J21" s="145" t="s">
         <v>767</v>
@@ -30914,7 +30912,7 @@
         <v>752</v>
       </c>
       <c r="T21" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U21" s="224" t="s">
         <v>205</v>
@@ -31002,13 +31000,13 @@
         <v>755</v>
       </c>
       <c r="G22" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="221" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J22" s="145" t="s">
         <v>770</v>
@@ -31037,7 +31035,7 @@
         <v>752</v>
       </c>
       <c r="T22" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U22" s="224" t="s">
         <v>205</v>
@@ -31125,13 +31123,13 @@
         <v>747</v>
       </c>
       <c r="G23" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I23" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J23" s="145" t="s">
         <v>774</v>
@@ -31160,7 +31158,7 @@
         <v>752</v>
       </c>
       <c r="T23" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U23" s="224" t="s">
         <v>205</v>
@@ -31272,13 +31270,13 @@
         <v>755</v>
       </c>
       <c r="G24" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24" s="221" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I24" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J24" s="145" t="s">
         <v>778</v>
@@ -31307,7 +31305,7 @@
         <v>752</v>
       </c>
       <c r="T24" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U24" s="224" t="s">
         <v>205</v>
@@ -31419,13 +31417,13 @@
         <v>747</v>
       </c>
       <c r="G25" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H25" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I25" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J25" s="145" t="s">
         <v>781</v>
@@ -31454,7 +31452,7 @@
         <v>752</v>
       </c>
       <c r="T25" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U25" s="224" t="s">
         <v>205</v>
@@ -31566,13 +31564,13 @@
         <v>755</v>
       </c>
       <c r="G26" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26" s="221" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I26" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J26" s="145" t="s">
         <v>784</v>
@@ -31601,7 +31599,7 @@
         <v>752</v>
       </c>
       <c r="T26" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U26" s="224" t="s">
         <v>205</v>
@@ -31713,13 +31711,13 @@
         <v>747</v>
       </c>
       <c r="G27" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H27" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I27" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J27" s="145" t="s">
         <v>787</v>
@@ -31748,7 +31746,7 @@
         <v>752</v>
       </c>
       <c r="T27" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U27" s="224" t="s">
         <v>205</v>
@@ -31860,13 +31858,13 @@
         <v>755</v>
       </c>
       <c r="G28" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H28" s="221" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I28" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J28" s="145" t="s">
         <v>789</v>
@@ -31895,7 +31893,7 @@
         <v>752</v>
       </c>
       <c r="T28" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U28" s="224" t="s">
         <v>205</v>
@@ -32007,13 +32005,13 @@
         <v>793</v>
       </c>
       <c r="G29" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I29" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J29" s="145" t="s">
         <v>794</v>
@@ -32042,7 +32040,7 @@
         <v>752</v>
       </c>
       <c r="T29" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U29" s="224" t="s">
         <v>205</v>
@@ -32154,13 +32152,13 @@
         <v>796</v>
       </c>
       <c r="G30" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H30" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I30" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J30" s="145" t="s">
         <v>797</v>
@@ -32189,7 +32187,7 @@
         <v>752</v>
       </c>
       <c r="T30" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U30" s="224" t="s">
         <v>205</v>
@@ -32301,13 +32299,13 @@
         <v>800</v>
       </c>
       <c r="G31" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H31" s="221" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I31" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J31" s="145" t="s">
         <v>801</v>
@@ -32333,10 +32331,10 @@
       </c>
       <c r="R31" s="336"/>
       <c r="S31" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T31" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U31" s="224" t="s">
         <v>205</v>
@@ -32448,13 +32446,13 @@
         <v>793</v>
       </c>
       <c r="G32" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H32" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I32" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J32" s="145" t="s">
         <v>804</v>
@@ -32483,7 +32481,7 @@
         <v>752</v>
       </c>
       <c r="T32" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U32" s="224" t="s">
         <v>205</v>
@@ -32595,13 +32593,13 @@
         <v>806</v>
       </c>
       <c r="G33" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H33" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I33" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J33" s="145" t="s">
         <v>807</v>
@@ -32630,7 +32628,7 @@
         <v>752</v>
       </c>
       <c r="T33" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U33" s="224" t="s">
         <v>205</v>
@@ -32718,13 +32716,13 @@
         <v>800</v>
       </c>
       <c r="G34" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H34" s="221" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J34" s="145" t="s">
         <v>810</v>
@@ -32750,10 +32748,10 @@
       </c>
       <c r="R34" s="336"/>
       <c r="S34" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T34" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U34" s="224" t="s">
         <v>205</v>
@@ -32841,13 +32839,13 @@
         <v>814</v>
       </c>
       <c r="G35" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H35" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I35" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J35" s="145" t="s">
         <v>815</v>
@@ -32878,7 +32876,7 @@
         <v>752</v>
       </c>
       <c r="T35" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U35" s="224" t="s">
         <v>205</v>
@@ -32996,7 +32994,7 @@
         <v>215</v>
       </c>
       <c r="I36" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J36" s="145" t="s">
         <v>820</v>
@@ -33025,7 +33023,7 @@
         <v>695</v>
       </c>
       <c r="T36" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U36" s="224" t="s">
         <v>205</v>
@@ -33137,13 +33135,13 @@
         <v>814</v>
       </c>
       <c r="G37" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H37" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I37" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J37" s="145" t="s">
         <v>822</v>
@@ -33174,7 +33172,7 @@
         <v>687</v>
       </c>
       <c r="T37" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U37" s="224" t="s">
         <v>205</v>
@@ -33292,7 +33290,7 @@
         <v>215</v>
       </c>
       <c r="I38" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J38" s="145" t="s">
         <v>825</v>
@@ -33321,7 +33319,7 @@
         <v>695</v>
       </c>
       <c r="T38" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U38" s="224" t="s">
         <v>205</v>
@@ -33433,13 +33431,13 @@
         <v>814</v>
       </c>
       <c r="G39" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H39" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I39" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J39" s="145" t="s">
         <v>828</v>
@@ -33470,7 +33468,7 @@
         <v>687</v>
       </c>
       <c r="T39" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U39" s="224" t="s">
         <v>205</v>
@@ -33588,7 +33586,7 @@
         <v>215</v>
       </c>
       <c r="I40" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J40" s="145" t="s">
         <v>832</v>
@@ -33617,7 +33615,7 @@
         <v>695</v>
       </c>
       <c r="T40" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U40" s="224" t="s">
         <v>205</v>
@@ -33754,22 +33752,22 @@
       </c>
       <c r="O41" s="223"/>
       <c r="P41" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q41" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R41" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S41" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T41" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U41" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V41" s="224" t="s">
         <v>53</v>
@@ -33901,22 +33899,22 @@
       </c>
       <c r="O42" s="223"/>
       <c r="P42" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q42" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R42" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S42" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T42" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U42" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V42" s="224" t="s">
         <v>53</v>
@@ -34023,13 +34021,13 @@
         <v>847</v>
       </c>
       <c r="G43" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H43" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I43" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J43" s="291" t="s">
         <v>848</v>
@@ -34048,22 +34046,22 @@
       </c>
       <c r="O43" s="293"/>
       <c r="P43" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q43" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R43" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S43" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T43" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U43" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V43" s="224" t="s">
         <v>53</v>
@@ -34126,13 +34124,13 @@
         <v>852</v>
       </c>
       <c r="G44" s="221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H44" s="221" t="s">
         <v>215</v>
       </c>
       <c r="I44" s="222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J44" s="291" t="s">
         <v>853</v>
@@ -34151,22 +34149,22 @@
       </c>
       <c r="O44" s="293"/>
       <c r="P44" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q44" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R44" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S44" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T44" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U44" s="224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V44" s="224" t="s">
         <v>53</v>
